--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
   <si>
     <t>Variable</t>
   </si>
@@ -224,24 +224,6 @@
     <t>08-Group bankruptcy</t>
   </si>
   <si>
-    <t>09-Sconfino</t>
-  </si>
-  <si>
-    <t>10-Protesto di cambiali o di assegni</t>
-  </si>
-  <si>
-    <t>11-Proposta di saldo o stralcio</t>
-  </si>
-  <si>
-    <t>12-Segnalazione a sofferenze Centrale dei Rischi</t>
-  </si>
-  <si>
-    <t>13-Inadempimenti pagamento titoli di debito emessi</t>
-  </si>
-  <si>
-    <t>14-Avvio procedura concorsuale</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_RATING</t>
   </si>
   <si>
@@ -308,9 +290,6 @@
     <t>GROUP_BANKRUPTCY_STRING</t>
   </si>
   <si>
-    <t>SCONFINO_REAL</t>
-  </si>
-  <si>
     <t>PROTESTO_CAMBIALI_ASSEGNI_STRING</t>
   </si>
   <si>
@@ -374,10 +353,34 @@
     <t>TARGET</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>TARGET_STRING</t>
+  </si>
+  <si>
+    <t>Target Default (6 months)</t>
+  </si>
+  <si>
+    <t>10-Protest of bills or checks</t>
+  </si>
+  <si>
+    <t>11-Full and final settlement offer</t>
+  </si>
+  <si>
+    <t>12-Report to non performing loans in CR</t>
+  </si>
+  <si>
+    <t>13-Obligations non-fulfillment</t>
+  </si>
+  <si>
+    <t>14-Debtor has filled bankruptcy application</t>
+  </si>
+  <si>
+    <t>SCONFINO_INT</t>
+  </si>
+  <si>
+    <t>09-Overdraft (Days)</t>
+  </si>
+  <si>
+    <t>REAl</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +428,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -440,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,6 +463,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,16 +1596,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1592,13 +1613,13 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1607,16 +1628,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1624,13 +1645,13 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1639,16 +1660,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1656,13 +1677,13 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1671,16 +1692,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1688,13 +1709,13 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1703,16 +1724,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1720,13 +1741,13 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1735,16 +1756,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1752,13 +1773,13 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1767,16 +1788,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1784,13 +1805,13 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1799,16 +1820,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1816,13 +1837,13 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <v>8</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1831,16 +1852,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1848,14 +1869,14 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
-        <v>51</v>
+      <c r="J12" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1863,16 +1884,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1880,14 +1901,14 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
-        <v>52</v>
+      <c r="J13" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1895,16 +1916,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1912,14 +1933,14 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
+      <c r="I14" s="9">
+        <v>11</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1927,16 +1948,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1944,14 +1965,14 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1959,16 +1980,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1976,14 +1997,14 @@
       <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
-        <v>55</v>
+      <c r="J16" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1991,16 +2012,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -2008,14 +2029,14 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>14</v>
       </c>
-      <c r="J17" t="s">
-        <v>56</v>
+      <c r="J17" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -2023,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -2040,14 +2061,14 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
+      <c r="H18" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="3">
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2062,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,10 +2132,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -2128,15 +2149,15 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2145,15 +2166,15 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2162,15 +2183,15 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2179,15 +2200,15 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2196,15 +2217,15 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2213,15 +2234,15 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2230,15 +2251,15 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2247,15 +2268,15 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2264,16 +2285,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2281,15 +2302,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2298,15 +2319,15 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2315,15 +2336,15 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2332,15 +2353,15 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2349,15 +2370,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2366,16 +2387,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -305,33 +305,6 @@
     <t>AVVIO_PROCEDUTA_CONCORSUALE_STRING</t>
   </si>
   <si>
-    <t xml:space="preserve">IND_1                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_2                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_3                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_4                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_5                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_6                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_7                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_8                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_9                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">IND_10                        </t>
   </si>
   <si>
@@ -381,6 +354,33 @@
   </si>
   <si>
     <t>REAl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_01                         </t>
+  </si>
+  <si>
+    <t>IND_02</t>
+  </si>
+  <si>
+    <t>IND_03</t>
+  </si>
+  <si>
+    <t>IND_04</t>
+  </si>
+  <si>
+    <t>IND_05</t>
+  </si>
+  <si>
+    <t>IND_06</t>
+  </si>
+  <si>
+    <t>IND_07</t>
+  </si>
+  <si>
+    <t>IND_08</t>
+  </si>
+  <si>
+    <t>IND_09</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1637,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1669,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1701,7 +1701,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1733,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1797,7 +1797,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1829,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1861,7 +1861,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1876,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1957,22 +1957,22 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>12</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2004,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -2044,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -2068,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2132,10 +2132,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -2285,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>59</v>
@@ -2387,16 +2387,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -344,9 +344,6 @@
     <t>13-Obligations non-fulfillment</t>
   </si>
   <si>
-    <t>14-Debtor has filled bankruptcy application</t>
-  </si>
-  <si>
     <t>SCONFINO_INT</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>IND_09</t>
+  </si>
+  <si>
+    <t>14-Bankruptcy proceedings start-up</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1637,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1669,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1701,7 +1701,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1733,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1797,7 +1797,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1829,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1861,7 +1861,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1876,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -2035,8 +2035,8 @@
       <c r="I17" s="7">
         <v>14</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>91</v>
+      <c r="J17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -2073,9 +2073,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2285,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>59</v>
@@ -2396,7 +2396,7 @@
         <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,32 +44,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CREATE, MODIFY, CREATE/MODIFY, DELETE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="107">
   <si>
     <t>Variable</t>
   </si>
@@ -305,21 +281,6 @@
     <t>AVVIO_PROCEDUTA_CONCORSUALE_STRING</t>
   </si>
   <si>
-    <t xml:space="preserve">IND_10                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_11                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_12                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_13                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_14                        </t>
-  </si>
-  <si>
     <t>SNDG_STRING</t>
   </si>
   <si>
@@ -353,9 +314,6 @@
     <t>REAl</t>
   </si>
   <si>
-    <t xml:space="preserve">IND_01                         </t>
-  </si>
-  <si>
     <t>IND_02</t>
   </si>
   <si>
@@ -381,18 +339,52 @@
   </si>
   <si>
     <t>14-Bankruptcy proceedings start-up</t>
+  </si>
+  <si>
+    <t>IND_01</t>
+  </si>
+  <si>
+    <t>IND_10</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>IND_12</t>
+  </si>
+  <si>
+    <t>IND_13</t>
+  </si>
+  <si>
+    <t>IND_14</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>CATEGORICAL</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -416,8 +408,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +462,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC2524"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -452,26 +477,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,15 +586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -617,15 +644,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,15 +702,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -733,15 +760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -791,15 +818,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -854,7 +881,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1492,590 +1519,639 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625"/>
-    <col min="5" max="6" width="17.5703125"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="8">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="8">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="8">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="9">
-        <v>7</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="9">
-        <v>11</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>12</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G18" s="8">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
-        <v>86</v>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2084,7 +2160,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,10 +2208,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -2154,10 +2230,10 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2171,10 +2247,10 @@
       <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2188,10 +2264,10 @@
       <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2205,10 +2281,10 @@
       <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2222,10 +2298,10 @@
       <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2239,10 +2315,10 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2256,10 +2332,10 @@
       <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2273,10 +2349,10 @@
       <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2285,15 +2361,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2307,10 +2383,10 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2324,10 +2400,10 @@
       <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2341,10 +2417,10 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2358,10 +2434,10 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2375,10 +2451,10 @@
       <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2387,16 +2463,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2462,154 +2538,154 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2644,7 +2720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2749,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +2776,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2803,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2754,7 +2830,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2783,7 +2859,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2886,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>IsSegment</t>
+  </si>
+  <si>
+    <t>SEGMENT_STRING</t>
+  </si>
+  <si>
+    <t>IsPossibleTarget</t>
   </si>
 </sst>
 </file>
@@ -378,6 +390,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -414,14 +433,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -479,22 +490,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +607,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185025</xdr:rowOff>
+      <xdr:rowOff>175500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -652,7 +665,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185025</xdr:rowOff>
+      <xdr:rowOff>175500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -710,7 +723,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185025</xdr:rowOff>
+      <xdr:rowOff>175500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -768,7 +781,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185025</xdr:rowOff>
+      <xdr:rowOff>175500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -826,7 +839,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185025</xdr:rowOff>
+      <xdr:rowOff>175500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -932,7 +945,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85260</xdr:rowOff>
+      <xdr:rowOff>75735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -990,7 +1003,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85260</xdr:rowOff>
+      <xdr:rowOff>75735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1048,7 +1061,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85260</xdr:rowOff>
+      <xdr:rowOff>75735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1106,7 +1119,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85260</xdr:rowOff>
+      <xdr:rowOff>75735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1164,7 +1177,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85260</xdr:rowOff>
+      <xdr:rowOff>75735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1520,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,12 +1546,15 @@
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="1019" width="8.7109375"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1552,8 +1568,10 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1587,8 +1605,14 @@
       <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1622,8 +1646,14 @@
       <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1657,8 +1687,14 @@
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1692,8 +1728,14 @@
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1727,8 +1769,14 @@
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1762,8 +1810,14 @@
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1797,8 +1851,14 @@
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1832,8 +1892,14 @@
       <c r="K9" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1867,8 +1933,14 @@
       <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1902,8 +1974,14 @@
       <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +2015,14 @@
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1972,8 +2056,14 @@
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2007,8 +2097,14 @@
       <c r="K14" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2042,8 +2138,14 @@
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2077,8 +2179,14 @@
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -2112,8 +2220,14 @@
       <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -2146,6 +2260,53 @@
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="10">
+        <v>17</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2157,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,6 +2634,23 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="115">
   <si>
     <t>Variable</t>
   </si>
@@ -378,18 +378,37 @@
   </si>
   <si>
     <t>IsPossibleTarget</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>EXPOSURE_REAL</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,24 +509,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +627,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175500</xdr:rowOff>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,7 +685,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175500</xdr:rowOff>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -723,7 +743,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175500</xdr:rowOff>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -781,7 +801,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175500</xdr:rowOff>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -839,7 +859,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175500</xdr:rowOff>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -945,7 +965,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>75735</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1003,7 +1023,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>75735</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,7 +1081,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>75735</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1119,7 +1139,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>75735</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1177,7 +1197,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>75735</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1533,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1574,7 @@
     <col min="13" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1570,8 +1590,9 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="M2" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1652,8 +1676,11 @@
       <c r="M3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1693,8 +1720,11 @@
       <c r="M4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1734,8 +1764,11 @@
       <c r="M5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1775,8 +1808,11 @@
       <c r="M6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1816,8 +1852,11 @@
       <c r="M7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1857,8 +1896,11 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1898,8 +1940,11 @@
       <c r="M9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1939,8 +1984,11 @@
       <c r="M10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1980,8 +2028,11 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2021,8 +2072,11 @@
       <c r="M12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2062,8 +2116,11 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2103,8 +2160,11 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2144,8 +2204,11 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2185,8 +2248,11 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -2226,8 +2292,11 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -2267,8 +2336,11 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -2290,8 +2362,8 @@
       <c r="G19" s="10">
         <v>17</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2307,6 +2379,53 @@
       </c>
       <c r="M19" t="b">
         <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="10">
+        <v>18</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2318,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,6 +2770,23 @@
       </c>
       <c r="F19" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="151">
   <si>
     <t>Variable</t>
   </si>
@@ -390,18 +390,133 @@
   </si>
   <si>
     <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>IND_24</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS_STRING</t>
+  </si>
+  <si>
+    <t>IND_25</t>
+  </si>
+  <si>
+    <t>IND_26</t>
+  </si>
+  <si>
+    <t>IND_27</t>
+  </si>
+  <si>
+    <t>IND_28</t>
+  </si>
+  <si>
+    <t>IND_29</t>
+  </si>
+  <si>
+    <t>IND_30</t>
+  </si>
+  <si>
+    <t>IND_31</t>
+  </si>
+  <si>
+    <t>IND_32</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>24-Severe phenomena personnel management</t>
+  </si>
+  <si>
+    <t>25-Protested bill or our Bank initiative checks and other banks</t>
+  </si>
+  <si>
+    <t>26-Decanalization and issuance of convenience or abusive portfolio</t>
+  </si>
+  <si>
+    <t>27-Involvement in serious crimes with economic and legal consequences</t>
+  </si>
+  <si>
+    <t>28-Request admission to a competitive procedure for the debtor</t>
+  </si>
+  <si>
+    <t>29-Storage / Publication restructuring agreement for liquidation</t>
+  </si>
+  <si>
+    <t>30-Default with respect to payments on debt securities listed</t>
+  </si>
+  <si>
+    <t>31-Significant overdue debts towards public bodies</t>
+  </si>
+  <si>
+    <t>32-Initiation of bankruptcy proceedings for a group company</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT_STRING</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF_STRING</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_STRING</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH_STRING</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT_STRING</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT_STRING</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI_STRING</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -509,24 +624,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -626,8 +743,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,8 +801,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -742,8 +859,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -800,8 +917,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -858,8 +975,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -964,8 +1081,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1022,8 +1139,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1080,8 +1197,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,8 +1255,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1196,8 +1313,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1553,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,71 +2369,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
+      <c r="B17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>79</v>
+      <c r="B18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>126</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="G18" s="8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
@@ -2324,107 +2441,503 @@
       <c r="I18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>106</v>
+      <c r="J18" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="L18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="10">
-        <v>17</v>
+      <c r="B19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="8">
+        <v>26</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L19" t="b">
+      <c r="L19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="8">
+        <v>27</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="8">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="8">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="8">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="8">
+        <v>31</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="8">
+        <v>32</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="8">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="8">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
         <v>1</v>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="10">
+        <v>17</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F29" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G29" s="10">
         <v>18</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="H29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2437,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,6 +3300,159 @@
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -395,36 +395,9 @@
     <t>JD_NEG_EV_PERS</t>
   </si>
   <si>
-    <t>IND_24</t>
-  </si>
-  <si>
     <t>JD_NEG_EV_PERS_STRING</t>
   </si>
   <si>
-    <t>IND_25</t>
-  </si>
-  <si>
-    <t>IND_26</t>
-  </si>
-  <si>
-    <t>IND_27</t>
-  </si>
-  <si>
-    <t>IND_28</t>
-  </si>
-  <si>
-    <t>IND_29</t>
-  </si>
-  <si>
-    <t>IND_30</t>
-  </si>
-  <si>
-    <t>IND_31</t>
-  </si>
-  <si>
-    <t>IND_32</t>
-  </si>
-  <si>
     <t>JD_PROTEST_INT</t>
   </si>
   <si>
@@ -452,30 +425,6 @@
     <t>24-Severe phenomena personnel management</t>
   </si>
   <si>
-    <t>25-Protested bill or our Bank initiative checks and other banks</t>
-  </si>
-  <si>
-    <t>26-Decanalization and issuance of convenience or abusive portfolio</t>
-  </si>
-  <si>
-    <t>27-Involvement in serious crimes with economic and legal consequences</t>
-  </si>
-  <si>
-    <t>28-Request admission to a competitive procedure for the debtor</t>
-  </si>
-  <si>
-    <t>29-Storage / Publication restructuring agreement for liquidation</t>
-  </si>
-  <si>
-    <t>30-Default with respect to payments on debt securities listed</t>
-  </si>
-  <si>
-    <t>31-Significant overdue debts towards public bodies</t>
-  </si>
-  <si>
-    <t>32-Initiation of bankruptcy proceedings for a group company</t>
-  </si>
-  <si>
     <t>JD_PROTEST_INT_STRING</t>
   </si>
   <si>
@@ -498,18 +447,76 @@
   </si>
   <si>
     <t>JD_CONCOR_AVVI_STRING</t>
+  </si>
+  <si>
+    <t>IND_15</t>
+  </si>
+  <si>
+    <t>IND_16</t>
+  </si>
+  <si>
+    <t>IND_17</t>
+  </si>
+  <si>
+    <t>IND_18</t>
+  </si>
+  <si>
+    <t>IND_19</t>
+  </si>
+  <si>
+    <t>IND_20</t>
+  </si>
+  <si>
+    <t>IND_21</t>
+  </si>
+  <si>
+    <t>IND_22</t>
+  </si>
+  <si>
+    <t>IND_23</t>
+  </si>
+  <si>
+    <t>16-Protested bill or our Bank initiative checks and other banks</t>
+  </si>
+  <si>
+    <t>17-Decanalization and issuance of convenience or abusive portfolio</t>
+  </si>
+  <si>
+    <t>18-Involvement in serious crimes with economic and legal consequences</t>
+  </si>
+  <si>
+    <t>19-Request admission to a competitive procedure for the debtor</t>
+  </si>
+  <si>
+    <t>20-Storage / Publication restructuring agreement for liquidation</t>
+  </si>
+  <si>
+    <t>21-Default with respect to payments on debt securities listed</t>
+  </si>
+  <si>
+    <t>22-Significant overdue debts towards public bodies</t>
+  </si>
+  <si>
+    <t>23-Initiation of bankruptcy proceedings for a group company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -624,27 +631,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,11 +2390,11 @@
       <c r="D17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>116</v>
+      <c r="E17" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G17" s="8">
         <v>24</v>
@@ -2418,19 +2426,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>135</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G18" s="8">
         <v>25</v>
@@ -2462,19 +2470,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>136</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="G19" s="8">
         <v>26</v>
@@ -2506,19 +2514,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>137</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="G20" s="8">
         <v>27</v>
@@ -2550,19 +2558,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>138</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="G21" s="8">
         <v>28</v>
@@ -2594,19 +2602,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>139</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="G22" s="8">
         <v>29</v>
@@ -2638,19 +2646,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>140</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="G23" s="8">
         <v>30</v>
@@ -2682,19 +2690,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>141</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="G24" s="8">
         <v>31</v>
@@ -2726,19 +2734,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>142</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G25" s="8">
         <v>32</v>
@@ -2952,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3307,10 +3315,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>115</v>
@@ -3324,13 +3332,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -3341,13 +3349,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
@@ -3358,13 +3366,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>23</v>
@@ -3375,13 +3383,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>23</v>
@@ -3392,13 +3400,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>23</v>
@@ -3409,13 +3417,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>23</v>
@@ -3426,13 +3434,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>23</v>
@@ -3443,13 +3451,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>23</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -422,9 +422,6 @@
     <t>JD_CONCOR_AVVI</t>
   </si>
   <si>
-    <t>24-Severe phenomena personnel management</t>
-  </si>
-  <si>
     <t>JD_PROTEST_INT_STRING</t>
   </si>
   <si>
@@ -498,18 +495,28 @@
   </si>
   <si>
     <t>23-Initiation of bankruptcy proceedings for a group company</t>
+  </si>
+  <si>
+    <t>15-Severe phenomena personnel management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -631,27 +638,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1680,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,10 +2399,10 @@
         <v>115</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="G17" s="8">
         <v>24</v>
@@ -2435,10 +2443,10 @@
         <v>117</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="G18" s="8">
         <v>25</v>
@@ -2479,10 +2487,10 @@
         <v>118</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="8">
         <v>26</v>
@@ -2523,10 +2531,10 @@
         <v>119</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="8">
         <v>27</v>
@@ -2567,10 +2575,10 @@
         <v>120</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="8">
         <v>28</v>
@@ -2611,10 +2619,10 @@
         <v>121</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8">
         <v>29</v>
@@ -2655,10 +2663,10 @@
         <v>122</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="8">
         <v>30</v>
@@ -2699,10 +2707,10 @@
         <v>123</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="8">
         <v>31</v>
@@ -2743,10 +2751,10 @@
         <v>124</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" s="8">
         <v>32</v>
@@ -2960,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3332,10 +3340,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>117</v>
@@ -3349,10 +3357,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>118</v>
@@ -3366,10 +3374,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>119</v>
@@ -3383,10 +3391,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>120</v>
@@ -3400,10 +3408,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>121</v>
@@ -3417,10 +3425,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>122</v>
@@ -3434,10 +3442,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>123</v>
@@ -3451,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>124</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="194">
   <si>
     <t>Variable</t>
   </si>
@@ -299,217 +299,423 @@
     <t>11-Full and final settlement offer</t>
   </si>
   <si>
+    <t>13-Obligations non-fulfillment</t>
+  </si>
+  <si>
+    <t>SCONFINO_INT</t>
+  </si>
+  <si>
+    <t>09-Overdraft (Days)</t>
+  </si>
+  <si>
+    <t>IND_02</t>
+  </si>
+  <si>
+    <t>IND_03</t>
+  </si>
+  <si>
+    <t>IND_04</t>
+  </si>
+  <si>
+    <t>IND_05</t>
+  </si>
+  <si>
+    <t>IND_06</t>
+  </si>
+  <si>
+    <t>IND_07</t>
+  </si>
+  <si>
+    <t>IND_08</t>
+  </si>
+  <si>
+    <t>IND_09</t>
+  </si>
+  <si>
+    <t>14-Bankruptcy proceedings start-up</t>
+  </si>
+  <si>
+    <t>IND_01</t>
+  </si>
+  <si>
+    <t>IND_10</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>IND_13</t>
+  </si>
+  <si>
+    <t>IND_14</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>CATEGORICAL</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>IsSegment</t>
+  </si>
+  <si>
+    <t>SEGMENT_STRING</t>
+  </si>
+  <si>
+    <t>IsPossibleTarget</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>EXPOSURE_REAL</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS_STRING</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT_STRING</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF_STRING</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_STRING</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH_STRING</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT_STRING</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT_STRING</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI_STRING</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI_STRING</t>
+  </si>
+  <si>
+    <t>IND_15</t>
+  </si>
+  <si>
+    <t>IND_16</t>
+  </si>
+  <si>
+    <t>IND_17</t>
+  </si>
+  <si>
+    <t>IND_18</t>
+  </si>
+  <si>
+    <t>IND_19</t>
+  </si>
+  <si>
+    <t>IND_20</t>
+  </si>
+  <si>
+    <t>IND_21</t>
+  </si>
+  <si>
+    <t>IND_22</t>
+  </si>
+  <si>
+    <t>IND_23</t>
+  </si>
+  <si>
+    <t>16-Protested bill or our Bank initiative checks and other banks</t>
+  </si>
+  <si>
+    <t>17-Decanalization and issuance of convenience or abusive portfolio</t>
+  </si>
+  <si>
+    <t>18-Involvement in serious crimes with economic and legal consequences</t>
+  </si>
+  <si>
+    <t>19-Request admission to a competitive procedure for the debtor</t>
+  </si>
+  <si>
+    <t>20-Storage / Publication restructuring agreement for liquidation</t>
+  </si>
+  <si>
+    <t>21-Default with respect to payments on debt securities listed</t>
+  </si>
+  <si>
+    <t>22-Significant overdue debts towards public bodies</t>
+  </si>
+  <si>
+    <t>23-Initiation of bankruptcy proceedings for a group company</t>
+  </si>
+  <si>
+    <t>15-Severe phenomena personnel management</t>
+  </si>
+  <si>
+    <t>IND_08_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_08_FL_DATE</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>08-Group bankruptcy_fl_override</t>
+  </si>
+  <si>
+    <t>08-Group bankruptcy_fl_date</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE_STRING</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_01_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>01-Counterparty Rating_fl_override</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_05_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_03_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_04_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_09_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_12_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>05-Debt Service Coverage Ratio_fl_override</t>
+  </si>
+  <si>
+    <t>03-Delta Equity_fl_override</t>
+  </si>
+  <si>
+    <t>04-Delta Turnover_fl_override</t>
+  </si>
+  <si>
+    <t>09-Overdraft (Days)_fl_override</t>
+  </si>
+  <si>
+    <t>12-Report to non performing loans in CR_fl_override</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>IND_12</t>
+  </si>
+  <si>
     <t>12-Report to non performing loans in CR</t>
   </si>
   <si>
-    <t>13-Obligations non-fulfillment</t>
-  </si>
-  <si>
-    <t>SCONFINO_INT</t>
-  </si>
-  <si>
-    <t>09-Overdraft (Days)</t>
-  </si>
-  <si>
-    <t>REAl</t>
-  </si>
-  <si>
-    <t>IND_02</t>
-  </si>
-  <si>
-    <t>IND_03</t>
-  </si>
-  <si>
-    <t>IND_04</t>
-  </si>
-  <si>
-    <t>IND_05</t>
-  </si>
-  <si>
-    <t>IND_06</t>
-  </si>
-  <si>
-    <t>IND_07</t>
-  </si>
-  <si>
-    <t>IND_08</t>
-  </si>
-  <si>
-    <t>IND_09</t>
-  </si>
-  <si>
-    <t>14-Bankruptcy proceedings start-up</t>
-  </si>
-  <si>
-    <t>IND_01</t>
-  </si>
-  <si>
-    <t>IND_10</t>
-  </si>
-  <si>
-    <t>IND_11</t>
-  </si>
-  <si>
-    <t>IND_12</t>
-  </si>
-  <si>
-    <t>IND_13</t>
-  </si>
-  <si>
-    <t>IND_14</t>
-  </si>
-  <si>
-    <t>VariableType</t>
-  </si>
-  <si>
-    <t>CATEGORICAL</t>
-  </si>
-  <si>
-    <t>CONTINUOUS</t>
-  </si>
-  <si>
-    <t>SEGMENT</t>
-  </si>
-  <si>
-    <t>IsSegment</t>
-  </si>
-  <si>
-    <t>SEGMENT_STRING</t>
-  </si>
-  <si>
-    <t>IsPossibleTarget</t>
-  </si>
-  <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
-    <t>EXPOSURE_REAL</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>IsCustomField</t>
-  </si>
-  <si>
-    <t>JD_NEG_EV_PERS</t>
-  </si>
-  <si>
-    <t>JD_NEG_EV_PERS_STRING</t>
-  </si>
-  <si>
-    <t>JD_PROTEST_INT</t>
-  </si>
-  <si>
-    <t>JD_DECANAL_PTF</t>
-  </si>
-  <si>
-    <t>JD_REATI_GRAVI</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_RICH</t>
-  </si>
-  <si>
-    <t>JD_ACC_RISTRUT</t>
-  </si>
-  <si>
-    <t>JD_INADE_QDEBT</t>
-  </si>
-  <si>
-    <t>JD_DEBT_PUBBLI</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_AVVI</t>
-  </si>
-  <si>
-    <t>JD_PROTEST_INT_STRING</t>
-  </si>
-  <si>
-    <t>JD_DECANAL_PTF_STRING</t>
-  </si>
-  <si>
-    <t>JD_REATI_GRAVI_STRING</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_RICH_STRING</t>
-  </si>
-  <si>
-    <t>JD_ACC_RISTRUT_STRING</t>
-  </si>
-  <si>
-    <t>JD_INADE_QDEBT_STRING</t>
-  </si>
-  <si>
-    <t>JD_DEBT_PUBBLI_STRING</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_AVVI_STRING</t>
-  </si>
-  <si>
-    <t>IND_15</t>
-  </si>
-  <si>
-    <t>IND_16</t>
-  </si>
-  <si>
-    <t>IND_17</t>
-  </si>
-  <si>
-    <t>IND_18</t>
-  </si>
-  <si>
-    <t>IND_19</t>
-  </si>
-  <si>
-    <t>IND_20</t>
-  </si>
-  <si>
-    <t>IND_21</t>
-  </si>
-  <si>
-    <t>IND_22</t>
-  </si>
-  <si>
-    <t>IND_23</t>
-  </si>
-  <si>
-    <t>16-Protested bill or our Bank initiative checks and other banks</t>
-  </si>
-  <si>
-    <t>17-Decanalization and issuance of convenience or abusive portfolio</t>
-  </si>
-  <si>
-    <t>18-Involvement in serious crimes with economic and legal consequences</t>
-  </si>
-  <si>
-    <t>19-Request admission to a competitive procedure for the debtor</t>
-  </si>
-  <si>
-    <t>20-Storage / Publication restructuring agreement for liquidation</t>
-  </si>
-  <si>
-    <t>21-Default with respect to payments on debt securities listed</t>
-  </si>
-  <si>
-    <t>22-Significant overdue debts towards public bodies</t>
-  </si>
-  <si>
-    <t>23-Initiation of bankruptcy proceedings for a group company</t>
-  </si>
-  <si>
-    <t>15-Severe phenomena personnel management</t>
+    <t>IND_FL_PEGG_BILANCI</t>
+  </si>
+  <si>
+    <t>FL_PEGG_BILANCI</t>
+  </si>
+  <si>
+    <t>fl_pegg_bilanci</t>
+  </si>
+  <si>
+    <t>FL_PEGG_BILANCI_STRING</t>
+  </si>
+  <si>
+    <t>IND_FL_DATE6M</t>
+  </si>
+  <si>
+    <t>fl_date6M</t>
+  </si>
+  <si>
+    <t>FL_DATE6M</t>
+  </si>
+  <si>
+    <t>FL_DATE6M_STRING</t>
+  </si>
+  <si>
+    <t>IND_33</t>
+  </si>
+  <si>
+    <t>33 - Segnalazione a sofferenze nel gruppo bancario_se di importi congrui</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_SOFF_BANCA</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_SOFF_BANCA_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -638,29 +844,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +976,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -815,10 +1034,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -873,10 +1092,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,10 +1150,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -989,10 +1208,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685485</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1096,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1179270</xdr:colOff>
+      <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>170985</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1154,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1179270</xdr:colOff>
+      <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>170985</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1212,9 +1431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1179270</xdr:colOff>
+      <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>170985</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1270,9 +1489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1179270</xdr:colOff>
+      <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>170985</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1328,9 +1547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1179270</xdr:colOff>
+      <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>170985</xdr:rowOff>
+      <xdr:rowOff>66210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1686,18 +1905,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1754,19 +1973,19 @@
         <v>7</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -1783,10 +2002,10 @@
         <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="8">
         <v>14</v>
@@ -1798,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
@@ -1827,7 +2046,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -1842,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
@@ -1871,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
@@ -1886,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
@@ -1915,7 +2134,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>47</v>
@@ -1930,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -1959,7 +2178,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>45</v>
@@ -1974,7 +2193,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -2003,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>46</v>
@@ -2018,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -2047,7 +2266,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
@@ -2062,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>13</v>
@@ -2091,9 +2310,9 @@
         <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="8">
@@ -2106,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
@@ -2135,10 +2354,10 @@
         <v>62</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="8">
         <v>13</v>
@@ -2150,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
@@ -2179,7 +2398,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>48</v>
@@ -2194,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
@@ -2223,7 +2442,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>83</v>
@@ -2238,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
@@ -2267,7 +2486,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>82</v>
@@ -2282,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
@@ -2311,10 +2530,10 @@
         <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8">
         <v>9</v>
@@ -2326,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
@@ -2345,20 +2564,20 @@
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
+      <c r="E16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="G16" s="8">
         <v>12</v>
@@ -2370,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -2390,19 +2609,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G17" s="8">
         <v>24</v>
@@ -2414,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
@@ -2434,19 +2653,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" s="8">
         <v>25</v>
@@ -2458,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>13</v>
@@ -2478,19 +2697,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" s="8">
         <v>26</v>
@@ -2502,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
@@ -2522,19 +2741,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="8">
         <v>27</v>
@@ -2546,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
@@ -2566,19 +2785,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="8">
         <v>28</v>
@@ -2590,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>13</v>
@@ -2610,19 +2829,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" s="8">
         <v>29</v>
@@ -2634,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>13</v>
@@ -2654,19 +2873,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="8">
         <v>30</v>
@@ -2678,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>13</v>
@@ -2698,19 +2917,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" s="8">
         <v>31</v>
@@ -2722,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>13</v>
@@ -2742,19 +2961,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G25" s="8">
         <v>32</v>
@@ -2766,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>13</v>
@@ -2810,7 +3029,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>13</v>
@@ -2854,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
@@ -2874,19 +3093,19 @@
         <v>11</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G28" s="10">
         <v>17</v>
@@ -2898,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>13</v>
@@ -2918,19 +3137,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G29" s="10">
         <v>18</v>
@@ -2942,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2955,6 +3174,490 @@
       </c>
       <c r="N29" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="10">
+        <v>33</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="10">
+        <v>34</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="8">
+        <v>35</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="8">
+        <v>37</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="8">
+        <v>38</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="8">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="8">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="8">
+        <v>41</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="8">
+        <v>44</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="8">
+        <v>50</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" s="10">
+        <v>51</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2966,18 +3669,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="8.7109375"/>
   </cols>
@@ -3170,10 +3873,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>59</v>
@@ -3281,7 +3984,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -3289,13 +3992,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>23</v>
@@ -3306,13 +4009,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
@@ -3323,13 +4026,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>23</v>
@@ -3340,13 +4043,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -3357,13 +4060,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
@@ -3374,13 +4077,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>23</v>
@@ -3391,13 +4094,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>23</v>
@@ -3408,13 +4111,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>23</v>
@@ -3425,13 +4128,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>23</v>
@@ -3442,13 +4145,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>23</v>
@@ -3459,16 +4162,203 @@
         <v>11</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="198">
   <si>
     <t>Variable</t>
   </si>
@@ -627,18 +627,37 @@
   </si>
   <si>
     <t>SEGNALAZIONE_SOFF_BANCA_STRING</t>
+  </si>
+  <si>
+    <t>IND_12_OVER</t>
+  </si>
+  <si>
+    <t>DIFF_SEGNALAZIONE_OVER</t>
+  </si>
+  <si>
+    <t>12 - Differenza rispetto al valore di override</t>
+  </si>
+  <si>
+    <t>DIFF_SEGNALAZIONE_OVER_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -844,40 +863,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -979,7 +1000,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1037,7 +1058,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1095,7 +1116,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1153,7 +1174,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1211,7 +1232,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>165975</xdr:rowOff>
+      <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1317,7 +1338,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:rowOff>56685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1375,7 +1396,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:rowOff>56685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1433,7 +1454,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:rowOff>56685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1491,7 +1512,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:rowOff>56685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1549,7 +1570,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66210</xdr:rowOff>
+      <xdr:rowOff>56685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1905,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2597,7 @@
       <c r="E16" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="29" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="8">
@@ -3626,13 +3647,13 @@
       <c r="C40" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="30" t="s">
         <v>192</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="30" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="10">
@@ -3657,6 +3678,50 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="10">
+        <v>52</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3669,10 +3734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,6 +4423,23 @@
         <v>192</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="198">
   <si>
     <t>Variable</t>
   </si>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,8 +2694,8 @@
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>12</v>
+      <c r="I18" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>102</v>
@@ -3002,8 +3002,8 @@
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>12</v>
+      <c r="I25" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>102</v>
@@ -3662,8 +3662,8 @@
       <c r="H40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>12</v>
+      <c r="I40" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>103</v>
@@ -3736,7 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="242">
   <si>
     <t>Variable</t>
   </si>
@@ -639,18 +639,157 @@
   </si>
   <si>
     <t>DIFF_SEGNALAZIONE_OVER_STRING</t>
+  </si>
+  <si>
+    <t>IND_50</t>
+  </si>
+  <si>
+    <t>IND_51</t>
+  </si>
+  <si>
+    <t>IND_52</t>
+  </si>
+  <si>
+    <t>IND_53</t>
+  </si>
+  <si>
+    <t>IND_54</t>
+  </si>
+  <si>
+    <t>IND_200</t>
+  </si>
+  <si>
+    <t>IND_201</t>
+  </si>
+  <si>
+    <t>IND_202</t>
+  </si>
+  <si>
+    <t>IND_203</t>
+  </si>
+  <si>
+    <t>IND_204</t>
+  </si>
+  <si>
+    <t>IND_205</t>
+  </si>
+  <si>
+    <t>CRSYS_TUA</t>
+  </si>
+  <si>
+    <t>CRSYS_TUR</t>
+  </si>
+  <si>
+    <t>CRSYS_TUS</t>
+  </si>
+  <si>
+    <t>CRSYS_TUC</t>
+  </si>
+  <si>
+    <t>CRSYS_ITUR</t>
+  </si>
+  <si>
+    <t>CRSYS_UA</t>
+  </si>
+  <si>
+    <t>CRSYS_US</t>
+  </si>
+  <si>
+    <t>CRSYS_UR</t>
+  </si>
+  <si>
+    <t>CRSYS_UT</t>
+  </si>
+  <si>
+    <t>CRSYS_UCFBT</t>
+  </si>
+  <si>
+    <t>CRSYS_Q_DER</t>
+  </si>
+  <si>
+    <t>50 - CRSYS_TUA</t>
+  </si>
+  <si>
+    <t>51 - CRSYS_TUR</t>
+  </si>
+  <si>
+    <t>52 - CRSYS_TUS</t>
+  </si>
+  <si>
+    <t>53 - CRSYS_UCFBT</t>
+  </si>
+  <si>
+    <t>54 - CRSYS_Q_DER</t>
+  </si>
+  <si>
+    <t>200 - CRSYS_TUC</t>
+  </si>
+  <si>
+    <t>201 - CRSYS_ITUR</t>
+  </si>
+  <si>
+    <t>202 - CRSYS_UA</t>
+  </si>
+  <si>
+    <t>203 - CRSYS_US</t>
+  </si>
+  <si>
+    <t>204 - CRSYS_UR</t>
+  </si>
+  <si>
+    <t>205 - CRSYS_UT</t>
+  </si>
+  <si>
+    <t>CRSYS_TUA_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_TUR_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_TUS_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_UCFBT_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_Q_DER_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_TUC_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_ITUR_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_UA_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_US_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_UR_REAL</t>
+  </si>
+  <si>
+    <t>CRSYS_UT_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -863,40 +1002,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1000,7 +1141,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1058,7 +1199,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1116,7 +1257,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1174,7 +1315,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1232,7 +1373,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1338,7 +1479,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56685</xdr:rowOff>
+      <xdr:rowOff>9060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,7 +1537,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56685</xdr:rowOff>
+      <xdr:rowOff>9060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1454,7 +1595,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56685</xdr:rowOff>
+      <xdr:rowOff>9060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1512,7 +1653,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56685</xdr:rowOff>
+      <xdr:rowOff>9060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,7 +1711,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56685</xdr:rowOff>
+      <xdr:rowOff>9060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1926,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,6 +3866,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="10">
+        <v>53</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" s="10">
+        <v>54</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="10">
+        <v>55</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="10">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="10">
+        <v>57</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="10">
+        <v>58</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="10">
+        <v>59</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="10">
+        <v>60</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="10">
+        <v>61</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="10">
+        <v>62</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="10">
+        <v>63</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3734,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,6 +5065,193 @@
         <v>195</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="265">
   <si>
     <t>Variable</t>
   </si>
@@ -771,18 +771,101 @@
   </si>
   <si>
     <t>CRSYS_UT_REAL</t>
+  </si>
+  <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>CR0_TUA</t>
+  </si>
+  <si>
+    <t>55 - CR0_TUA</t>
+  </si>
+  <si>
+    <t>IND_56</t>
+  </si>
+  <si>
+    <t>IND_57</t>
+  </si>
+  <si>
+    <t>IND_58</t>
+  </si>
+  <si>
+    <t>CR0_TUR</t>
+  </si>
+  <si>
+    <t>CR0_TUS</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>56 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>57 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>58 - CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>CR0_TUR_REAL</t>
+  </si>
+  <si>
+    <t>CR0_TUS_REAL</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT_REAL</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRA_RSC_ACC_L1M </t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>60 - XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 - XRA_RSC_ACC_L1M </t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M_REAL</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1002,46 +1085,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D52"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,6 +4437,270 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="10">
+        <v>64</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="10">
+        <v>65</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" s="10">
+        <v>66</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="10">
+        <v>67</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="10">
+        <v>68</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="10">
+        <v>69</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4359,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,6 +5603,108 @@
         <v>217</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="362">
   <si>
     <t>Variable</t>
   </si>
@@ -821,37 +821,349 @@
     <t>XRA_GSC_MAX_L3M</t>
   </si>
   <si>
-    <t xml:space="preserve">XRA_RSC_ACC_L1M </t>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M_REAL</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M_REAL</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>IND_206</t>
+  </si>
+  <si>
+    <t>CR0_TUC</t>
+  </si>
+  <si>
+    <t>206 - CR0_TUC</t>
+  </si>
+  <si>
+    <t>CR0_TUC_REAL</t>
+  </si>
+  <si>
+    <t>IND_207</t>
+  </si>
+  <si>
+    <t>IND_208</t>
+  </si>
+  <si>
+    <t>IND_209</t>
+  </si>
+  <si>
+    <t>CR0_ITUR</t>
+  </si>
+  <si>
+    <t>CR0_UA</t>
+  </si>
+  <si>
+    <t>CR0_US</t>
+  </si>
+  <si>
+    <t>207 - CR0_ITUR</t>
+  </si>
+  <si>
+    <t>208 - CR0_UA</t>
+  </si>
+  <si>
+    <t>209 - CR0_US</t>
+  </si>
+  <si>
+    <t>IND_210</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t>IND_219</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>IND_226</t>
+  </si>
+  <si>
+    <t>IND_227</t>
+  </si>
+  <si>
+    <t>IND_228</t>
+  </si>
+  <si>
+    <t>IND_229</t>
+  </si>
+  <si>
+    <t>IND_230</t>
+  </si>
+  <si>
+    <t>IND_231</t>
+  </si>
+  <si>
+    <t>IND_232</t>
+  </si>
+  <si>
+    <t>IND_233</t>
+  </si>
+  <si>
+    <t>IND_234</t>
+  </si>
+  <si>
+    <t>IND_235</t>
+  </si>
+  <si>
+    <t>IND_236</t>
+  </si>
+  <si>
+    <t>IND_59</t>
+  </si>
+  <si>
+    <t>CR0_UR</t>
+  </si>
+  <si>
+    <t>CR0_UT</t>
+  </si>
+  <si>
+    <t>210 - CR0_UR</t>
+  </si>
+  <si>
+    <t>211 - CR0_UT</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>212 - XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>213 - XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>214 - XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>215 - XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>216 - XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>217 - XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>218 - XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>219 - XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>220 - XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>221 - XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>222 - XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>223 - XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>224 - XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>225 - XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>226 - XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>227 - XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>228 - XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>229 - XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>230 - XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>231 - XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>232 - XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>233 - XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>234 - XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>235 - XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>236 - XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>59 - CR0_Q_DER</t>
   </si>
   <si>
     <t>IND_60</t>
   </si>
   <si>
-    <t>IND_61</t>
-  </si>
-  <si>
     <t>60 - XRA_GSC_MAX_L3M</t>
   </si>
   <si>
-    <t xml:space="preserve">61 - XRA_RSC_ACC_L1M </t>
-  </si>
-  <si>
-    <t>XRA_GSC_MAX_L3M_REAL</t>
-  </si>
-  <si>
-    <t>XRA_RSC_ACC_L1M_REAL</t>
+    <t>61 - XRA_RSC_ACC_L1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1085,50 +1397,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D58"/>
+    <sheetView topLeftCell="F69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,20 +4934,20 @@
       <c r="A57" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>261</v>
+      <c r="E57" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>360</v>
       </c>
       <c r="G57" s="10">
         <v>68</v>
@@ -4661,20 +4978,20 @@
       <c r="A58" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>262</v>
+      <c r="F58" s="41" t="s">
+        <v>361</v>
       </c>
       <c r="G58" s="10">
         <v>69</v>
@@ -4698,6 +5015,1414 @@
         <v>0</v>
       </c>
       <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" s="10">
+        <v>70</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" s="10">
+        <v>71</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="10">
+        <v>72</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" s="10">
+        <v>73</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>305</v>
+      </c>
+      <c r="G63" s="10">
+        <v>74</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G64" s="10">
+        <v>75</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" s="10">
+        <v>76</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" s="10">
+        <v>77</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F67" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="10">
+        <v>78</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="10">
+        <v>79</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" t="s">
+        <v>337</v>
+      </c>
+      <c r="G69" s="10">
+        <v>80</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>309</v>
+      </c>
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" t="s">
+        <v>338</v>
+      </c>
+      <c r="G70" s="10">
+        <v>81</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" s="10">
+        <v>82</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" t="s">
+        <v>340</v>
+      </c>
+      <c r="G72" s="10">
+        <v>83</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" t="s">
+        <v>315</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" t="s">
+        <v>341</v>
+      </c>
+      <c r="G73" s="10">
+        <v>84</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
+        <v>316</v>
+      </c>
+      <c r="D74" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F74" t="s">
+        <v>342</v>
+      </c>
+      <c r="G74" s="10">
+        <v>85</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F75" t="s">
+        <v>343</v>
+      </c>
+      <c r="G75" s="10">
+        <v>86</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="F76" t="s">
+        <v>344</v>
+      </c>
+      <c r="G76" s="10">
+        <v>87</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" t="s">
+        <v>345</v>
+      </c>
+      <c r="G77" s="10">
+        <v>88</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="10">
+        <v>89</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" s="10">
+        <v>90</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" t="s">
+        <v>322</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" t="s">
+        <v>348</v>
+      </c>
+      <c r="G80" s="10">
+        <v>91</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="F81" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" s="10">
+        <v>92</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" t="s">
+        <v>350</v>
+      </c>
+      <c r="G82" s="10">
+        <v>93</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" t="s">
+        <v>351</v>
+      </c>
+      <c r="G83" s="10">
+        <v>94</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="10">
+        <v>95</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" t="s">
+        <v>353</v>
+      </c>
+      <c r="G85" s="10">
+        <v>96</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="10">
+        <v>97</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" t="s">
+        <v>355</v>
+      </c>
+      <c r="G87" s="10">
+        <v>98</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" t="s">
+        <v>356</v>
+      </c>
+      <c r="G88" s="10">
+        <v>99</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" t="s">
+        <v>331</v>
+      </c>
+      <c r="D89" t="s">
+        <v>331</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" t="s">
+        <v>357</v>
+      </c>
+      <c r="G89" s="10">
+        <v>100</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" t="s">
+        <v>358</v>
+      </c>
+      <c r="G90" s="10">
+        <v>101</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4710,10 +6435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:E58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,7 +7035,7 @@
       <c r="C35" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="38" t="s">
         <v>162</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -5395,7 +7120,7 @@
       <c r="C40" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="39" t="s">
         <v>192</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -5678,13 +7403,13 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="35" t="s">
+      <c r="B57" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="37" t="s">
         <v>257</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -5695,16 +7420,560 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>258</v>
+      <c r="B58" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" t="s">
+        <v>311</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>309</v>
+      </c>
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" t="s">
+        <v>309</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" t="s">
+        <v>315</v>
+      </c>
+      <c r="E73" t="s">
+        <v>315</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" t="s">
+        <v>317</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" t="s">
+        <v>322</v>
+      </c>
+      <c r="E80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" t="s">
+        <v>327</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" t="s">
+        <v>328</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" t="s">
+        <v>329</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" t="s">
+        <v>331</v>
+      </c>
+      <c r="E89" t="s">
+        <v>331</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" t="s">
+        <v>332</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="389">
   <si>
     <t>Variable</t>
   </si>
@@ -1131,18 +1131,106 @@
   </si>
   <si>
     <t>61 - XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>IND_65</t>
+  </si>
+  <si>
+    <t>IND_66</t>
+  </si>
+  <si>
+    <t>IND_67</t>
+  </si>
+  <si>
+    <t>IND_68</t>
+  </si>
+  <si>
+    <t>IND_69</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>62 - NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>63 - NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>64 - ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>65 - ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>66 - FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>67 - FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>68 - EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>69 - FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>70 - FACT_MAX_GG_L1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1397,55 +1485,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2471,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="F69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,6 +6515,402 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>371</v>
+      </c>
+      <c r="D91" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" t="s">
+        <v>380</v>
+      </c>
+      <c r="G91" s="10">
+        <v>102</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F92" t="s">
+        <v>381</v>
+      </c>
+      <c r="G92" s="10">
+        <v>103</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" t="s">
+        <v>373</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93" s="10">
+        <v>104</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>374</v>
+      </c>
+      <c r="C94" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="F94" t="s">
+        <v>383</v>
+      </c>
+      <c r="G94" s="10">
+        <v>105</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F95" t="s">
+        <v>384</v>
+      </c>
+      <c r="G95" s="10">
+        <v>106</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>376</v>
+      </c>
+      <c r="C96" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="F96" t="s">
+        <v>385</v>
+      </c>
+      <c r="G96" s="10">
+        <v>107</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="F97" t="s">
+        <v>386</v>
+      </c>
+      <c r="G97" s="10">
+        <v>108</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" t="s">
+        <v>378</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" s="10">
+        <v>109</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="F99" t="s">
+        <v>388</v>
+      </c>
+      <c r="G99" s="10">
+        <v>110</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -6435,10 +6920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7974,6 +8459,159 @@
         <v>332</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" t="s">
+        <v>371</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" t="s">
+        <v>373</v>
+      </c>
+      <c r="E93" t="s">
+        <v>373</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>374</v>
+      </c>
+      <c r="C94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" t="s">
+        <v>374</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" t="s">
+        <v>375</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>376</v>
+      </c>
+      <c r="C96" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" t="s">
+        <v>378</v>
+      </c>
+      <c r="E98" t="s">
+        <v>378</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1218,12 +1218,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1485,55 +1492,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2562,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D99"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,7 +6888,7 @@
       <c r="D99" t="s">
         <v>379</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="43" t="s">
         <v>370</v>
       </c>
       <c r="F99" t="s">
@@ -6922,8 +6930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="536">
   <si>
     <t>Variable</t>
   </si>
@@ -1212,18 +1212,466 @@
   </si>
   <si>
     <t>70 - FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_72</t>
+  </si>
+  <si>
+    <t>PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>71 - PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>72 - PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>IND_73</t>
+  </si>
+  <si>
+    <t>IND_74</t>
+  </si>
+  <si>
+    <t>IND_75</t>
+  </si>
+  <si>
+    <t>IND_76</t>
+  </si>
+  <si>
+    <t>IND_77</t>
+  </si>
+  <si>
+    <t>IND_78</t>
+  </si>
+  <si>
+    <t>IND_79</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>Distance_to_default</t>
+  </si>
+  <si>
+    <t>Rating_stress</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>73 - EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>74 - Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>75 - CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>76 - 5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>77 - Distance_to_default</t>
+  </si>
+  <si>
+    <t>78 - Rating_stress</t>
+  </si>
+  <si>
+    <t>79 - Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>80 - Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>IND_237</t>
+  </si>
+  <si>
+    <t>IND_238</t>
+  </si>
+  <si>
+    <t>IND_239</t>
+  </si>
+  <si>
+    <t>IND_240</t>
+  </si>
+  <si>
+    <t>IND_241</t>
+  </si>
+  <si>
+    <t>IND_242</t>
+  </si>
+  <si>
+    <t>IND_243</t>
+  </si>
+  <si>
+    <t>IND_244</t>
+  </si>
+  <si>
+    <t>IND_245</t>
+  </si>
+  <si>
+    <t>IND_246</t>
+  </si>
+  <si>
+    <t>IND_247</t>
+  </si>
+  <si>
+    <t>IND_248</t>
+  </si>
+  <si>
+    <t>IND_249</t>
+  </si>
+  <si>
+    <t>IND_250</t>
+  </si>
+  <si>
+    <t>IND_251</t>
+  </si>
+  <si>
+    <t>IND_252</t>
+  </si>
+  <si>
+    <t>IND_253</t>
+  </si>
+  <si>
+    <t>IND_254</t>
+  </si>
+  <si>
+    <t>IND_255</t>
+  </si>
+  <si>
+    <t>IND_256</t>
+  </si>
+  <si>
+    <t>IND_257</t>
+  </si>
+  <si>
+    <t>IND_258</t>
+  </si>
+  <si>
+    <t>IND_259</t>
+  </si>
+  <si>
+    <t>IND_260</t>
+  </si>
+  <si>
+    <t>IND_261</t>
+  </si>
+  <si>
+    <t>IND_262</t>
+  </si>
+  <si>
+    <t>IND_263</t>
+  </si>
+  <si>
+    <t>IND_264</t>
+  </si>
+  <si>
+    <t>IND_265</t>
+  </si>
+  <si>
+    <t>IND_266</t>
+  </si>
+  <si>
+    <t>IND_267</t>
+  </si>
+  <si>
+    <t>IND_268</t>
+  </si>
+  <si>
+    <t>IND_269</t>
+  </si>
+  <si>
+    <t>IND_270</t>
+  </si>
+  <si>
+    <t>IND_271</t>
+  </si>
+  <si>
+    <t>IND_272</t>
+  </si>
+  <si>
+    <t>IND_273</t>
+  </si>
+  <si>
+    <t>IND_274</t>
+  </si>
+  <si>
+    <t>IND_275</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>237 - NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>238 - NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>239 - NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>240 - NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>241 - NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>242 - NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>243 - NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>244 - NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>245 - NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>246 - NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>247 - NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>248 - NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>249 - NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>250 - NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>251 - NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>252 - NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>253 - NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>254 - NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>255 - NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>256 - NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>257 - NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>258 - NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>259 - NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>260 - NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>261 - NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>262 - NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>263 - NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>265 - NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>266 - ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>267 - ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>268 - ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>269 - ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>270 - ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>271 - FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>272 - FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>273 - FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>274 - FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>275 - FINIMP_SCAD_ACC_60G_M_L3M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1492,57 +1940,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2568,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6919,6 +7368,2162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" t="s">
+        <v>391</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="F100" t="s">
+        <v>393</v>
+      </c>
+      <c r="G100" s="10">
+        <v>111</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101" t="s">
+        <v>394</v>
+      </c>
+      <c r="G101" s="10">
+        <v>112</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" t="s">
+        <v>403</v>
+      </c>
+      <c r="E102" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F102" t="s">
+        <v>411</v>
+      </c>
+      <c r="G102" s="10">
+        <v>113</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F103" t="s">
+        <v>412</v>
+      </c>
+      <c r="G103" s="10">
+        <v>114</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" t="s">
+        <v>405</v>
+      </c>
+      <c r="D104" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104" t="s">
+        <v>413</v>
+      </c>
+      <c r="G104" s="10">
+        <v>115</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" t="s">
+        <v>406</v>
+      </c>
+      <c r="D105" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="F105" t="s">
+        <v>414</v>
+      </c>
+      <c r="G105" s="10">
+        <v>116</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" t="s">
+        <v>407</v>
+      </c>
+      <c r="D106" t="s">
+        <v>407</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="F106" t="s">
+        <v>415</v>
+      </c>
+      <c r="G106" s="10">
+        <v>117</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" t="s">
+        <v>408</v>
+      </c>
+      <c r="D107" t="s">
+        <v>408</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="F107" t="s">
+        <v>416</v>
+      </c>
+      <c r="G107" s="10">
+        <v>118</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" t="s">
+        <v>409</v>
+      </c>
+      <c r="D108" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="F108" t="s">
+        <v>417</v>
+      </c>
+      <c r="G108" s="10">
+        <v>119</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>410</v>
+      </c>
+      <c r="C109" t="s">
+        <v>410</v>
+      </c>
+      <c r="D109" t="s">
+        <v>410</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109" t="s">
+        <v>418</v>
+      </c>
+      <c r="G109" s="10">
+        <v>120</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>458</v>
+      </c>
+      <c r="C110" t="s">
+        <v>458</v>
+      </c>
+      <c r="D110" t="s">
+        <v>458</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="F110" t="s">
+        <v>497</v>
+      </c>
+      <c r="G110" s="10">
+        <v>121</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" t="s">
+        <v>459</v>
+      </c>
+      <c r="D111" t="s">
+        <v>459</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="F111" t="s">
+        <v>498</v>
+      </c>
+      <c r="G111" s="10">
+        <v>122</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>460</v>
+      </c>
+      <c r="C112" t="s">
+        <v>460</v>
+      </c>
+      <c r="D112" t="s">
+        <v>460</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F112" t="s">
+        <v>499</v>
+      </c>
+      <c r="G112" s="10">
+        <v>123</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>461</v>
+      </c>
+      <c r="C113" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" t="s">
+        <v>461</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F113" t="s">
+        <v>500</v>
+      </c>
+      <c r="G113" s="10">
+        <v>124</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" t="s">
+        <v>462</v>
+      </c>
+      <c r="D114" t="s">
+        <v>462</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" t="s">
+        <v>501</v>
+      </c>
+      <c r="G114" s="10">
+        <v>125</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" t="s">
+        <v>463</v>
+      </c>
+      <c r="D115" t="s">
+        <v>463</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" t="s">
+        <v>502</v>
+      </c>
+      <c r="G115" s="10">
+        <v>126</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" t="s">
+        <v>464</v>
+      </c>
+      <c r="E116" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="F116" t="s">
+        <v>503</v>
+      </c>
+      <c r="G116" s="10">
+        <v>127</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" t="s">
+        <v>465</v>
+      </c>
+      <c r="E117" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="F117" t="s">
+        <v>504</v>
+      </c>
+      <c r="G117" s="10">
+        <v>128</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D118" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="F118" t="s">
+        <v>505</v>
+      </c>
+      <c r="G118" s="10">
+        <v>129</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>467</v>
+      </c>
+      <c r="C119" t="s">
+        <v>467</v>
+      </c>
+      <c r="D119" t="s">
+        <v>467</v>
+      </c>
+      <c r="E119" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="F119" t="s">
+        <v>506</v>
+      </c>
+      <c r="G119" s="10">
+        <v>130</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>468</v>
+      </c>
+      <c r="C120" t="s">
+        <v>468</v>
+      </c>
+      <c r="D120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="F120" t="s">
+        <v>507</v>
+      </c>
+      <c r="G120" s="10">
+        <v>131</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>469</v>
+      </c>
+      <c r="C121" t="s">
+        <v>469</v>
+      </c>
+      <c r="D121" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="F121" t="s">
+        <v>508</v>
+      </c>
+      <c r="G121" s="10">
+        <v>132</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" t="s">
+        <v>470</v>
+      </c>
+      <c r="D122" t="s">
+        <v>470</v>
+      </c>
+      <c r="E122" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="F122" t="s">
+        <v>509</v>
+      </c>
+      <c r="G122" s="10">
+        <v>133</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="F123" t="s">
+        <v>510</v>
+      </c>
+      <c r="G123" s="10">
+        <v>134</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>472</v>
+      </c>
+      <c r="C124" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="F124" t="s">
+        <v>511</v>
+      </c>
+      <c r="G124" s="10">
+        <v>135</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" t="s">
+        <v>473</v>
+      </c>
+      <c r="D125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="F125" t="s">
+        <v>512</v>
+      </c>
+      <c r="G125" s="10">
+        <v>136</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>474</v>
+      </c>
+      <c r="C126" t="s">
+        <v>474</v>
+      </c>
+      <c r="D126" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="F126" t="s">
+        <v>513</v>
+      </c>
+      <c r="G126" s="10">
+        <v>137</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" t="s">
+        <v>475</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" t="s">
+        <v>514</v>
+      </c>
+      <c r="G127" s="10">
+        <v>138</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" t="s">
+        <v>476</v>
+      </c>
+      <c r="D128" t="s">
+        <v>476</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="F128" t="s">
+        <v>515</v>
+      </c>
+      <c r="G128" s="10">
+        <v>139</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" t="s">
+        <v>477</v>
+      </c>
+      <c r="D129" t="s">
+        <v>477</v>
+      </c>
+      <c r="E129" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="F129" t="s">
+        <v>516</v>
+      </c>
+      <c r="G129" s="10">
+        <v>140</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" t="s">
+        <v>478</v>
+      </c>
+      <c r="D130" t="s">
+        <v>478</v>
+      </c>
+      <c r="E130" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="F130" t="s">
+        <v>517</v>
+      </c>
+      <c r="G130" s="10">
+        <v>141</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" t="s">
+        <v>479</v>
+      </c>
+      <c r="D131" t="s">
+        <v>479</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="F131" t="s">
+        <v>518</v>
+      </c>
+      <c r="G131" s="10">
+        <v>142</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>480</v>
+      </c>
+      <c r="D132" t="s">
+        <v>480</v>
+      </c>
+      <c r="E132" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="F132" t="s">
+        <v>519</v>
+      </c>
+      <c r="G132" s="10">
+        <v>143</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A133" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>481</v>
+      </c>
+      <c r="D133" t="s">
+        <v>481</v>
+      </c>
+      <c r="E133" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="F133" t="s">
+        <v>520</v>
+      </c>
+      <c r="G133" s="10">
+        <v>144</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>482</v>
+      </c>
+      <c r="C134" t="s">
+        <v>482</v>
+      </c>
+      <c r="D134" t="s">
+        <v>482</v>
+      </c>
+      <c r="E134" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="F134" t="s">
+        <v>521</v>
+      </c>
+      <c r="G134" s="10">
+        <v>145</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>483</v>
+      </c>
+      <c r="C135" t="s">
+        <v>483</v>
+      </c>
+      <c r="D135" t="s">
+        <v>483</v>
+      </c>
+      <c r="E135" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="F135" t="s">
+        <v>522</v>
+      </c>
+      <c r="G135" s="10">
+        <v>146</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A136" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>484</v>
+      </c>
+      <c r="C136" t="s">
+        <v>484</v>
+      </c>
+      <c r="D136" t="s">
+        <v>484</v>
+      </c>
+      <c r="E136" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="F136" t="s">
+        <v>523</v>
+      </c>
+      <c r="G136" s="10">
+        <v>147</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>485</v>
+      </c>
+      <c r="C137" t="s">
+        <v>485</v>
+      </c>
+      <c r="D137" t="s">
+        <v>485</v>
+      </c>
+      <c r="E137" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="F137" t="s">
+        <v>524</v>
+      </c>
+      <c r="G137" s="10">
+        <v>148</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>486</v>
+      </c>
+      <c r="C138" t="s">
+        <v>486</v>
+      </c>
+      <c r="D138" t="s">
+        <v>486</v>
+      </c>
+      <c r="E138" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="F138" t="s">
+        <v>525</v>
+      </c>
+      <c r="G138" s="10">
+        <v>149</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>487</v>
+      </c>
+      <c r="C139" t="s">
+        <v>487</v>
+      </c>
+      <c r="D139" t="s">
+        <v>487</v>
+      </c>
+      <c r="E139" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="F139" t="s">
+        <v>526</v>
+      </c>
+      <c r="G139" s="10">
+        <v>150</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>488</v>
+      </c>
+      <c r="C140" t="s">
+        <v>488</v>
+      </c>
+      <c r="D140" t="s">
+        <v>488</v>
+      </c>
+      <c r="E140" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="F140" t="s">
+        <v>527</v>
+      </c>
+      <c r="G140" s="10">
+        <v>151</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" t="s">
+        <v>489</v>
+      </c>
+      <c r="D141" t="s">
+        <v>489</v>
+      </c>
+      <c r="E141" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F141" t="s">
+        <v>528</v>
+      </c>
+      <c r="G141" s="10">
+        <v>152</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+      <c r="N141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A142" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" t="s">
+        <v>490</v>
+      </c>
+      <c r="D142" t="s">
+        <v>490</v>
+      </c>
+      <c r="E142" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="F142" t="s">
+        <v>529</v>
+      </c>
+      <c r="G142" s="10">
+        <v>153</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
+        <v>0</v>
+      </c>
+      <c r="N142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>491</v>
+      </c>
+      <c r="C143" t="s">
+        <v>491</v>
+      </c>
+      <c r="D143" t="s">
+        <v>491</v>
+      </c>
+      <c r="E143" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F143" t="s">
+        <v>530</v>
+      </c>
+      <c r="G143" s="10">
+        <v>154</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>0</v>
+      </c>
+      <c r="N143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" t="s">
+        <v>492</v>
+      </c>
+      <c r="D144" t="s">
+        <v>492</v>
+      </c>
+      <c r="E144" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="F144" t="s">
+        <v>531</v>
+      </c>
+      <c r="G144" s="10">
+        <v>155</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
+        <v>0</v>
+      </c>
+      <c r="N144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>493</v>
+      </c>
+      <c r="C145" t="s">
+        <v>493</v>
+      </c>
+      <c r="D145" t="s">
+        <v>493</v>
+      </c>
+      <c r="E145" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="F145" t="s">
+        <v>532</v>
+      </c>
+      <c r="G145" s="10">
+        <v>156</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A146" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>494</v>
+      </c>
+      <c r="C146" t="s">
+        <v>494</v>
+      </c>
+      <c r="D146" t="s">
+        <v>494</v>
+      </c>
+      <c r="E146" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="F146" t="s">
+        <v>533</v>
+      </c>
+      <c r="G146" s="10">
+        <v>157</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+      <c r="N146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>495</v>
+      </c>
+      <c r="C147" t="s">
+        <v>495</v>
+      </c>
+      <c r="D147" t="s">
+        <v>495</v>
+      </c>
+      <c r="E147" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="F147" t="s">
+        <v>534</v>
+      </c>
+      <c r="G147" s="10">
+        <v>158</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" t="s">
+        <v>496</v>
+      </c>
+      <c r="D148" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="F148" t="s">
+        <v>535</v>
+      </c>
+      <c r="G148" s="10">
+        <v>159</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+      <c r="N148" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -6928,10 +9533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8620,6 +11225,839 @@
         <v>379</v>
       </c>
       <c r="F99" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
+      <c r="E100" t="s">
+        <v>391</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" t="s">
+        <v>392</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" t="s">
+        <v>403</v>
+      </c>
+      <c r="E102" t="s">
+        <v>403</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" t="s">
+        <v>404</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104" t="s">
+        <v>405</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" t="s">
+        <v>406</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" t="s">
+        <v>407</v>
+      </c>
+      <c r="E106" t="s">
+        <v>407</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" t="s">
+        <v>408</v>
+      </c>
+      <c r="E107" t="s">
+        <v>408</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" t="s">
+        <v>409</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>410</v>
+      </c>
+      <c r="C109" t="s">
+        <v>410</v>
+      </c>
+      <c r="E109" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>458</v>
+      </c>
+      <c r="C110" t="s">
+        <v>458</v>
+      </c>
+      <c r="E110" t="s">
+        <v>458</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" t="s">
+        <v>459</v>
+      </c>
+      <c r="E111" t="s">
+        <v>459</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>460</v>
+      </c>
+      <c r="C112" t="s">
+        <v>460</v>
+      </c>
+      <c r="E112" t="s">
+        <v>460</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>461</v>
+      </c>
+      <c r="C113" t="s">
+        <v>461</v>
+      </c>
+      <c r="E113" t="s">
+        <v>461</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" t="s">
+        <v>462</v>
+      </c>
+      <c r="E114" t="s">
+        <v>462</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" t="s">
+        <v>463</v>
+      </c>
+      <c r="E115" t="s">
+        <v>463</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" t="s">
+        <v>464</v>
+      </c>
+      <c r="E116" t="s">
+        <v>464</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" t="s">
+        <v>465</v>
+      </c>
+      <c r="E117" t="s">
+        <v>465</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" t="s">
+        <v>466</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>467</v>
+      </c>
+      <c r="C119" t="s">
+        <v>467</v>
+      </c>
+      <c r="E119" t="s">
+        <v>467</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>468</v>
+      </c>
+      <c r="C120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" t="s">
+        <v>468</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>469</v>
+      </c>
+      <c r="C121" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" t="s">
+        <v>469</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" t="s">
+        <v>470</v>
+      </c>
+      <c r="E122" t="s">
+        <v>470</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" t="s">
+        <v>471</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>472</v>
+      </c>
+      <c r="C124" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" t="s">
+        <v>472</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>474</v>
+      </c>
+      <c r="C126" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" t="s">
+        <v>474</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s">
+        <v>475</v>
+      </c>
+      <c r="E127" t="s">
+        <v>475</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" t="s">
+        <v>476</v>
+      </c>
+      <c r="E128" t="s">
+        <v>476</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" t="s">
+        <v>477</v>
+      </c>
+      <c r="E129" t="s">
+        <v>477</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" t="s">
+        <v>478</v>
+      </c>
+      <c r="E130" t="s">
+        <v>478</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" t="s">
+        <v>479</v>
+      </c>
+      <c r="E131" t="s">
+        <v>479</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>480</v>
+      </c>
+      <c r="E132" t="s">
+        <v>480</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>481</v>
+      </c>
+      <c r="E133" t="s">
+        <v>481</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>482</v>
+      </c>
+      <c r="C134" t="s">
+        <v>482</v>
+      </c>
+      <c r="E134" t="s">
+        <v>482</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>483</v>
+      </c>
+      <c r="C135" t="s">
+        <v>483</v>
+      </c>
+      <c r="E135" t="s">
+        <v>483</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>484</v>
+      </c>
+      <c r="C136" t="s">
+        <v>484</v>
+      </c>
+      <c r="E136" t="s">
+        <v>484</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>485</v>
+      </c>
+      <c r="C137" t="s">
+        <v>485</v>
+      </c>
+      <c r="E137" t="s">
+        <v>485</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>486</v>
+      </c>
+      <c r="C138" t="s">
+        <v>486</v>
+      </c>
+      <c r="E138" t="s">
+        <v>486</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>487</v>
+      </c>
+      <c r="C139" t="s">
+        <v>487</v>
+      </c>
+      <c r="E139" t="s">
+        <v>487</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>488</v>
+      </c>
+      <c r="C140" t="s">
+        <v>488</v>
+      </c>
+      <c r="E140" t="s">
+        <v>488</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" t="s">
+        <v>489</v>
+      </c>
+      <c r="E141" t="s">
+        <v>489</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" t="s">
+        <v>490</v>
+      </c>
+      <c r="E142" t="s">
+        <v>490</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>491</v>
+      </c>
+      <c r="C143" t="s">
+        <v>491</v>
+      </c>
+      <c r="E143" t="s">
+        <v>491</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" t="s">
+        <v>492</v>
+      </c>
+      <c r="E144" t="s">
+        <v>492</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>493</v>
+      </c>
+      <c r="C145" t="s">
+        <v>493</v>
+      </c>
+      <c r="E145" t="s">
+        <v>493</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>494</v>
+      </c>
+      <c r="C146" t="s">
+        <v>494</v>
+      </c>
+      <c r="E146" t="s">
+        <v>494</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>495</v>
+      </c>
+      <c r="C147" t="s">
+        <v>495</v>
+      </c>
+      <c r="E147" t="s">
+        <v>495</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" t="s">
+        <v>496</v>
+      </c>
+      <c r="F148" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -740,6 +740,870 @@
     <t>205 - CRSYS_UT</t>
   </si>
   <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>CR0_TUA</t>
+  </si>
+  <si>
+    <t>55 - CR0_TUA</t>
+  </si>
+  <si>
+    <t>IND_56</t>
+  </si>
+  <si>
+    <t>IND_57</t>
+  </si>
+  <si>
+    <t>IND_58</t>
+  </si>
+  <si>
+    <t>CR0_TUR</t>
+  </si>
+  <si>
+    <t>CR0_TUS</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>56 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>57 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>58 - CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>IND_206</t>
+  </si>
+  <si>
+    <t>CR0_TUC</t>
+  </si>
+  <si>
+    <t>206 - CR0_TUC</t>
+  </si>
+  <si>
+    <t>IND_207</t>
+  </si>
+  <si>
+    <t>IND_208</t>
+  </si>
+  <si>
+    <t>IND_209</t>
+  </si>
+  <si>
+    <t>CR0_ITUR</t>
+  </si>
+  <si>
+    <t>CR0_UA</t>
+  </si>
+  <si>
+    <t>CR0_US</t>
+  </si>
+  <si>
+    <t>207 - CR0_ITUR</t>
+  </si>
+  <si>
+    <t>208 - CR0_UA</t>
+  </si>
+  <si>
+    <t>209 - CR0_US</t>
+  </si>
+  <si>
+    <t>IND_210</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t>IND_219</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>IND_226</t>
+  </si>
+  <si>
+    <t>IND_227</t>
+  </si>
+  <si>
+    <t>IND_228</t>
+  </si>
+  <si>
+    <t>IND_229</t>
+  </si>
+  <si>
+    <t>IND_230</t>
+  </si>
+  <si>
+    <t>IND_231</t>
+  </si>
+  <si>
+    <t>IND_232</t>
+  </si>
+  <si>
+    <t>IND_233</t>
+  </si>
+  <si>
+    <t>IND_234</t>
+  </si>
+  <si>
+    <t>IND_235</t>
+  </si>
+  <si>
+    <t>IND_236</t>
+  </si>
+  <si>
+    <t>IND_59</t>
+  </si>
+  <si>
+    <t>CR0_UR</t>
+  </si>
+  <si>
+    <t>CR0_UT</t>
+  </si>
+  <si>
+    <t>210 - CR0_UR</t>
+  </si>
+  <si>
+    <t>211 - CR0_UT</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>212 - XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>213 - XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>214 - XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>215 - XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>216 - XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>217 - XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>218 - XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>219 - XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>220 - XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>221 - XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>222 - XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>223 - XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>224 - XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>225 - XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>226 - XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>227 - XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>228 - XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>229 - XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>230 - XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>231 - XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>232 - XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>233 - XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>234 - XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>235 - XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>236 - XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>59 - CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>60 - XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>61 - XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>IND_65</t>
+  </si>
+  <si>
+    <t>IND_66</t>
+  </si>
+  <si>
+    <t>IND_67</t>
+  </si>
+  <si>
+    <t>IND_68</t>
+  </si>
+  <si>
+    <t>IND_69</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>62 - NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>63 - NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>64 - ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>65 - ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>66 - FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>67 - FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>68 - EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>69 - FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>70 - FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_72</t>
+  </si>
+  <si>
+    <t>PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>71 - PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>72 - PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>IND_73</t>
+  </si>
+  <si>
+    <t>IND_74</t>
+  </si>
+  <si>
+    <t>IND_75</t>
+  </si>
+  <si>
+    <t>IND_76</t>
+  </si>
+  <si>
+    <t>IND_77</t>
+  </si>
+  <si>
+    <t>IND_78</t>
+  </si>
+  <si>
+    <t>IND_79</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>Distance_to_default</t>
+  </si>
+  <si>
+    <t>Rating_stress</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>73 - EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>74 - Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>75 - CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>76 - 5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>77 - Distance_to_default</t>
+  </si>
+  <si>
+    <t>78 - Rating_stress</t>
+  </si>
+  <si>
+    <t>79 - Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>80 - Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>IND_237</t>
+  </si>
+  <si>
+    <t>IND_238</t>
+  </si>
+  <si>
+    <t>IND_239</t>
+  </si>
+  <si>
+    <t>IND_240</t>
+  </si>
+  <si>
+    <t>IND_241</t>
+  </si>
+  <si>
+    <t>IND_242</t>
+  </si>
+  <si>
+    <t>IND_243</t>
+  </si>
+  <si>
+    <t>IND_244</t>
+  </si>
+  <si>
+    <t>IND_245</t>
+  </si>
+  <si>
+    <t>IND_246</t>
+  </si>
+  <si>
+    <t>IND_247</t>
+  </si>
+  <si>
+    <t>IND_248</t>
+  </si>
+  <si>
+    <t>IND_249</t>
+  </si>
+  <si>
+    <t>IND_250</t>
+  </si>
+  <si>
+    <t>IND_251</t>
+  </si>
+  <si>
+    <t>IND_252</t>
+  </si>
+  <si>
+    <t>IND_253</t>
+  </si>
+  <si>
+    <t>IND_254</t>
+  </si>
+  <si>
+    <t>IND_255</t>
+  </si>
+  <si>
+    <t>IND_256</t>
+  </si>
+  <si>
+    <t>IND_257</t>
+  </si>
+  <si>
+    <t>IND_258</t>
+  </si>
+  <si>
+    <t>IND_259</t>
+  </si>
+  <si>
+    <t>IND_260</t>
+  </si>
+  <si>
+    <t>IND_261</t>
+  </si>
+  <si>
+    <t>IND_262</t>
+  </si>
+  <si>
+    <t>IND_263</t>
+  </si>
+  <si>
+    <t>IND_264</t>
+  </si>
+  <si>
+    <t>IND_265</t>
+  </si>
+  <si>
+    <t>IND_266</t>
+  </si>
+  <si>
+    <t>IND_267</t>
+  </si>
+  <si>
+    <t>IND_268</t>
+  </si>
+  <si>
+    <t>IND_269</t>
+  </si>
+  <si>
+    <t>IND_270</t>
+  </si>
+  <si>
+    <t>IND_271</t>
+  </si>
+  <si>
+    <t>IND_272</t>
+  </si>
+  <si>
+    <t>IND_273</t>
+  </si>
+  <si>
+    <t>IND_274</t>
+  </si>
+  <si>
+    <t>IND_275</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>237 - NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>238 - NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>239 - NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>240 - NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>241 - NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>242 - NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>243 - NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>244 - NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>245 - NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>246 - NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>247 - NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>248 - NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>249 - NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>250 - NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>251 - NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>252 - NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>253 - NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>254 - NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>255 - NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>256 - NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>257 - NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>258 - NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>259 - NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>260 - NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>261 - NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>262 - NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>263 - NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>265 - NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>266 - ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>267 - ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>268 - ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>269 - ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>270 - ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>271 - FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>272 - FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>273 - FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>274 - FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>275 - FINIMP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
     <t>CRSYS_TUA_REAL</t>
   </si>
   <si>
@@ -755,6 +1619,15 @@
     <t>CRSYS_Q_DER_REAL</t>
   </si>
   <si>
+    <t>CR0_TUR_REAL</t>
+  </si>
+  <si>
+    <t>CR0_TUS_REAL</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT_REAL</t>
+  </si>
+  <si>
     <t>CRSYS_TUC_REAL</t>
   </si>
   <si>
@@ -773,898 +1646,32 @@
     <t>CRSYS_UT_REAL</t>
   </si>
   <si>
-    <t>IND_55</t>
-  </si>
-  <si>
-    <t>CR0_TUA</t>
-  </si>
-  <si>
-    <t>55 - CR0_TUA</t>
-  </si>
-  <si>
-    <t>IND_56</t>
-  </si>
-  <si>
-    <t>IND_57</t>
-  </si>
-  <si>
-    <t>IND_58</t>
-  </si>
-  <si>
-    <t>CR0_TUR</t>
-  </si>
-  <si>
-    <t>CR0_TUS</t>
-  </si>
-  <si>
-    <t>CR0_UCFBT</t>
-  </si>
-  <si>
-    <t>56 - CR0_TUR</t>
-  </si>
-  <si>
-    <t>57 - CR0_TUS</t>
-  </si>
-  <si>
-    <t>58 - CR0_UCFBT</t>
-  </si>
-  <si>
-    <t>CR0_TUR_REAL</t>
-  </si>
-  <si>
-    <t>CR0_TUS_REAL</t>
-  </si>
-  <si>
-    <t>CR0_UCFBT_REAL</t>
-  </si>
-  <si>
-    <t>XRA_GSC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>IND_61</t>
+    <t>CR0_TUC_REAL</t>
   </si>
   <si>
     <t>XRA_GSC_MAX_L3M_REAL</t>
   </si>
   <si>
     <t>XRA_RSC_ACC_L1M_REAL</t>
-  </si>
-  <si>
-    <t>XRA_RSC_ACC_L1M</t>
-  </si>
-  <si>
-    <t>IND_206</t>
-  </si>
-  <si>
-    <t>CR0_TUC</t>
-  </si>
-  <si>
-    <t>206 - CR0_TUC</t>
-  </si>
-  <si>
-    <t>CR0_TUC_REAL</t>
-  </si>
-  <si>
-    <t>IND_207</t>
-  </si>
-  <si>
-    <t>IND_208</t>
-  </si>
-  <si>
-    <t>IND_209</t>
-  </si>
-  <si>
-    <t>CR0_ITUR</t>
-  </si>
-  <si>
-    <t>CR0_UA</t>
-  </si>
-  <si>
-    <t>CR0_US</t>
-  </si>
-  <si>
-    <t>207 - CR0_ITUR</t>
-  </si>
-  <si>
-    <t>208 - CR0_UA</t>
-  </si>
-  <si>
-    <t>209 - CR0_US</t>
-  </si>
-  <si>
-    <t>IND_210</t>
-  </si>
-  <si>
-    <t>IND_211</t>
-  </si>
-  <si>
-    <t>IND_212</t>
-  </si>
-  <si>
-    <t>IND_213</t>
-  </si>
-  <si>
-    <t>IND_214</t>
-  </si>
-  <si>
-    <t>IND_215</t>
-  </si>
-  <si>
-    <t>IND_216</t>
-  </si>
-  <si>
-    <t>IND_217</t>
-  </si>
-  <si>
-    <t>IND_218</t>
-  </si>
-  <si>
-    <t>IND_219</t>
-  </si>
-  <si>
-    <t>IND_220</t>
-  </si>
-  <si>
-    <t>IND_221</t>
-  </si>
-  <si>
-    <t>IND_222</t>
-  </si>
-  <si>
-    <t>IND_223</t>
-  </si>
-  <si>
-    <t>IND_224</t>
-  </si>
-  <si>
-    <t>IND_225</t>
-  </si>
-  <si>
-    <t>IND_226</t>
-  </si>
-  <si>
-    <t>IND_227</t>
-  </si>
-  <si>
-    <t>IND_228</t>
-  </si>
-  <si>
-    <t>IND_229</t>
-  </si>
-  <si>
-    <t>IND_230</t>
-  </si>
-  <si>
-    <t>IND_231</t>
-  </si>
-  <si>
-    <t>IND_232</t>
-  </si>
-  <si>
-    <t>IND_233</t>
-  </si>
-  <si>
-    <t>IND_234</t>
-  </si>
-  <si>
-    <t>IND_235</t>
-  </si>
-  <si>
-    <t>IND_236</t>
-  </si>
-  <si>
-    <t>IND_59</t>
-  </si>
-  <si>
-    <t>CR0_UR</t>
-  </si>
-  <si>
-    <t>CR0_UT</t>
-  </si>
-  <si>
-    <t>210 - CR0_UR</t>
-  </si>
-  <si>
-    <t>211 - CR0_UT</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_AT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_BT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
-  </si>
-  <si>
-    <t>CR0_Q_DER</t>
-  </si>
-  <si>
-    <t>212 - XRA_IS_SC_AT_B90_L1M</t>
-  </si>
-  <si>
-    <t>213 - XRA_IS_GSC_L1M</t>
-  </si>
-  <si>
-    <t>214 - XRA_IS_GSC_AT_L1M</t>
-  </si>
-  <si>
-    <t>215 - XRA_IS_SC_AT_L1M</t>
-  </si>
-  <si>
-    <t>216 - XRA_IS_SC_L1M</t>
-  </si>
-  <si>
-    <t>217 - XRA_IS_GSC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>218 - XRA_IS_FLAG_AT_L3M</t>
-  </si>
-  <si>
-    <t>219 - XRA_IS_FLAG_L3M</t>
-  </si>
-  <si>
-    <t>220 - XRA_IS_SC_MM_AT_L3M</t>
-  </si>
-  <si>
-    <t>221 - XRA_IS_SC_MM_L3M</t>
-  </si>
-  <si>
-    <t>222 - XRA_IS_SC_M_AT_L3M</t>
-  </si>
-  <si>
-    <t>223 - XRA_IS_SC_M_L3M</t>
-  </si>
-  <si>
-    <t>224 - XRA_IS_SC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>225 - XRA_IS_SC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>226 - XRA_IS_RSC_M_AT_M_ACC_L3M</t>
-  </si>
-  <si>
-    <t>227 - XRA_IS_RSC_M_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>228 - XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>229 - XRA_IS_RSC_MM_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>230 - XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>231 - XRA_IS_RSC_MAX_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>232 - XRA_IS_RSC_AT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>233 - XRA_IS_SC_BT_B90_L1M</t>
-  </si>
-  <si>
-    <t>234 - XRA_IS_RSC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>235 - XRA_IS_RSC_MM_FAT_L1M</t>
-  </si>
-  <si>
-    <t>236 - XRA_IS_RSC_MAX_FAT_L3M</t>
-  </si>
-  <si>
-    <t>59 - CR0_Q_DER</t>
-  </si>
-  <si>
-    <t>IND_60</t>
-  </si>
-  <si>
-    <t>60 - XRA_GSC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>61 - XRA_RSC_ACC_L1M</t>
-  </si>
-  <si>
-    <t>IND_62</t>
-  </si>
-  <si>
-    <t>IND_63</t>
-  </si>
-  <si>
-    <t>IND_64</t>
-  </si>
-  <si>
-    <t>IND_65</t>
-  </si>
-  <si>
-    <t>IND_66</t>
-  </si>
-  <si>
-    <t>IND_67</t>
-  </si>
-  <si>
-    <t>IND_68</t>
-  </si>
-  <si>
-    <t>IND_69</t>
-  </si>
-  <si>
-    <t>IND_70</t>
-  </si>
-  <si>
-    <t>NPAF_ANT_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>EFINS_INSOL_SCAD_TPREC</t>
-  </si>
-  <si>
-    <t>FACT_ANT_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FACT_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>62 - NPAF_ANT_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>63 - NPAF_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>64 - ANTEXP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>65 - ANTEXP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>66 - FINIMP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>67 - FINIMP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>68 - EFINS_INSOL_SCAD_TPREC</t>
-  </si>
-  <si>
-    <t>69 - FACT_ANT_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>70 - FACT_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_71</t>
-  </si>
-  <si>
-    <t>IND_72</t>
-  </si>
-  <si>
-    <t>PREAM_UTIL_ACC_L1M</t>
-  </si>
-  <si>
-    <t>PREAM_MAX_MM_L1M</t>
-  </si>
-  <si>
-    <t>71 - PREAM_UTIL_ACC_L1M</t>
-  </si>
-  <si>
-    <t>72 - PREAM_MAX_MM_L1M</t>
-  </si>
-  <si>
-    <t>IND_73</t>
-  </si>
-  <si>
-    <t>IND_74</t>
-  </si>
-  <si>
-    <t>IND_75</t>
-  </si>
-  <si>
-    <t>IND_76</t>
-  </si>
-  <si>
-    <t>IND_77</t>
-  </si>
-  <si>
-    <t>IND_78</t>
-  </si>
-  <si>
-    <t>IND_79</t>
-  </si>
-  <si>
-    <t>IND_80</t>
-  </si>
-  <si>
-    <t>EDF_ImpliedRating</t>
-  </si>
-  <si>
-    <t>Bond_ImpliedRating</t>
-  </si>
-  <si>
-    <t>CDS_ImpliedRating</t>
-  </si>
-  <si>
-    <t>5Y_CDS_Spread</t>
-  </si>
-  <si>
-    <t>Distance_to_default</t>
-  </si>
-  <si>
-    <t>Rating_stress</t>
-  </si>
-  <si>
-    <t>Notizie_Pregiudizievoli</t>
-  </si>
-  <si>
-    <t>Colore_Modulo_Dati_di_Mercato</t>
-  </si>
-  <si>
-    <t>73 - EDF_ImpliedRating</t>
-  </si>
-  <si>
-    <t>74 - Bond_ImpliedRating</t>
-  </si>
-  <si>
-    <t>75 - CDS_ImpliedRating</t>
-  </si>
-  <si>
-    <t>76 - 5Y_CDS_Spread</t>
-  </si>
-  <si>
-    <t>77 - Distance_to_default</t>
-  </si>
-  <si>
-    <t>78 - Rating_stress</t>
-  </si>
-  <si>
-    <t>79 - Notizie_Pregiudizievoli</t>
-  </si>
-  <si>
-    <t>80 - Colore_Modulo_Dati_di_Mercato</t>
-  </si>
-  <si>
-    <t>IND_237</t>
-  </si>
-  <si>
-    <t>IND_238</t>
-  </si>
-  <si>
-    <t>IND_239</t>
-  </si>
-  <si>
-    <t>IND_240</t>
-  </si>
-  <si>
-    <t>IND_241</t>
-  </si>
-  <si>
-    <t>IND_242</t>
-  </si>
-  <si>
-    <t>IND_243</t>
-  </si>
-  <si>
-    <t>IND_244</t>
-  </si>
-  <si>
-    <t>IND_245</t>
-  </si>
-  <si>
-    <t>IND_246</t>
-  </si>
-  <si>
-    <t>IND_247</t>
-  </si>
-  <si>
-    <t>IND_248</t>
-  </si>
-  <si>
-    <t>IND_249</t>
-  </si>
-  <si>
-    <t>IND_250</t>
-  </si>
-  <si>
-    <t>IND_251</t>
-  </si>
-  <si>
-    <t>IND_252</t>
-  </si>
-  <si>
-    <t>IND_253</t>
-  </si>
-  <si>
-    <t>IND_254</t>
-  </si>
-  <si>
-    <t>IND_255</t>
-  </si>
-  <si>
-    <t>IND_256</t>
-  </si>
-  <si>
-    <t>IND_257</t>
-  </si>
-  <si>
-    <t>IND_258</t>
-  </si>
-  <si>
-    <t>IND_259</t>
-  </si>
-  <si>
-    <t>IND_260</t>
-  </si>
-  <si>
-    <t>IND_261</t>
-  </si>
-  <si>
-    <t>IND_262</t>
-  </si>
-  <si>
-    <t>IND_263</t>
-  </si>
-  <si>
-    <t>IND_264</t>
-  </si>
-  <si>
-    <t>IND_265</t>
-  </si>
-  <si>
-    <t>IND_266</t>
-  </si>
-  <si>
-    <t>IND_267</t>
-  </si>
-  <si>
-    <t>IND_268</t>
-  </si>
-  <si>
-    <t>IND_269</t>
-  </si>
-  <si>
-    <t>IND_270</t>
-  </si>
-  <si>
-    <t>IND_271</t>
-  </si>
-  <si>
-    <t>IND_272</t>
-  </si>
-  <si>
-    <t>IND_273</t>
-  </si>
-  <si>
-    <t>IND_274</t>
-  </si>
-  <si>
-    <t>IND_275</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_MOL_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_MOL_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
-  </si>
-  <si>
-    <t>237 - NPAF_IS_FAC_L1M</t>
-  </si>
-  <si>
-    <t>238 - NPAF_IS_ANT_L1M</t>
-  </si>
-  <si>
-    <t>239 - NPAF_IS_MAX_FAC_L3M</t>
-  </si>
-  <si>
-    <t>240 - NPAF_IS_MAX_ANT_L3M</t>
-  </si>
-  <si>
-    <t>241 - NPAF_IS_M_FAC_L3M</t>
-  </si>
-  <si>
-    <t>242 - NPAF_IS_M_ANT_L3M</t>
-  </si>
-  <si>
-    <t>243 - NPAF_IS_MAX_DOC_L3M</t>
-  </si>
-  <si>
-    <t>244 - NPAF_IS_M_DOC_L3M</t>
-  </si>
-  <si>
-    <t>245 - NPAF_IS_FAC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>246 - NPAF_IS_ANT_FAT_L1M</t>
-  </si>
-  <si>
-    <t>247 - NPAF_IS_MAX_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>248 - NPAF_IS_MAX_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>249 - NPAF_IS_M_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>250 - NPAF_IS_M_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>251 - NPAF_IS_FAC_DB_L1M</t>
-  </si>
-  <si>
-    <t>252 - NPAF_IS_ANT_DB_L1M</t>
-  </si>
-  <si>
-    <t>253 - NPAF_IS_MAX_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>254 - NPAF_IS_MAX_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>255 - NPAF_IS_M_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>256 - NPAF_IS_M_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>257 - NPAF_IS_FAC_MOL_L1M</t>
-  </si>
-  <si>
-    <t>258 - NPAF_IS_ANT_MOL_L1M</t>
-  </si>
-  <si>
-    <t>259 - NPAF_IS_MAX_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>260 - NPAF_IS_MAX_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>261 - NPAF_IS_M_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>262 - NPAF_IS_M_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>263 - NPAF_IS_MAX_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>265 - NPAF_IS_ANT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>266 - ANTEXP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>267 - ANTEXP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>268 - ANTEXP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>269 - ANTEXP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>270 - ANTEXP_SCAD_ACC_60G_M_L3M</t>
-  </si>
-  <si>
-    <t>271 - FINIMP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>272 - FINIMP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>273 - FINIMP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>274 - FINIMP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>275 - FINIMP_SCAD_ACC_60G_M_L3M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1940,57 +1947,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3019,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView topLeftCell="E38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,20 +5048,20 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>225</v>
+      <c r="B47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="G47" s="10">
         <v>58</v>
@@ -5084,20 +5092,20 @@
       <c r="A48" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>226</v>
+      <c r="B48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="G48" s="10">
         <v>59</v>
@@ -5128,20 +5136,20 @@
       <c r="A49" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>227</v>
+      <c r="B49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="G49" s="10">
         <v>60</v>
@@ -5172,20 +5180,20 @@
       <c r="A50" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>228</v>
+      <c r="B50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="G50" s="10">
         <v>61</v>
@@ -5216,20 +5224,20 @@
       <c r="A51" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>229</v>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
       </c>
       <c r="G51" s="10">
         <v>62</v>
@@ -5260,20 +5268,20 @@
       <c r="A52" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>230</v>
+      <c r="B52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="G52" s="10">
         <v>63</v>
@@ -5304,20 +5312,20 @@
       <c r="A53" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F53" s="34" t="s">
+      <c r="B53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="40" t="s">
         <v>244</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>344</v>
       </c>
       <c r="G53" s="10">
         <v>64</v>
@@ -5348,20 +5356,20 @@
       <c r="A54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>251</v>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="F54" t="s">
+        <v>363</v>
       </c>
       <c r="G54" s="10">
         <v>65</v>
@@ -5392,20 +5400,20 @@
       <c r="A55" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>252</v>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" t="s">
+        <v>364</v>
       </c>
       <c r="G55" s="10">
         <v>66</v>
@@ -5436,20 +5444,20 @@
       <c r="A56" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>253</v>
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="F56" t="s">
+        <v>365</v>
       </c>
       <c r="G56" s="10">
         <v>67</v>
@@ -5480,20 +5488,20 @@
       <c r="A57" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>360</v>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>357</v>
+      </c>
+      <c r="D57" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" t="s">
+        <v>366</v>
       </c>
       <c r="G57" s="10">
         <v>68</v>
@@ -5524,20 +5532,20 @@
       <c r="A58" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>361</v>
+      <c r="B58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" t="s">
+        <v>367</v>
       </c>
       <c r="G58" s="10">
         <v>69</v>
@@ -5569,19 +5577,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>264</v>
+        <v>359</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" t="s">
+        <v>368</v>
       </c>
       <c r="G59" s="10">
         <v>70</v>
@@ -5613,19 +5621,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>266</v>
+        <v>360</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>351</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="G60" s="10">
         <v>71</v>
@@ -5657,19 +5665,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>267</v>
+        <v>361</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="G61" s="10">
         <v>72</v>
@@ -5701,19 +5709,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>268</v>
+        <v>362</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>353</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="G62" s="10">
         <v>73</v>
@@ -5745,19 +5753,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>275</v>
+        <v>374</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="G63" s="10">
         <v>74</v>
@@ -5789,19 +5797,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>276</v>
+        <v>375</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>373</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="G64" s="10">
         <v>75</v>
@@ -5833,19 +5841,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>277</v>
+        <v>386</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="G65" s="10">
         <v>76</v>
@@ -5857,10 +5865,10 @@
         <v>12</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -5877,19 +5885,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>278</v>
+        <v>387</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>379</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G66" s="10">
         <v>77</v>
@@ -5901,10 +5909,10 @@
         <v>12</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -5921,19 +5929,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>279</v>
+        <v>388</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="G67" s="10">
         <v>78</v>
@@ -5945,10 +5953,10 @@
         <v>12</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -5965,19 +5973,19 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>307</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>280</v>
+        <v>389</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>381</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="G68" s="10">
         <v>79</v>
@@ -6009,19 +6017,19 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>281</v>
+        <v>390</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>382</v>
       </c>
       <c r="F69" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="G69" s="10">
         <v>80</v>
@@ -6053,19 +6061,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>282</v>
+        <v>391</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>383</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="G70" s="10">
         <v>81</v>
@@ -6077,10 +6085,10 @@
         <v>12</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -6097,19 +6105,19 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="D71" t="s">
-        <v>313</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>283</v>
+        <v>392</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>384</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="G71" s="10">
         <v>82</v>
@@ -6141,19 +6149,19 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="D72" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>284</v>
+        <v>393</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>385</v>
       </c>
       <c r="F72" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="G72" s="10">
         <v>83</v>
@@ -6184,20 +6192,20 @@
       <c r="A73" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="F73" t="s">
-        <v>341</v>
+      <c r="B73" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="G73" s="10">
         <v>84</v>
@@ -6228,20 +6236,20 @@
       <c r="A74" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="F74" t="s">
-        <v>342</v>
+      <c r="B74" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="G74" s="10">
         <v>85</v>
@@ -6272,20 +6280,20 @@
       <c r="A75" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" t="s">
-        <v>317</v>
-      </c>
-      <c r="D75" t="s">
-        <v>317</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F75" t="s">
-        <v>343</v>
+      <c r="B75" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="G75" s="10">
         <v>86</v>
@@ -6316,20 +6324,20 @@
       <c r="A76" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B76" t="s">
-        <v>318</v>
-      </c>
-      <c r="C76" t="s">
-        <v>318</v>
-      </c>
-      <c r="D76" t="s">
-        <v>318</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="F76" t="s">
-        <v>344</v>
+      <c r="B76" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="G76" s="10">
         <v>87</v>
@@ -6360,20 +6368,20 @@
       <c r="A77" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B77" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" t="s">
-        <v>319</v>
-      </c>
-      <c r="D77" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" t="s">
-        <v>345</v>
+      <c r="B77" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="G77" s="10">
         <v>88</v>
@@ -6404,20 +6412,20 @@
       <c r="A78" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B78" t="s">
-        <v>320</v>
-      </c>
-      <c r="C78" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="F78" t="s">
-        <v>346</v>
+      <c r="B78" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="G78" s="10">
         <v>89</v>
@@ -6449,19 +6457,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="F79" t="s">
-        <v>347</v>
+        <v>246</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="G79" s="10">
         <v>90</v>
@@ -6493,19 +6501,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="F80" t="s">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="G80" s="10">
         <v>91</v>
@@ -6537,19 +6545,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="F81" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="G81" s="10">
         <v>92</v>
@@ -6581,19 +6589,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="F82" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="G82" s="10">
         <v>93</v>
@@ -6625,19 +6633,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F83" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="G83" s="10">
         <v>94</v>
@@ -6669,19 +6677,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="D84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="G84" s="10">
         <v>95</v>
@@ -6713,19 +6721,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="D85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="F85" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="G85" s="10">
         <v>96</v>
@@ -6757,19 +6765,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="G86" s="10">
         <v>97</v>
@@ -6801,19 +6809,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="F87" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="G87" s="10">
         <v>98</v>
@@ -6845,19 +6853,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="F88" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G88" s="10">
         <v>99</v>
@@ -6889,19 +6897,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="D89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="F89" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="G89" s="10">
         <v>100</v>
@@ -6933,19 +6941,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="F90" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="G90" s="10">
         <v>101</v>
@@ -6977,19 +6985,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="D91" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>362</v>
+        <v>296</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="F91" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="G91" s="10">
         <v>102</v>
@@ -7001,10 +7009,10 @@
         <v>12</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -7021,19 +7029,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>372</v>
-      </c>
-      <c r="E92" s="42" t="s">
-        <v>363</v>
+        <v>297</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>267</v>
       </c>
       <c r="F92" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="G92" s="10">
         <v>103</v>
@@ -7045,10 +7053,10 @@
         <v>12</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -7065,19 +7073,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>373</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>364</v>
+        <v>298</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="F93" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="G93" s="10">
         <v>104</v>
@@ -7109,19 +7117,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>374</v>
-      </c>
-      <c r="E94" s="42" t="s">
-        <v>365</v>
+        <v>299</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>269</v>
       </c>
       <c r="F94" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="G94" s="10">
         <v>105</v>
@@ -7153,19 +7161,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>375</v>
-      </c>
-      <c r="E95" s="42" t="s">
-        <v>366</v>
+        <v>300</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="F95" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="G95" s="10">
         <v>106</v>
@@ -7197,19 +7205,19 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
-      </c>
-      <c r="E96" s="42" t="s">
-        <v>367</v>
+        <v>301</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="F96" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="G96" s="10">
         <v>107</v>
@@ -7241,19 +7249,19 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>377</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>368</v>
+        <v>302</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="F97" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="G97" s="10">
         <v>108</v>
@@ -7285,19 +7293,19 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
-        <v>378</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>369</v>
+        <v>303</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="F98" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="G98" s="10">
         <v>109</v>
@@ -7329,19 +7337,19 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>379</v>
-      </c>
-      <c r="E99" s="43" t="s">
-        <v>370</v>
+        <v>304</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="F99" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="G99" s="10">
         <v>110</v>
@@ -7373,19 +7381,19 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>389</v>
+        <v>305</v>
+      </c>
+      <c r="E100" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="F100" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="G100" s="10">
         <v>111</v>
@@ -7417,19 +7425,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>390</v>
+        <v>306</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="F101" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="G101" s="10">
         <v>112</v>
@@ -7461,19 +7469,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
-      </c>
-      <c r="E102" s="42" t="s">
-        <v>395</v>
+        <v>307</v>
+      </c>
+      <c r="E102" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="F102" t="s">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="G102" s="10">
         <v>113</v>
@@ -7485,10 +7493,10 @@
         <v>12</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -7505,19 +7513,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>404</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>396</v>
+        <v>308</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="F103" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="G103" s="10">
         <v>114</v>
@@ -7529,10 +7537,10 @@
         <v>12</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -7549,19 +7557,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="D104" t="s">
-        <v>405</v>
-      </c>
-      <c r="E104" s="42" t="s">
-        <v>397</v>
+        <v>309</v>
+      </c>
+      <c r="E104" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="G104" s="10">
         <v>115</v>
@@ -7573,10 +7581,10 @@
         <v>12</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -7593,19 +7601,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
-        <v>406</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>398</v>
+        <v>310</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="G105" s="10">
         <v>116</v>
@@ -7637,19 +7645,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="D106" t="s">
-        <v>407</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>399</v>
+        <v>311</v>
+      </c>
+      <c r="E106" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="F106" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="G106" s="10">
         <v>117</v>
@@ -7681,19 +7689,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="D107" t="s">
-        <v>408</v>
-      </c>
-      <c r="E107" s="43" t="s">
-        <v>400</v>
+        <v>312</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="F107" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="G107" s="10">
         <v>118</v>
@@ -7705,10 +7713,10 @@
         <v>12</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -7725,19 +7733,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="C108" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>409</v>
-      </c>
-      <c r="E108" s="42" t="s">
-        <v>401</v>
+        <v>313</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="F108" t="s">
-        <v>417</v>
+        <v>339</v>
       </c>
       <c r="G108" s="10">
         <v>119</v>
@@ -7749,10 +7757,10 @@
         <v>12</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -7769,19 +7777,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>402</v>
+        <v>314</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="F109" t="s">
-        <v>418</v>
+        <v>340</v>
       </c>
       <c r="G109" s="10">
         <v>120</v>
@@ -7793,10 +7801,10 @@
         <v>12</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -7813,19 +7821,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E110" s="44" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="F110" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="G110" s="10">
         <v>121</v>
@@ -7857,19 +7865,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E111" s="44" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F111" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G111" s="10">
         <v>122</v>
@@ -7901,19 +7909,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="E112" s="44" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="F112" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="G112" s="10">
         <v>123</v>
@@ -7945,19 +7953,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E113" s="44" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="F113" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="G113" s="10">
         <v>124</v>
@@ -7989,19 +7997,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="E114" s="44" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F114" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="G114" s="10">
         <v>125</v>
@@ -8033,19 +8041,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E115" s="44" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F115" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="G115" s="10">
         <v>126</v>
@@ -8077,19 +8085,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E116" s="44" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="F116" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="G116" s="10">
         <v>127</v>
@@ -8121,19 +8129,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E117" s="44" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F117" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="G117" s="10">
         <v>128</v>
@@ -8165,19 +8173,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="E118" s="44" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F118" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="G118" s="10">
         <v>129</v>
@@ -8209,19 +8217,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E119" s="44" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F119" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="G119" s="10">
         <v>130</v>
@@ -8253,19 +8261,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="E120" s="44" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F120" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G120" s="10">
         <v>131</v>
@@ -8297,19 +8305,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="E121" s="44" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F121" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G121" s="10">
         <v>132</v>
@@ -8341,19 +8349,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E122" s="44" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F122" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="G122" s="10">
         <v>133</v>
@@ -8385,19 +8393,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E123" s="44" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="F123" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="G123" s="10">
         <v>134</v>
@@ -8429,19 +8437,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E124" s="44" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="F124" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G124" s="10">
         <v>135</v>
@@ -8473,19 +8481,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E125" s="44" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G125" s="10">
         <v>136</v>
@@ -8517,19 +8525,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="E126" s="44" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="G126" s="10">
         <v>137</v>
@@ -8561,19 +8569,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E127" s="44" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F127" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G127" s="10">
         <v>138</v>
@@ -8605,19 +8613,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="E128" s="44" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F128" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="G128" s="10">
         <v>139</v>
@@ -8649,19 +8657,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="E129" s="44" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="F129" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="G129" s="10">
         <v>140</v>
@@ -8693,19 +8701,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E130" s="44" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F130" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="G130" s="10">
         <v>141</v>
@@ -8737,19 +8745,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E131" s="44" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="F131" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="G131" s="10">
         <v>142</v>
@@ -8781,19 +8789,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="E132" s="44" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F132" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="G132" s="10">
         <v>143</v>
@@ -8825,19 +8833,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="E133" s="44" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F133" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="G133" s="10">
         <v>144</v>
@@ -8869,19 +8877,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="E134" s="44" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F134" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="G134" s="10">
         <v>145</v>
@@ -8913,19 +8921,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="E135" s="44" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F135" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G135" s="10">
         <v>146</v>
@@ -8957,19 +8965,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="E136" s="44" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F136" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="G136" s="10">
         <v>147</v>
@@ -9001,19 +9009,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="E137" s="44" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F137" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="G137" s="10">
         <v>148</v>
@@ -9045,19 +9053,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E138" s="44" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F138" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G138" s="10">
         <v>149</v>
@@ -9089,19 +9097,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="D139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E139" s="44" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F139" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G139" s="10">
         <v>150</v>
@@ -9133,19 +9141,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="E140" s="44" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F140" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="G140" s="10">
         <v>151</v>
@@ -9177,19 +9185,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E141" s="44" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F141" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G141" s="10">
         <v>152</v>
@@ -9221,19 +9229,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="E142" s="44" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F142" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="G142" s="10">
         <v>153</v>
@@ -9265,19 +9273,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E143" s="44" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F143" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="G143" s="10">
         <v>154</v>
@@ -9309,19 +9317,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E144" s="44" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F144" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="G144" s="10">
         <v>155</v>
@@ -9353,19 +9361,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E145" s="44" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="F145" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G145" s="10">
         <v>156</v>
@@ -9397,19 +9405,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E146" s="44" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F146" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="G146" s="10">
         <v>157</v>
@@ -9441,19 +9449,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E147" s="44" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F147" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G147" s="10">
         <v>158</v>
@@ -9485,19 +9493,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="E148" s="44" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F148" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="G148" s="10">
         <v>159</v>
@@ -9535,8 +9543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10246,11 +10254,11 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>231</v>
+      <c r="B42" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>519</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>209</v>
@@ -10263,11 +10271,11 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>232</v>
+      <c r="B43" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>520</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>210</v>
@@ -10280,11 +10288,11 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>233</v>
+      <c r="B44" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>521</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>211</v>
@@ -10297,11 +10305,11 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>234</v>
+      <c r="B45" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>522</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>218</v>
@@ -10314,11 +10322,11 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>235</v>
+      <c r="B46" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>523</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>219</v>
@@ -10331,14 +10339,14 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>212</v>
+      <c r="B47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>22</v>
@@ -10348,14 +10356,14 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
@@ -10365,14 +10373,14 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>22</v>
@@ -10382,14 +10390,14 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>22</v>
@@ -10399,14 +10407,14 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>216</v>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" t="s">
+        <v>315</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>22</v>
@@ -10416,14 +10424,14 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>217</v>
+      <c r="B52" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>22</v>
@@ -10433,14 +10441,14 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>243</v>
+      <c r="B53" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>22</v>
@@ -10450,14 +10458,14 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>248</v>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" t="s">
+        <v>354</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>22</v>
@@ -10467,14 +10475,14 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>249</v>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" t="s">
+        <v>355</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>22</v>
@@ -10484,14 +10492,14 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>250</v>
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56" t="s">
+        <v>356</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>22</v>
@@ -10501,14 +10509,14 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>257</v>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" t="s">
+        <v>357</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>22</v>
@@ -10518,14 +10526,14 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>261</v>
+      <c r="B58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" t="s">
+        <v>358</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>22</v>
@@ -10536,13 +10544,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>22</v>
@@ -10553,13 +10561,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -10570,13 +10578,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -10587,13 +10595,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -10604,13 +10612,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -10621,13 +10629,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -10638,16 +10646,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10655,16 +10663,16 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="E66" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10672,16 +10680,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10689,13 +10697,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -10706,13 +10714,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -10723,16 +10731,16 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10740,13 +10748,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>23</v>
@@ -10757,13 +10765,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>23</v>
@@ -10773,14 +10781,14 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" t="s">
-        <v>315</v>
+      <c r="B73" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -10790,14 +10798,14 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" t="s">
-        <v>316</v>
+      <c r="B74" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -10807,14 +10815,14 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" t="s">
-        <v>317</v>
-      </c>
-      <c r="E75" t="s">
-        <v>317</v>
+      <c r="B75" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>214</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -10824,14 +10832,14 @@
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" t="s">
-        <v>318</v>
-      </c>
-      <c r="C76" t="s">
-        <v>318</v>
-      </c>
-      <c r="E76" t="s">
-        <v>318</v>
+      <c r="B76" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -10841,14 +10849,14 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" t="s">
-        <v>319</v>
+      <c r="B77" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -10858,14 +10866,14 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" t="s">
-        <v>320</v>
-      </c>
-      <c r="C78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" t="s">
-        <v>320</v>
+      <c r="B78" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -10876,13 +10884,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="C79" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -10893,13 +10901,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -10910,13 +10918,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -10927,13 +10935,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>22</v>
@@ -10944,13 +10952,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>22</v>
@@ -10961,13 +10969,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>22</v>
@@ -10978,13 +10986,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>22</v>
@@ -10995,13 +11003,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>22</v>
@@ -11012,13 +11020,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -11029,13 +11037,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -11046,13 +11054,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -11063,13 +11071,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -11080,16 +11088,16 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11097,16 +11105,16 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11114,13 +11122,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
@@ -11131,13 +11139,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>22</v>
@@ -11148,13 +11156,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -11165,13 +11173,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -11182,13 +11190,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="E97" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -11199,13 +11207,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -11216,13 +11224,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -11233,13 +11241,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -11250,13 +11258,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -11267,16 +11275,16 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11284,16 +11292,16 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11301,16 +11309,16 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="E104" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11318,13 +11326,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="E105" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -11335,13 +11343,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -11352,16 +11360,16 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="E107" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11369,16 +11377,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="C108" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="E108" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11386,16 +11394,16 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="E109" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11403,13 +11411,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E110" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -11420,13 +11428,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E111" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -11437,13 +11445,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="E112" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -11454,13 +11462,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E113" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -11471,13 +11479,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="E114" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -11488,13 +11496,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E115" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -11505,13 +11513,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -11522,13 +11530,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E117" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -11539,13 +11547,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="E118" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -11556,13 +11564,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E119" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -11573,13 +11581,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="E120" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -11590,13 +11598,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="E121" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -11607,13 +11615,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E122" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -11624,13 +11632,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E123" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -11641,13 +11649,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E124" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -11658,13 +11666,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E125" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -11675,13 +11683,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="E126" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -11692,13 +11700,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E127" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -11709,13 +11717,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="E128" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -11726,13 +11734,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="E129" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -11743,13 +11751,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E130" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -11760,13 +11768,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E131" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -11777,13 +11785,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="E132" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -11794,13 +11802,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="E133" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -11811,13 +11819,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="E134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -11828,13 +11836,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="E135" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -11845,13 +11853,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="E136" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -11862,13 +11870,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="E137" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -11879,13 +11887,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E138" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -11896,13 +11904,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E139" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -11913,13 +11921,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="E140" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -11930,13 +11938,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E141" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -11947,13 +11955,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="E142" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -11964,13 +11972,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E143" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -11981,13 +11989,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E144" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -11998,13 +12006,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E145" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -12015,13 +12023,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E146" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -12032,13 +12040,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E147" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -12049,13 +12057,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="E148" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="563">
   <si>
     <t>Variable</t>
   </si>
@@ -1731,18 +1731,28 @@
   </si>
   <si>
     <t>31-JD_ACC_RISTRUT_2</t>
+  </si>
+  <si>
+    <t>32-JD_CONCOR_RICH_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2060,58 +2070,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3144,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4605,8 +4616,8 @@
       <c r="E34" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>559</v>
+      <c r="F34" s="50" t="s">
+        <v>562</v>
       </c>
       <c r="G34" s="8">
         <v>41</v>
@@ -10056,8 +10067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="569">
   <si>
     <t>Variable</t>
   </si>
@@ -620,9 +620,6 @@
     <t>IND_33</t>
   </si>
   <si>
-    <t>33 - Segnalazione a sofferenze nel gruppo bancario_se di importi congrui</t>
-  </si>
-  <si>
     <t>SEGNALAZIONE_SOFF_BANCA</t>
   </si>
   <si>
@@ -1734,18 +1731,46 @@
   </si>
   <si>
     <t>32-JD_CONCOR_RICH_2</t>
+  </si>
+  <si>
+    <t>IND_34</t>
+  </si>
+  <si>
+    <t>IND_35</t>
+  </si>
+  <si>
+    <t>JD_INCROCIO_ASSEGNI</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_FAM</t>
+  </si>
+  <si>
+    <t>33 - JD_PROTEST_ALTRE_BANCHE</t>
+  </si>
+  <si>
+    <t>34-JD_INCROCIO_ASSEGNI</t>
+  </si>
+  <si>
+    <t>35-JD_REATI_GRAVI_FAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2070,64 +2095,66 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2227,7 +2254,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>119408</xdr:rowOff>
+      <xdr:rowOff>77075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2285,7 +2312,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>119408</xdr:rowOff>
+      <xdr:rowOff>77075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2343,7 +2370,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>119408</xdr:rowOff>
+      <xdr:rowOff>77075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2401,7 +2428,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>119408</xdr:rowOff>
+      <xdr:rowOff>77075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2459,7 +2486,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>119408</xdr:rowOff>
+      <xdr:rowOff>77075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2564,8 +2591,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2622,8 +2649,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2680,8 +2707,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2738,8 +2765,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2796,8 +2823,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3153,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,19 +4280,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G26" s="8">
         <v>33</v>
@@ -4297,19 +4324,19 @@
         <v>11</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G27" s="8">
         <v>34</v>
@@ -4341,19 +4368,19 @@
         <v>11</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G28" s="8">
         <v>35</v>
@@ -4385,19 +4412,19 @@
         <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G29" s="8">
         <v>36</v>
@@ -4429,19 +4456,19 @@
         <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G30" s="8">
         <v>37</v>
@@ -4473,19 +4500,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G31" s="8">
         <v>38</v>
@@ -4517,19 +4544,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G32" s="8">
         <v>39</v>
@@ -4561,19 +4588,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>560</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>561</v>
       </c>
       <c r="G33" s="8">
         <v>40</v>
@@ -4605,19 +4632,19 @@
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G34" s="8">
         <v>41</v>
@@ -4644,33 +4671,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>42</v>
+      <c r="B35" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>567</v>
       </c>
       <c r="G35" s="8">
         <v>42</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>102</v>
@@ -4688,24 +4715,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>81</v>
+      <c r="B36" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>568</v>
       </c>
       <c r="G36" s="8">
         <v>43</v>
@@ -4717,16 +4744,16 @@
         <v>12</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -4736,29 +4763,29 @@
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>104</v>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G37" s="8">
         <v>44</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>102</v>
@@ -4767,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -4780,20 +4807,20 @@
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
+      <c r="B38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="G38" s="8">
         <v>45</v>
@@ -4804,40 +4831,40 @@
       <c r="I38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>152</v>
+      <c r="B39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="G39" s="8">
         <v>46</v>
@@ -4845,8 +4872,8 @@
       <c r="H39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>12</v>
+      <c r="I39" t="b">
+        <v>1</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>102</v>
@@ -4855,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -4868,20 +4895,20 @@
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>153</v>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
       </c>
       <c r="G40" s="8">
         <v>47</v>
@@ -4892,11 +4919,11 @@
       <c r="I40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>13</v>
+      <c r="J40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -4905,27 +4932,27 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>158</v>
+      <c r="B41" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="G41" s="8">
         <v>48</v>
@@ -4956,20 +4983,20 @@
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>170</v>
+      <c r="B42" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G42" s="8">
         <v>49</v>
@@ -4996,24 +5023,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>171</v>
+      <c r="B43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G43" s="8">
         <v>50</v>
@@ -5045,19 +5072,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G44" s="8">
         <v>51</v>
@@ -5084,24 +5111,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G45" s="8">
         <v>52</v>
@@ -5133,19 +5160,19 @@
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G46" s="8">
         <v>53</v>
@@ -5176,20 +5203,20 @@
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>184</v>
+      <c r="B47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="G47" s="8">
         <v>54</v>
@@ -5203,7 +5230,7 @@
       <c r="J47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L47" t="b">
@@ -5217,37 +5244,37 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>187</v>
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="G48" s="8">
         <v>55</v>
       </c>
-      <c r="H48" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="H48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L48" t="b">
@@ -5261,23 +5288,23 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>191</v>
+      <c r="A49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="G49" s="8">
         <v>56</v>
@@ -5285,14 +5312,14 @@
       <c r="H49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="7" t="b">
-        <v>1</v>
+      <c r="I49" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -5308,35 +5335,35 @@
       <c r="A50" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>196</v>
+      <c r="B50" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="G50" s="8">
         <v>57</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>12</v>
+      <c r="H50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -5352,35 +5379,35 @@
       <c r="A51" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>220</v>
+      <c r="B51" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>566</v>
       </c>
       <c r="G51" s="8">
         <v>58</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>12</v>
+      <c r="H51" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -5396,20 +5423,20 @@
       <c r="A52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>221</v>
+      <c r="B52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="G52" s="8">
         <v>59</v>
@@ -5441,19 +5468,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G53" s="8">
         <v>60</v>
@@ -5485,19 +5512,19 @@
         <v>11</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G54" s="8">
         <v>61</v>
@@ -5529,19 +5556,19 @@
         <v>11</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G55" s="8">
         <v>62</v>
@@ -5572,20 +5599,20 @@
       <c r="A56" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>233</v>
+      <c r="B56" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="G56" s="8">
         <v>63</v>
@@ -5616,20 +5643,20 @@
       <c r="A57" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>240</v>
+      <c r="B57" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="G57" s="8">
         <v>64</v>
@@ -5660,20 +5687,20 @@
       <c r="A58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>238</v>
+      <c r="B58" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="G58" s="8">
         <v>65</v>
@@ -5705,19 +5732,19 @@
         <v>11</v>
       </c>
       <c r="B59" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="G59" s="8">
         <v>66</v>
@@ -5748,20 +5775,20 @@
       <c r="A60" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D60" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" t="s">
-        <v>341</v>
+      <c r="B60" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="G60" s="8">
         <v>67</v>
@@ -5792,20 +5819,20 @@
       <c r="A61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>343</v>
+      <c r="B61" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="G61" s="8">
         <v>68</v>
@@ -5836,20 +5863,20 @@
       <c r="A62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>344</v>
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" t="s">
+        <v>340</v>
       </c>
       <c r="G62" s="8">
         <v>69</v>
@@ -5880,20 +5907,20 @@
       <c r="A63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
-        <v>354</v>
-      </c>
-      <c r="C63" t="s">
-        <v>354</v>
-      </c>
-      <c r="D63" t="s">
-        <v>354</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="F63" t="s">
-        <v>363</v>
+      <c r="B63" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="G63" s="8">
         <v>70</v>
@@ -5924,20 +5951,20 @@
       <c r="A64" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" t="s">
-        <v>355</v>
-      </c>
-      <c r="D64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="F64" t="s">
-        <v>364</v>
+      <c r="B64" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="G64" s="8">
         <v>71</v>
@@ -5969,19 +5996,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G65" s="8">
         <v>72</v>
@@ -6013,19 +6040,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G66" s="8">
         <v>73</v>
@@ -6057,19 +6084,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F67" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G67" s="8">
         <v>74</v>
@@ -6101,19 +6128,19 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G68" s="8">
         <v>75</v>
@@ -6145,19 +6172,19 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G69" s="8">
         <v>76</v>
@@ -6189,19 +6216,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G70" s="8">
         <v>77</v>
@@ -6233,19 +6260,19 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>353</v>
+        <v>359</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>350</v>
       </c>
       <c r="F71" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G71" s="8">
         <v>78</v>
@@ -6277,19 +6304,19 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G72" s="8">
         <v>79</v>
@@ -6321,19 +6348,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="F73" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G73" s="8">
         <v>80</v>
@@ -6365,19 +6392,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F74" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G74" s="8">
         <v>81</v>
@@ -6389,10 +6416,10 @@
         <v>12</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -6409,19 +6436,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F75" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G75" s="8">
         <v>82</v>
@@ -6433,10 +6460,10 @@
         <v>12</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -6453,19 +6480,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G76" s="8">
         <v>83</v>
@@ -6497,19 +6524,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F77" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G77" s="8">
         <v>84</v>
@@ -6521,10 +6548,10 @@
         <v>12</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -6541,19 +6568,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F78" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G78" s="8">
         <v>85</v>
@@ -6565,10 +6592,10 @@
         <v>12</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -6585,19 +6612,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G79" s="8">
         <v>86</v>
@@ -6609,10 +6636,10 @@
         <v>12</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -6629,19 +6656,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F80" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G80" s="8">
         <v>87</v>
@@ -6653,10 +6680,10 @@
         <v>12</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -6673,19 +6700,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G81" s="8">
         <v>88</v>
@@ -6716,20 +6743,20 @@
       <c r="A82" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>225</v>
+      <c r="B82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82" t="s">
+        <v>391</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F82" t="s">
+        <v>399</v>
       </c>
       <c r="G82" s="8">
         <v>89</v>
@@ -6741,10 +6768,10 @@
         <v>12</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -6760,20 +6787,20 @@
       <c r="A83" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="31" t="s">
-        <v>226</v>
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="F83" t="s">
+        <v>400</v>
       </c>
       <c r="G83" s="8">
         <v>90</v>
@@ -6785,10 +6812,10 @@
         <v>12</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -6805,19 +6832,19 @@
         <v>11</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G84" s="8">
         <v>91</v>
@@ -6849,19 +6876,19 @@
         <v>11</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G85" s="8">
         <v>92</v>
@@ -6893,19 +6920,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G86" s="8">
         <v>93</v>
@@ -6937,19 +6964,19 @@
         <v>11</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G87" s="8">
         <v>94</v>
@@ -6980,20 +7007,20 @@
       <c r="A88" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B88" t="s">
-        <v>247</v>
-      </c>
-      <c r="C88" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" t="s">
-        <v>247</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>248</v>
+      <c r="B88" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="G88" s="8">
         <v>95</v>
@@ -7024,20 +7051,20 @@
       <c r="A89" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-      <c r="D89" t="s">
-        <v>252</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F89" t="s">
-        <v>255</v>
+      <c r="B89" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="G89" s="8">
         <v>96</v>
@@ -7069,19 +7096,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F90" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G90" s="8">
         <v>97</v>
@@ -7113,19 +7140,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" t="s">
-        <v>254</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F91" t="s">
-        <v>257</v>
       </c>
       <c r="G91" s="8">
         <v>98</v>
@@ -7157,19 +7184,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F92" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G92" s="8">
         <v>99</v>
@@ -7201,19 +7228,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="G93" s="8">
         <v>100</v>
@@ -7245,19 +7272,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="G94" s="8">
         <v>101</v>
@@ -7289,19 +7316,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="G95" s="8">
         <v>102</v>
@@ -7333,19 +7360,19 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F96" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G96" s="8">
         <v>103</v>
@@ -7377,19 +7404,19 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G97" s="8">
         <v>104</v>
@@ -7421,19 +7448,19 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G98" s="8">
         <v>105</v>
@@ -7465,19 +7492,19 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F99" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G99" s="8">
         <v>106</v>
@@ -7509,19 +7536,19 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G100" s="8">
         <v>107</v>
@@ -7533,10 +7560,10 @@
         <v>12</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -7553,19 +7580,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G101" s="8">
         <v>108</v>
@@ -7577,10 +7604,10 @@
         <v>12</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -7597,19 +7624,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F102" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G102" s="8">
         <v>109</v>
@@ -7621,10 +7648,10 @@
         <v>12</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -7641,19 +7668,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F103" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G103" s="8">
         <v>110</v>
@@ -7665,10 +7692,10 @@
         <v>12</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -7685,19 +7712,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G104" s="8">
         <v>111</v>
@@ -7729,19 +7756,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F105" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G105" s="8">
         <v>112</v>
@@ -7773,19 +7800,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G106" s="8">
         <v>113</v>
@@ -7817,19 +7844,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F107" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G107" s="8">
         <v>114</v>
@@ -7861,19 +7888,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F108" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G108" s="8">
         <v>115</v>
@@ -7905,19 +7932,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G109" s="8">
         <v>116</v>
@@ -7949,19 +7976,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F110" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G110" s="8">
         <v>117</v>
@@ -7993,19 +8020,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F111" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G111" s="8">
         <v>118</v>
@@ -8037,19 +8064,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G112" s="8">
         <v>119</v>
@@ -8081,19 +8108,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F113" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G113" s="8">
         <v>120</v>
@@ -8125,19 +8152,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G114" s="8">
         <v>121</v>
@@ -8169,19 +8196,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G115" s="8">
         <v>122</v>
@@ -8213,19 +8240,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F116" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G116" s="8">
         <v>123</v>
@@ -8257,19 +8284,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F117" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G117" s="8">
         <v>124</v>
@@ -8301,19 +8328,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F118" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G118" s="8">
         <v>125</v>
@@ -8345,19 +8372,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>402</v>
+        <v>312</v>
+      </c>
+      <c r="E119" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="F119" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="G119" s="8">
         <v>126</v>
@@ -8389,19 +8416,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
-      </c>
-      <c r="E120" s="43" t="s">
-        <v>403</v>
+        <v>313</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="F120" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="G120" s="8">
         <v>127</v>
@@ -8433,19 +8460,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G121" s="8">
         <v>128</v>
@@ -8477,19 +8504,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F122" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G122" s="8">
         <v>129</v>
@@ -8521,19 +8548,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F123" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G123" s="8">
         <v>130</v>
@@ -8565,19 +8592,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F124" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G124" s="8">
         <v>131</v>
@@ -8609,19 +8636,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F125" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G125" s="8">
         <v>132</v>
@@ -8653,19 +8680,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F126" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G126" s="8">
         <v>133</v>
@@ -8697,19 +8724,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F127" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G127" s="8">
         <v>134</v>
@@ -8741,19 +8768,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F128" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G128" s="8">
         <v>135</v>
@@ -8785,19 +8812,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F129" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G129" s="8">
         <v>136</v>
@@ -8829,19 +8856,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G130" s="8">
         <v>137</v>
@@ -8873,19 +8900,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F131" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G131" s="8">
         <v>138</v>
@@ -8917,19 +8944,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F132" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G132" s="8">
         <v>139</v>
@@ -8961,19 +8988,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F133" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G133" s="8">
         <v>140</v>
@@ -9005,19 +9032,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F134" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G134" s="8">
         <v>141</v>
@@ -9049,19 +9076,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F135" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G135" s="8">
         <v>142</v>
@@ -9093,19 +9120,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F136" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G136" s="8">
         <v>143</v>
@@ -9137,19 +9164,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F137" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G137" s="8">
         <v>144</v>
@@ -9181,19 +9208,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F138" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G138" s="8">
         <v>145</v>
@@ -9225,19 +9252,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F139" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G139" s="8">
         <v>146</v>
@@ -9269,19 +9296,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F140" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G140" s="8">
         <v>147</v>
@@ -9313,19 +9340,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F141" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G141" s="8">
         <v>148</v>
@@ -9357,19 +9384,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F142" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G142" s="8">
         <v>149</v>
@@ -9401,19 +9428,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F143" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G143" s="8">
         <v>150</v>
@@ -9445,19 +9472,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F144" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G144" s="8">
         <v>151</v>
@@ -9489,19 +9516,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F145" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G145" s="8">
         <v>152</v>
@@ -9533,19 +9560,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F146" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G146" s="8">
         <v>153</v>
@@ -9577,19 +9604,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F147" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G147" s="8">
         <v>154</v>
@@ -9621,19 +9648,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F148" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G148" s="8">
         <v>155</v>
@@ -9665,19 +9692,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F149" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G149" s="8">
         <v>156</v>
@@ -9709,19 +9736,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F150" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G150" s="8">
         <v>157</v>
@@ -9753,19 +9780,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F151" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G151" s="8">
         <v>158</v>
@@ -9797,19 +9824,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F152" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G152" s="8">
         <v>159</v>
@@ -9841,19 +9868,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F153" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G153" s="8">
         <v>160</v>
@@ -9885,19 +9912,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F154" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G154" s="8">
         <v>161</v>
@@ -9929,19 +9956,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F155" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G155" s="8">
         <v>162</v>
@@ -9973,19 +10000,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F156" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G156" s="8">
         <v>163</v>
@@ -10017,19 +10044,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F157" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G157" s="8">
         <v>164</v>
@@ -10053,6 +10080,94 @@
         <v>0</v>
       </c>
       <c r="N157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>477</v>
+      </c>
+      <c r="C158" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" t="s">
+        <v>477</v>
+      </c>
+      <c r="E158" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="F158" t="s">
+        <v>516</v>
+      </c>
+      <c r="G158" s="8">
+        <v>165</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" t="s">
+        <v>478</v>
+      </c>
+      <c r="D159" t="s">
+        <v>478</v>
+      </c>
+      <c r="E159" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F159" t="s">
+        <v>517</v>
+      </c>
+      <c r="G159" s="8">
+        <v>166</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
+        <v>0</v>
+      </c>
+      <c r="N159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10065,10 +10180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10575,13 +10690,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>23</v>
@@ -10594,13 +10709,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>22</v>
@@ -10611,13 +10726,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>23</v>
@@ -10630,13 +10745,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>23</v>
@@ -10649,13 +10764,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>23</v>
@@ -10668,13 +10783,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>23</v>
@@ -10687,13 +10802,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>23</v>
@@ -10706,13 +10821,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>23</v>
@@ -10725,13 +10840,13 @@
         <v>11</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>23</v>
@@ -10739,54 +10854,58 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="4" t="s">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10794,16 +10913,16 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10811,14 +10930,14 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>161</v>
+      <c r="B43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>23</v>
@@ -10829,13 +10948,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>23</v>
@@ -10846,13 +10965,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>23</v>
@@ -10863,13 +10982,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>23</v>
@@ -10879,14 +10998,14 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" t="s">
-        <v>183</v>
+      <c r="B47" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
@@ -10896,14 +11015,14 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>188</v>
+      <c r="B48" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>23</v>
@@ -10913,65 +11032,65 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>192</v>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>195</v>
+      <c r="B50" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>209</v>
+      <c r="B51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>210</v>
+      <c r="B52" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>22</v>
@@ -10982,13 +11101,13 @@
         <v>11</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>22</v>
@@ -10999,13 +11118,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>22</v>
@@ -11016,13 +11135,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>22</v>
@@ -11032,14 +11151,14 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>232</v>
+      <c r="B56" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>22</v>
@@ -11050,13 +11169,13 @@
         <v>11</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>237</v>
+        <v>522</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>22</v>
@@ -11066,14 +11185,14 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>238</v>
+      <c r="B58" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>22</v>
@@ -11084,13 +11203,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>22</v>
@@ -11100,14 +11219,14 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" t="s">
-        <v>315</v>
+      <c r="B60" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -11118,13 +11237,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>243</v>
+        <v>525</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -11134,14 +11253,14 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="44" t="s">
-        <v>535</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>245</v>
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>314</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -11151,14 +11270,14 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
-        <v>354</v>
-      </c>
-      <c r="C63" t="s">
-        <v>354</v>
-      </c>
-      <c r="E63" t="s">
-        <v>354</v>
+      <c r="B63" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -11168,14 +11287,14 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E64" t="s">
-        <v>355</v>
+      <c r="B64" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -11186,13 +11305,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -11203,13 +11322,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -11220,13 +11339,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -11237,13 +11356,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -11254,13 +11373,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -11271,13 +11390,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -11288,13 +11407,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -11305,13 +11424,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E72" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -11322,13 +11441,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -11339,16 +11458,16 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11356,16 +11475,16 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E75" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11373,13 +11492,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>23</v>
@@ -11390,16 +11509,16 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11407,16 +11526,16 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E78" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11424,16 +11543,16 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11441,16 +11560,16 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11458,13 +11577,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>23</v>
@@ -11474,34 +11593,34 @@
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>212</v>
+      <c r="B82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+      <c r="E82" t="s">
+        <v>391</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>213</v>
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>392</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11509,13 +11628,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>22</v>
@@ -11526,13 +11645,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>22</v>
@@ -11543,13 +11662,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>22</v>
@@ -11560,13 +11679,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -11576,14 +11695,14 @@
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" t="s">
-        <v>533</v>
-      </c>
-      <c r="C88" t="s">
-        <v>533</v>
-      </c>
-      <c r="E88" t="s">
-        <v>247</v>
+      <c r="B88" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -11593,14 +11712,14 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-      <c r="E89" t="s">
-        <v>252</v>
+      <c r="B89" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -11611,13 +11730,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -11628,13 +11747,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>22</v>
@@ -11645,13 +11764,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>22</v>
@@ -11662,13 +11781,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E93" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
@@ -11679,13 +11798,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>22</v>
@@ -11696,13 +11815,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -11713,13 +11832,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -11730,13 +11849,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E97" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -11747,13 +11866,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -11764,13 +11883,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -11781,16 +11900,16 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11798,16 +11917,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11815,16 +11934,16 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11832,16 +11951,16 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11849,13 +11968,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -11866,13 +11985,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -11883,13 +12002,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -11900,13 +12019,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -11917,13 +12036,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -11934,13 +12053,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -11951,13 +12070,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -11968,13 +12087,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -11985,13 +12104,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -12002,13 +12121,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -12019,13 +12138,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -12036,13 +12155,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -12053,13 +12172,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -12070,13 +12189,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -12087,13 +12206,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -12104,13 +12223,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -12121,13 +12240,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -12138,13 +12257,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -12155,13 +12274,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -12172,13 +12291,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -12189,13 +12308,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -12206,13 +12325,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -12223,13 +12342,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -12240,13 +12359,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -12257,13 +12376,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -12274,13 +12393,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -12291,13 +12410,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -12308,13 +12427,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -12325,13 +12444,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -12342,13 +12461,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -12359,13 +12478,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -12376,13 +12495,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -12393,13 +12512,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -12410,13 +12529,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -12427,13 +12546,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -12444,13 +12563,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -12461,13 +12580,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -12478,13 +12597,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -12495,13 +12614,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -12512,13 +12631,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -12529,13 +12648,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -12546,13 +12665,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -12563,13 +12682,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -12580,13 +12699,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -12597,13 +12716,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -12614,13 +12733,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -12631,13 +12750,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -12648,13 +12767,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -12665,13 +12784,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -12682,13 +12801,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -12699,13 +12818,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -12716,13 +12835,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -12733,13 +12852,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -12750,15 +12869,49 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F157" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>477</v>
+      </c>
+      <c r="C158" t="s">
+        <v>477</v>
+      </c>
+      <c r="E158" t="s">
+        <v>477</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" t="s">
+        <v>478</v>
+      </c>
+      <c r="E159" t="s">
+        <v>478</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1758,12 +1758,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2095,66 +2102,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3182,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,19 +4531,19 @@
       <c r="I31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>102</v>
+      <c r="J31" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12" t="b">
+        <v>12</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10182,8 +10190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10792,7 +10800,7 @@
         <v>549</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1727,9 +1727,6 @@
     <t>JD_ACC_RISTRUT_2</t>
   </si>
   <si>
-    <t>31-JD_ACC_RISTRUT_2</t>
-  </si>
-  <si>
     <t>32-JD_CONCOR_RICH_2</t>
   </si>
   <si>
@@ -1752,18 +1749,28 @@
   </si>
   <si>
     <t>35-JD_REATI_GRAVI_FAM</t>
+  </si>
+  <si>
+    <t>31-Covenant non rispettato e non sanato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2102,66 +2109,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3190,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,8 +4615,8 @@
       <c r="E33" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>560</v>
+      <c r="F33" s="54" t="s">
+        <v>568</v>
       </c>
       <c r="G33" s="8">
         <v>40</v>
@@ -4652,7 +4660,7 @@
         <v>543</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G34" s="8">
         <v>41</v>
@@ -4684,19 +4692,19 @@
         <v>11</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G35" s="8">
         <v>42</v>
@@ -4728,19 +4736,19 @@
         <v>11</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G36" s="8">
         <v>43</v>
@@ -5400,7 +5408,7 @@
         <v>190</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G51" s="8">
         <v>58</v>
@@ -10190,7 +10198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -10867,13 +10875,13 @@
         <v>11</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>23</v>
@@ -10886,13 +10894,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="578">
   <si>
     <t>Variable</t>
   </si>
@@ -1752,6 +1752,33 @@
   </si>
   <si>
     <t>31-Covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>IND_81</t>
+  </si>
+  <si>
+    <t>IND_82</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>81 - DM_Color_EDF</t>
+  </si>
+  <si>
+    <t>82 - DM_Color_CDS</t>
+  </si>
+  <si>
+    <t>83 - DM_Color_BOND</t>
+  </si>
+  <si>
+    <t>DM_Color_EDF</t>
+  </si>
+  <si>
+    <t>DM_Color_CDS</t>
+  </si>
+  <si>
+    <t>DM_Color_BOND</t>
   </si>
 </sst>
 </file>
@@ -3196,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="G70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6847,20 +6874,20 @@
       <c r="A84" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>224</v>
+      <c r="B84" t="s">
+        <v>575</v>
+      </c>
+      <c r="C84" t="s">
+        <v>575</v>
+      </c>
+      <c r="D84" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="F84" t="s">
+        <v>572</v>
       </c>
       <c r="G84" s="8">
         <v>91</v>
@@ -6872,10 +6899,10 @@
         <v>12</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -6891,20 +6918,20 @@
       <c r="A85" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>225</v>
+      <c r="B85" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>576</v>
+      </c>
+      <c r="D85" t="s">
+        <v>576</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="F85" t="s">
+        <v>573</v>
       </c>
       <c r="G85" s="8">
         <v>92</v>
@@ -6916,10 +6943,10 @@
         <v>12</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -6935,20 +6962,20 @@
       <c r="A86" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>226</v>
+      <c r="B86" t="s">
+        <v>577</v>
+      </c>
+      <c r="C86" t="s">
+        <v>577</v>
+      </c>
+      <c r="D86" t="s">
+        <v>577</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="F86" t="s">
+        <v>574</v>
       </c>
       <c r="G86" s="8">
         <v>93</v>
@@ -6960,10 +6987,10 @@
         <v>12</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -6980,19 +7007,19 @@
         <v>11</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G87" s="8">
         <v>94</v>
@@ -7024,19 +7051,19 @@
         <v>11</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G88" s="8">
         <v>95</v>
@@ -7068,19 +7095,19 @@
         <v>11</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G89" s="8">
         <v>96</v>
@@ -7111,20 +7138,20 @@
       <c r="A90" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B90" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" t="s">
-        <v>246</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>247</v>
+      <c r="B90" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="G90" s="8">
         <v>97</v>
@@ -7155,20 +7182,20 @@
       <c r="A91" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>251</v>
-      </c>
-      <c r="D91" t="s">
-        <v>251</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F91" t="s">
-        <v>254</v>
+      <c r="B91" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="G91" s="8">
         <v>98</v>
@@ -7199,20 +7226,20 @@
       <c r="A92" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F92" t="s">
-        <v>255</v>
+      <c r="B92" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="G92" s="8">
         <v>99</v>
@@ -7244,19 +7271,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G93" s="8">
         <v>100</v>
@@ -7288,19 +7315,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F94" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G94" s="8">
         <v>101</v>
@@ -7332,19 +7359,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F95" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G95" s="8">
         <v>102</v>
@@ -7376,19 +7403,19 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="G96" s="8">
         <v>103</v>
@@ -7420,19 +7447,19 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="G97" s="8">
         <v>104</v>
@@ -7464,19 +7491,19 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F98" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="G98" s="8">
         <v>105</v>
@@ -7508,19 +7535,19 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G99" s="8">
         <v>106</v>
@@ -7552,19 +7579,19 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F100" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G100" s="8">
         <v>107</v>
@@ -7596,19 +7623,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F101" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G101" s="8">
         <v>108</v>
@@ -7640,19 +7667,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F102" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G102" s="8">
         <v>109</v>
@@ -7664,10 +7691,10 @@
         <v>12</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -7684,19 +7711,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G103" s="8">
         <v>110</v>
@@ -7708,10 +7735,10 @@
         <v>12</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -7728,19 +7755,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F104" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G104" s="8">
         <v>111</v>
@@ -7772,19 +7799,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F105" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G105" s="8">
         <v>112</v>
@@ -7796,10 +7823,10 @@
         <v>12</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -7816,19 +7843,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F106" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G106" s="8">
         <v>113</v>
@@ -7840,10 +7867,10 @@
         <v>12</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -7860,19 +7887,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F107" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G107" s="8">
         <v>114</v>
@@ -7904,19 +7931,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G108" s="8">
         <v>115</v>
@@ -7948,19 +7975,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F109" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G109" s="8">
         <v>116</v>
@@ -7992,19 +8019,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F110" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G110" s="8">
         <v>117</v>
@@ -8036,19 +8063,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F111" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G111" s="8">
         <v>118</v>
@@ -8080,19 +8107,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G112" s="8">
         <v>119</v>
@@ -8124,19 +8151,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F113" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G113" s="8">
         <v>120</v>
@@ -8168,19 +8195,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F114" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G114" s="8">
         <v>121</v>
@@ -8212,19 +8239,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F115" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G115" s="8">
         <v>122</v>
@@ -8256,19 +8283,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F116" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G116" s="8">
         <v>123</v>
@@ -8300,19 +8327,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F117" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G117" s="8">
         <v>124</v>
@@ -8344,19 +8371,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F118" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G118" s="8">
         <v>125</v>
@@ -8388,19 +8415,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F119" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G119" s="8">
         <v>126</v>
@@ -8432,19 +8459,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F120" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G120" s="8">
         <v>127</v>
@@ -8476,19 +8503,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="D121" t="s">
-        <v>440</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>401</v>
+        <v>311</v>
+      </c>
+      <c r="E121" s="35" t="s">
+        <v>281</v>
       </c>
       <c r="F121" t="s">
-        <v>479</v>
+        <v>337</v>
       </c>
       <c r="G121" s="8">
         <v>128</v>
@@ -8520,19 +8547,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>441</v>
-      </c>
-      <c r="E122" s="43" t="s">
-        <v>402</v>
+        <v>312</v>
+      </c>
+      <c r="E122" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="F122" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="G122" s="8">
         <v>129</v>
@@ -8564,19 +8591,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>403</v>
+        <v>313</v>
+      </c>
+      <c r="E123" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="F123" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="G123" s="8">
         <v>130</v>
@@ -8608,19 +8635,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F124" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G124" s="8">
         <v>131</v>
@@ -8652,19 +8679,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F125" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G125" s="8">
         <v>132</v>
@@ -8696,19 +8723,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F126" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G126" s="8">
         <v>133</v>
@@ -8740,19 +8767,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G127" s="8">
         <v>134</v>
@@ -8784,19 +8811,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G128" s="8">
         <v>135</v>
@@ -8828,19 +8855,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G129" s="8">
         <v>136</v>
@@ -8872,19 +8899,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F130" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G130" s="8">
         <v>137</v>
@@ -8916,19 +8943,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F131" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G131" s="8">
         <v>138</v>
@@ -8960,19 +8987,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F132" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G132" s="8">
         <v>139</v>
@@ -9004,19 +9031,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F133" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G133" s="8">
         <v>140</v>
@@ -9048,19 +9075,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F134" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G134" s="8">
         <v>141</v>
@@ -9092,19 +9119,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F135" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G135" s="8">
         <v>142</v>
@@ -9136,19 +9163,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F136" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G136" s="8">
         <v>143</v>
@@ -9180,19 +9207,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F137" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G137" s="8">
         <v>144</v>
@@ -9224,19 +9251,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F138" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G138" s="8">
         <v>145</v>
@@ -9268,19 +9295,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F139" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G139" s="8">
         <v>146</v>
@@ -9312,19 +9339,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F140" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G140" s="8">
         <v>147</v>
@@ -9356,19 +9383,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F141" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G141" s="8">
         <v>148</v>
@@ -9400,19 +9427,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F142" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G142" s="8">
         <v>149</v>
@@ -9444,19 +9471,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F143" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G143" s="8">
         <v>150</v>
@@ -9488,19 +9515,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F144" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G144" s="8">
         <v>151</v>
@@ -9532,19 +9559,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F145" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G145" s="8">
         <v>152</v>
@@ -9576,19 +9603,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F146" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G146" s="8">
         <v>153</v>
@@ -9620,19 +9647,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F147" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G147" s="8">
         <v>154</v>
@@ -9664,19 +9691,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F148" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G148" s="8">
         <v>155</v>
@@ -9708,19 +9735,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F149" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G149" s="8">
         <v>156</v>
@@ -9752,19 +9779,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F150" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G150" s="8">
         <v>157</v>
@@ -9796,19 +9823,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F151" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G151" s="8">
         <v>158</v>
@@ -9840,19 +9867,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F152" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G152" s="8">
         <v>159</v>
@@ -9884,19 +9911,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F153" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G153" s="8">
         <v>160</v>
@@ -9928,19 +9955,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F154" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G154" s="8">
         <v>161</v>
@@ -9972,19 +9999,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F155" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G155" s="8">
         <v>162</v>
@@ -10016,19 +10043,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F156" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G156" s="8">
         <v>163</v>
@@ -10060,19 +10087,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F157" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G157" s="8">
         <v>164</v>
@@ -10104,19 +10131,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F158" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G158" s="8">
         <v>165</v>
@@ -10148,19 +10175,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C159" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D159" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F159" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G159" s="8">
         <v>166</v>
@@ -10184,6 +10211,138 @@
         <v>0</v>
       </c>
       <c r="N159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A160" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" t="s">
+        <v>476</v>
+      </c>
+      <c r="D160" t="s">
+        <v>476</v>
+      </c>
+      <c r="E160" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="F160" t="s">
+        <v>515</v>
+      </c>
+      <c r="G160" s="8">
+        <v>167</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A161" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>477</v>
+      </c>
+      <c r="D161" t="s">
+        <v>477</v>
+      </c>
+      <c r="E161" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="F161" t="s">
+        <v>516</v>
+      </c>
+      <c r="G161" s="8">
+        <v>168</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
+        <v>0</v>
+      </c>
+      <c r="N161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A162" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" t="s">
+        <v>478</v>
+      </c>
+      <c r="D162" t="s">
+        <v>478</v>
+      </c>
+      <c r="E162" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F162" t="s">
+        <v>517</v>
+      </c>
+      <c r="G162" s="8">
+        <v>169</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10196,10 +10355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11643,51 +11802,51 @@
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>211</v>
+      <c r="B84" t="s">
+        <v>575</v>
+      </c>
+      <c r="C84" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" t="s">
+        <v>575</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>212</v>
+      <c r="B85" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>576</v>
+      </c>
+      <c r="E85" t="s">
+        <v>576</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>213</v>
+      <c r="B86" t="s">
+        <v>577</v>
+      </c>
+      <c r="C86" t="s">
+        <v>577</v>
+      </c>
+      <c r="E86" t="s">
+        <v>577</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11695,13 +11854,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -11712,13 +11871,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -11729,13 +11888,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -11745,14 +11904,14 @@
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" t="s">
-        <v>532</v>
-      </c>
-      <c r="C90" t="s">
-        <v>532</v>
-      </c>
-      <c r="E90" t="s">
-        <v>246</v>
+      <c r="B90" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -11762,14 +11921,14 @@
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>251</v>
-      </c>
-      <c r="E91" t="s">
-        <v>251</v>
+      <c r="B91" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>22</v>
@@ -11779,14 +11938,14 @@
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E92" t="s">
-        <v>252</v>
+      <c r="B92" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>22</v>
@@ -11797,13 +11956,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
@@ -11814,13 +11973,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>22</v>
@@ -11831,13 +11990,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -11848,13 +12007,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -11865,13 +12024,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -11882,13 +12041,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E98" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -11899,13 +12058,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -11916,13 +12075,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -11933,13 +12092,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -11950,16 +12109,16 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11967,16 +12126,16 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11984,13 +12143,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -12001,16 +12160,16 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12018,16 +12177,16 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12035,13 +12194,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -12052,13 +12211,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -12069,13 +12228,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -12086,13 +12245,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -12103,13 +12262,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -12120,13 +12279,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -12137,13 +12296,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -12154,13 +12313,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -12171,13 +12330,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -12188,13 +12347,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E116" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -12205,13 +12364,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -12222,13 +12381,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -12239,13 +12398,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -12256,13 +12415,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -12273,13 +12432,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="E121" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -12290,13 +12449,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="E122" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -12307,13 +12466,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="E123" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -12324,13 +12483,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -12341,13 +12500,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -12358,13 +12517,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -12375,13 +12534,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -12392,13 +12551,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E128" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -12409,13 +12568,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -12426,13 +12585,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -12443,13 +12602,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E131" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -12460,13 +12619,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -12477,13 +12636,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E133" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -12494,13 +12653,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E134" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -12511,13 +12670,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -12528,13 +12687,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -12545,13 +12704,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E137" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -12562,13 +12721,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -12579,13 +12738,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E139" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -12596,13 +12755,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -12613,13 +12772,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -12630,13 +12789,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -12647,13 +12806,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E143" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -12664,13 +12823,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -12681,13 +12840,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -12698,13 +12857,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -12715,13 +12874,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -12732,13 +12891,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E148" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -12749,13 +12908,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -12766,13 +12925,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -12783,13 +12942,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E151" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -12800,13 +12959,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E152" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -12817,13 +12976,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E153" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -12834,13 +12993,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E154" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -12851,13 +13010,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -12868,13 +13027,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E156" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -12885,13 +13044,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -12902,13 +13061,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -12919,15 +13078,66 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" t="s">
+        <v>475</v>
+      </c>
+      <c r="E159" t="s">
+        <v>475</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" t="s">
+        <v>476</v>
+      </c>
+      <c r="E160" t="s">
+        <v>476</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>477</v>
+      </c>
+      <c r="E161" t="s">
+        <v>477</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
         <v>478</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>478</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E162" t="s">
         <v>478</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F162" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -2297,7 +2297,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>77075</xdr:rowOff>
+      <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2355,7 +2355,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>77075</xdr:rowOff>
+      <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2413,7 +2413,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>77075</xdr:rowOff>
+      <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2471,7 +2471,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>77075</xdr:rowOff>
+      <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2529,7 +2529,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>77075</xdr:rowOff>
+      <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2586,8 +2586,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,28 +3311,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G3" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>102</v>
@@ -3354,29 +3354,29 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>43</v>
+      <c r="B4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="G4" s="8">
+        <v>46</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>102</v>
@@ -3385,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -3399,22 +3399,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
@@ -3423,16 +3423,16 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -3442,35 +3442,35 @@
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="8">
         <v>47</v>
       </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -3479,30 +3479,30 @@
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -3511,10 +3511,10 @@
         <v>12</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -3531,22 +3531,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>12</v>
@@ -3555,54 +3555,54 @@
         <v>12</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="8">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -3619,22 +3619,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>12</v>
@@ -3643,10 +3643,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
@@ -3687,10 +3687,10 @@
         <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -3751,22 +3751,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G13" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>12</v>
@@ -3795,22 +3795,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="G14" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
@@ -3882,23 +3882,23 @@
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>181</v>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G16" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
@@ -3907,10 +3907,10 @@
         <v>12</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -3922,27 +3922,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>112</v>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>147</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
@@ -3950,131 +3950,131 @@
       <c r="I17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>139</v>
+      <c r="B18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="G18" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>102</v>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="8">
         <v>13</v>
       </c>
-      <c r="L18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="8">
-        <v>26</v>
-      </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>116</v>
+      <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="G20" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
@@ -4082,19 +4082,19 @@
       <c r="I20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12" t="b">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4103,22 +4103,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>142</v>
+        <v>130</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="G21" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
@@ -4147,28 +4147,28 @@
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="G22" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>12</v>
+      <c r="I22" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>102</v>
@@ -4191,22 +4191,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G23" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
@@ -4235,22 +4235,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G24" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
@@ -4278,23 +4278,23 @@
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>121</v>
+      <c r="B25" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G25" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
@@ -4322,23 +4322,23 @@
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>535</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>551</v>
+      <c r="B26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="G26" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
@@ -4366,23 +4366,23 @@
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>545</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>552</v>
+      <c r="B27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="G27" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
@@ -4390,19 +4390,19 @@
       <c r="I27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>103</v>
+      <c r="J27" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="b">
+        <v>13</v>
+      </c>
+      <c r="L27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4410,23 +4410,23 @@
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>546</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>537</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>553</v>
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="G28" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
@@ -4454,23 +4454,23 @@
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>547</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>554</v>
+      <c r="B29" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="G29" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
@@ -4498,23 +4498,23 @@
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>548</v>
+      <c r="B30" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>544</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G30" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
@@ -4542,23 +4542,23 @@
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>549</v>
+      <c r="B31" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>545</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>549</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>540</v>
+        <v>545</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>536</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G31" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
@@ -4566,7 +4566,7 @@
       <c r="I31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="7" t="s">
         <v>103</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -4586,23 +4586,23 @@
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>550</v>
+      <c r="B32" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>546</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>550</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>541</v>
+        <v>546</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>537</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G32" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
@@ -4630,23 +4630,23 @@
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>559</v>
+      <c r="B33" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>568</v>
+        <v>547</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>554</v>
       </c>
       <c r="G33" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
@@ -4674,23 +4674,23 @@
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>560</v>
+      <c r="B34" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>555</v>
       </c>
       <c r="G34" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
@@ -4718,23 +4718,23 @@
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>563</v>
+      <c r="B35" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>549</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>566</v>
+        <v>540</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>556</v>
       </c>
       <c r="G35" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>12</v>
@@ -4742,17 +4742,17 @@
       <c r="I35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>102</v>
+      <c r="J35" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -4762,23 +4762,23 @@
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>564</v>
+      <c r="B36" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>550</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>567</v>
+        <v>541</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>557</v>
       </c>
       <c r="G36" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>12</v>
@@ -4786,87 +4786,87 @@
       <c r="I36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="11" t="s">
         <v>102</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>42</v>
+      <c r="B37" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>568</v>
       </c>
       <c r="G37" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>102</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>81</v>
+      <c r="B38" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>560</v>
       </c>
       <c r="G38" s="8">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>12</v>
@@ -4874,58 +4874,58 @@
       <c r="I38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>103</v>
+      <c r="J38" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="N38" t="b">
+        <v>13</v>
+      </c>
+      <c r="L38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>104</v>
+      <c r="A39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>565</v>
       </c>
       <c r="G39" s="8">
-        <v>46</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="22" t="s">
         <v>13</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -4934,27 +4934,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" t="s">
-        <v>110</v>
+      <c r="B40" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>566</v>
       </c>
       <c r="G40" s="8">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>12</v>
@@ -4962,11 +4962,11 @@
       <c r="I40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
+      <c r="J40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -4975,30 +4975,30 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>152</v>
+      <c r="B41" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>567</v>
       </c>
       <c r="G41" s="8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>12</v>
@@ -5027,22 +5027,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>12</v>
@@ -5070,23 +5070,23 @@
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>158</v>
+      <c r="B43" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G43" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>12</v>
@@ -5114,23 +5114,23 @@
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>170</v>
+      <c r="B44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G44" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>12</v>
@@ -5154,27 +5154,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>12</v>
@@ -5198,27 +5198,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>12</v>
@@ -5247,22 +5247,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G47" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>12</v>
@@ -5291,22 +5291,22 @@
         <v>11</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>12</v>
@@ -5334,23 +5334,23 @@
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>184</v>
+      <c r="B49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="G49" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
@@ -5361,7 +5361,7 @@
       <c r="J49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L49" t="b">
@@ -5375,34 +5375,34 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>187</v>
+      <c r="A50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="G50" s="8">
-        <v>57</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K50" s="22" t="s">
@@ -5422,23 +5422,23 @@
       <c r="A51" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>565</v>
+      <c r="B51" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="G51" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>12</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="721">
   <si>
     <t>Variable</t>
   </si>
@@ -1779,18 +1779,500 @@
   </si>
   <si>
     <t>DM_Color_BOND</t>
+  </si>
+  <si>
+    <t>IND_36</t>
+  </si>
+  <si>
+    <t>36-Avvio procedura concorsuale con soglie</t>
+  </si>
+  <si>
+    <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
+  </si>
+  <si>
+    <t>L’indicatore si calcola considerando l’ultimo rating valido per la controparte in oggetto delle valutazioni.
+Per ogni singolo SNDG viene quindi riportato per l’indicatore il valore assunto nel campo “Rating” nell’ultimo Time Stamp disponibile.</t>
+  </si>
+  <si>
+    <t>Indicazione dello stato di Default (CRR Default)</t>
+  </si>
+  <si>
+    <t>L'indicatore "Delta Equity" si calcola tramite la variazione percentuale del patrimonio netto nel corso del periodo in esame ( [T2 ; T1] ), ovvero si considera il rapporto dei seguenti due termini:
+Numeratore: (Patrimonio_Netto_T1 - Patrimonio_Netto_T2)
+Denominatore: Patrimonio_Netto_T2</t>
+  </si>
+  <si>
+    <t>Per la controparte oggetto delle valutazioni, l'indicatore "Delta Turnover" si calcola tramite la variazione percentuale del fatturato nel corso del periodo in esame  ( [T2 ; T1] ), ovvero si considera il rapporto dei seguenti due termini: 
+Numeratore: MAX(fatturato T1, valore della produzione T1) - MAX(fatturato T2, valore della produzione T2)
+Denominatore: MAX(fatturato T2, valore della produzione T2)</t>
+  </si>
+  <si>
+    <t>Per la controparte oggetto delle valutazioni, l'indicatore "Debt Service Coverage Ratio" si calcola considerando il current debt service coverage ratio come rapporto dei seguenti due termini:
+Numeratore: (Utile o perdita +Ammortamenti+Accantonamenti + Oneri finanziari)
+Denominatore:  (Debiti finanziari a BT + (Debiti finanziari MLT / 3.5) - Liquidità + Oneri finanziari)</t>
+  </si>
+  <si>
+    <t>For each SNDG, the value associated to the Indicatore depends on the last updated “ST-SEGNALAZ” value. The Indicator is “true” (value 1), if the “ST-SEGNALAZ” field is valued as "N" or “C”.</t>
+  </si>
+  <si>
+    <t>The Indicator is “true” (value 1), if:
+- the "SAG Status" field is valued as “IF” - "probable default forborne" 
+- or if the SNDG has at least one Forborne status in “Forborne” and the “CRR Default” Indicatore (Ref. Section 4.2.2 Indicatore 2: "CRR Default”) is True (Value 1)</t>
+  </si>
+  <si>
+    <t>Il campo assume valore 1, se si verificano i due casi: 
+- presenza di almeno un evento pregiudizievole di procedura concorsuale su una controparte direttamente collegata alla controparte oggetto di analisi in mappa dei gruppi (restano pertanto esclusi i collegamenti indiretti).
+- presenza di almeno un evento pregiudizievole sulla Holding di un gruppo economico, caso questo che implica il verificarsi dell’evento su tutte le subconsolidate del gruppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore deve essere valutato a livello di controparte considerando l'importo dello sconfino da acquisirsi giornalmente da procedura XRA.
+Il valore di sconfino da considerare è il numero di giorni consecutivi di Sconfino superiore a soglia. </t>
+  </si>
+  <si>
+    <t>Protesto di cambiali o di assegni, con particolare riferimento a quello d'iniziativa della banca (IRIS FATAL).
+Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
+  </si>
+  <si>
+    <t>Proposta di sistemazione delle esposizioni mediante soluzione a saldo e stralcio .
+Il campo assume valore 1, se l’SNDG ha una Delibera di tipo Saldo e Stralcio (valori T2 e T3) in stato Confermato (CO)</t>
+  </si>
+  <si>
+    <t>Inadempimenti rispetto agli obblighi di puntuale ed integrale pagamento relativamente ai titoli di debito emessi, siano essi quotati che non.
+Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
+  </si>
+  <si>
+    <t>Avvio di una procedura concorsuale per il debitore, nel caso di valorizzazione di uno degli eventi pregiuzievoli:
+- Amministrazione straordinaria
+- Concordato preventivo
+- Fallimento
+- Liquidazione coatta amministrativa</t>
+  </si>
+  <si>
+    <t>Gravi fenomeni gestione personale (specificare in modo accurato l'ambito di riferimento, che dovrà essere limitato a situazioni di gravità estrema, quali:  licenziamento collettivo/mobilità, Cassa Integrazione Straordinaria)</t>
+  </si>
+  <si>
+    <t>Decanalizzazione ed emissione di portafoglio comodo o abusivo</t>
+  </si>
+  <si>
+    <t>Protesto cambiale o assegni d'iniziativa nostra Banca e banche terze</t>
+  </si>
+  <si>
+    <t>coinvolgimento del debitore, degli esponenti dell'impresa o anche dei soci (qualora trattasi di persone giuridiche) in reati gravi (reati contro la PA, reati di stampo mafioso, reati contro il patrimonio, reati contro la fede pubblica, o reati fallimentari, societari, finanziari e tributari) forieri di pesanti conseguenze economiche e giudiziali.</t>
+  </si>
+  <si>
+    <t>Notizia di richiesta ammissione ad una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Deposito/Pubblicazione di accordo ristrutturazione con intento liquidatorio ai sensi dell'art. 182/bis</t>
+  </si>
+  <si>
+    <t>Inadempimento rispetto agli obblighi di puntuale ed integrale pagamento relativamente ai titoli di debito quotati</t>
+  </si>
+  <si>
+    <t>Debiti scaduti di importo significativo nei confronti di Enti pubblici (emissione di cartelle esattoriali di importo significativo)</t>
+  </si>
+  <si>
+    <t>Avvio di procedura concorsuale per una società del gruppo</t>
+  </si>
+  <si>
+    <t>ISDA Credit Event declared</t>
+  </si>
+  <si>
+    <t>L'indicatore riporta il valore massimo assunto nei precedenti 12 mesi dalla variabile 5Y CDS Spread (presente nel flusso GDI aggiornato con frequenza mensile).</t>
+  </si>
+  <si>
+    <t>Indicazione della presenza di past due verso l'amministrazione pubblica</t>
+  </si>
+  <si>
+    <t>Indicazione di Collateral Value in decremento</t>
+  </si>
+  <si>
+    <t>Indicazione di futuri flussi di cassa in decremento</t>
+  </si>
+  <si>
+    <t>In presenza di un COVENANT ROTTI NON ANCORA SANATI, quindi in stato di situazione non risolta, l'indicatore assume, in caso di mancata delibera di autorizzazione, il valore in giorni della distanza tra la data di calcolo (SYSDATE) e la la data di rottura del covenant.</t>
+  </si>
+  <si>
+    <t>Indicazione della sospensione di un bond trade per difficoltà finanziarie</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza di un covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza della notizia pregiudizievole di protesto emesso da altre banche del sistema</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza della notizia pregiudizievole di "Incrocio assegni bancari"</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza della notizia pregiudizievole di coinvolgimento dei familiari stretti del debitore in reati gravi (reati contro la PA, reati di stampo mafioso, reati contro il patrimonio, reati contro la fede pubblica, o reati fallimentari, societari, finanziari e tributari) forieri di pesanti conseguenze economiche e giudiziali.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato da sistema autoliquidante  e la media trimestrale dell'accordato da sistema autoliquidante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato da sistema a revoca e la media trimestrale dell'accordato da sistema a revoca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato da sistema a scadenza e la media trimestrale dell'accordato da sistema a scadenza </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato totale per cassa a breve termine da sistema e il fatturato</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale del valore dei derivati da sistema e la media trimestrale dell'accordato totale da sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato autoliquidante e la media trimestrale dell'accordato autoliquidante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato a revoca e la media trimestrale dell'accordato a revoca </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la media trimestrale dell'accordato a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato totale per cassa a breve termine e il fatturato</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale del valore dei derivati e la media trimestrale dell'accordato totale</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di sconfino, sotto o sopra soglia di materialità, negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Rapporto fra  l'importo dello sconfino mensile del Cliente sotto o sopra soglia di materialità e l'importo dell'accordato operativo mensile</t>
+  </si>
+  <si>
+    <t>Rapporto fra l’importo totale anticipato delle fatture risultanti scadute a fine mese da più di 60 giorni e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto antexport e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese per il prodotto antexport</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto finimport e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese per il prodotto finimport</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma degli insoluti nel trimestre precedente e la somma degli scaduti nel trimestre precedente</t>
+  </si>
+  <si>
+    <t>Rapporto fra l’importo totale anticipato delle fatture risultanti scadute a fine mese e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma mensile degli utilizzi e la somma mensile degli importi iniziali accordati</t>
+  </si>
+  <si>
+    <t>Numero mesi di preammortamento scaduto per il finanziamento con data accensione più vecchia rilevato nel mese</t>
+  </si>
+  <si>
+    <t>Rating implicito nelle quotazioni dei corsi azionari della società</t>
+  </si>
+  <si>
+    <t>Rating implicito nelle quotazioni dei corsi obbligazionari della società</t>
+  </si>
+  <si>
+    <t>Rating implicito nelle quotazioni dei prezzi dei CDS Spread contro il default della società</t>
+  </si>
+  <si>
+    <t>Media trimestrale Indicatore Distance to Default - Large Corporate</t>
+  </si>
+  <si>
+    <t>Rating della controparte ricalcolato applicando alle variabili in input delle correzioni per riflettere una possibile situazione di stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In presenza di almeno una notizia pregiudizievole, l'indicatore restituisce un codice di colore in funzione della gravità della stessa. </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato per cassa da sistema e la  media trimestrale dell'accordato per cassa da sistema</t>
+  </si>
+  <si>
+    <t>Trend andamento TUR su trimestre
+ NUMERATORE:  rapporto fra l'utilizzato da sistema a revoca e l'accordato da sistema a revoca, entrambi relativi all'ultimo mese;
+DENOMINATORE:  rapporto fra la media trimestrale dell'utilizzato da sistema a revoca e la media trimestrale dell'accordato da sistema a revoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato da sistema autoliquidante valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato da sistema autoliquidante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato da sistema a scadenza valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato da sistema a scadenza </t>
+  </si>
+  <si>
+    <t>Rapporto fra l'utilizzato da sistema a revoca valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato da sistema a revoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato per cassa da sistema  valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato per cassa da sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato per cassa e la  media trimestrale dell'accordato per cassa </t>
+  </si>
+  <si>
+    <t>Trend andamento TUR su trimestre
+ NUMERATORE:  rapporto fra l'utilizzato a revoca e l'accordato a revoca, entrambi relativi all'ultimo mese;
+DENOMINATORE:  rapporto fra la media trimestrale dell'utilizzato a revoca e la media trimestrale dell'accordato a revoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato autoliquidante valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato autoliquidante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato a scadenza valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato a scadenza </t>
+  </si>
+  <si>
+    <t>Rapporto fra l'utilizzato a revoca valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato a revoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'utilizzato per cassa valutato nell'ultimo mese e la media, calcolata sugli ultimi 3 mesi, dell'utilizzato per cassa </t>
+  </si>
+  <si>
+    <t>Importo sconfino inferiore a 90 giorni con superamento della soglia di materialità</t>
+  </si>
+  <si>
+    <t>Giorni di sconfinamento continuativo nel tempo del Cliente calcolati senza soglia di materialità</t>
+  </si>
+  <si>
+    <t>Giorni di sconfinamento continuativo nel tempo del Cliente con superamento della soglia di materialità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importo sconfino mensile del Cliente sopra soglia di materialità </t>
+  </si>
+  <si>
+    <t>Importo sconfino mensile del Cliente , sotto o sopra soglia, di materialità</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di sconfino sopra soglia negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Presenza  di almeno uno sconfino sopra soglia negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Presenza  di almeno uno sconfino,  sotto o sopra soglia, negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Media trimestrale degli sconfini sopra soglia valutata considerando i missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale degli sconfini, sotto o sopra soglia, valutata considerando i missing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale degli sconfini sopra soglia valutata escludendo i missing </t>
+  </si>
+  <si>
+    <t>Media trimestrale degli sconfini, sotto o sopra soglia, valutata escludendo i missing</t>
+  </si>
+  <si>
+    <t>Importo massimo di sconfino sopra soglia valutato negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Importo massimo di sconfino, sotto o sopra soglia, valutato negli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale degli sconfini sopra soglia valutata escludendo i missing e la media trimestrale degli accordati operativi valutata considerando i missing</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale degli sconfini , sotto o sopra soglia, valutata escludendo i missing e la media trimestrale degli accordati operativi valutata considerando i missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale degli sconfini sopra soglia valutata considerando i missing e la media trimestrale degli accordati operativi valutata considerando i missing </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale degli sconfini , sotto o sopra soglia, valutata considerando i missing e la media trimestrale degli accordati operativi valutata considerando i missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra l'importo massimo di sconfino sopra soglia valutato negli ultimi 3 mesi e la media trimestrale degli accordati operativi valutata considerando i missing  </t>
+  </si>
+  <si>
+    <t>Rapporto fra l'importo massimo di sconfino , sotto o sopra soglia, valutato negli ultimi 3 mesi e la media trimestrale degli accordati operativi valutata considerando i missing</t>
+  </si>
+  <si>
+    <t>Rapporto fra l'importo dello sconfino mensile del Cliente sopra soglia di materialità e l'importo dell'accordato operativo mensile</t>
+  </si>
+  <si>
+    <t>Importo dello sconfino inferiore a 90 giorni sotto soglia di materialità</t>
+  </si>
+  <si>
+    <t>Rapporto fra l'importo sconfino mensile del Cliente , sotto o sopra soglia, di materialità e il fatturato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale degli sconfini , sotto o sopra soglia, valutata considerando i missing e il fatturato  </t>
+  </si>
+  <si>
+    <t>Rapporto fra l'importo massimo di sconfino , sotto o sopra soglia, valutato negli ultimi 3 mesi e il fatturato</t>
+  </si>
+  <si>
+    <t>Somma importo mensile facciale delle fatture presentate</t>
+  </si>
+  <si>
+    <t>Somma importo mensile anticipato delle fatture presentate</t>
+  </si>
+  <si>
+    <t>Massimo importo mensile facciale delle fatture presentate, calcolato sugli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Massimo importo mensile anticipato delle fatture presentate, calcolato sugli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Media trimestrale dell'importo mensile facciale delle fatture presentate</t>
+  </si>
+  <si>
+    <t>Media trimestrale dell'importo mensile anticipato delle fatture presentate</t>
+  </si>
+  <si>
+    <t>Numero massimo di fatture anticipate e scadute, calcolato sugli ultimi 3 mesi</t>
+  </si>
+  <si>
+    <t>Media trimestrale arrotondata all'intero del numero totale di fatture presentate</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma importo mensile facciale delle fatture presentate e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma importo mensile anticipato delle fatture presentate e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra il massimo importo mensile facciale delle fatture presentate e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra il massimo importo mensile anticipato delle fatture presentate e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell’importo mensile facciale delle fatture anticipate e scadute e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'importo mensile anticipato delle fatture presentate e il fatturato della controparte presentante</t>
+  </si>
+  <si>
+    <t>Somma importo mensile facciale di fatture scadute, a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Somma importo mensile anticipato di fatture scadute, a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Massimo importo mensile facciale, calcolato sugli ultimi 3 mesi, di fatture scadute e a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Media trimestrale dell'importo mensile facciale di fatture scadute, a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Massimo importo mensile anticipato, calcolato sugli ultimi 3 mesi, di fatture scadute e a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Media trimestrale dell'importo mensile anticipato di fatture scadute, a carico di un soggetto che risulta essere a sua volta presentante di fatture scadute</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma importo mensile facciale delle fatture presentate e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma importo mensile anticipato delle fatture presentate e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Rapporto fra il massimo importo mensile facciale delle fatture presentate, calcolato sugli ultimi 3 mesi, e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Rapporto fra il massimo importo mensile anticipato delle fatture presentate, calcolato sugli ultimi 3 mesi, e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'importo mensile facciale delle fatture anticipate e scadute e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'importo mensile anticipato delle fatture presentate e il MOL (Margine Operativo Lordo)</t>
+  </si>
+  <si>
+    <t>Numero massimo di fatture risultanti scadute, calcolato sugli ultimi 3 mesi, a carico di un soggetto che risulta essere a sua volta presentante</t>
+  </si>
+  <si>
+    <t>Media trimestrale arrotondata all'intero del numero totale di fatture scadute e a carico di un soggetto che risulta essere a sua volta presentante</t>
+  </si>
+  <si>
+    <t>Rapporto fra l’importo totale anticipato delle fatture risultanti scadute a fine mese e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto per il prodotto antexport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 60 giorni per il prodotto antexport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto per il prodotto antexport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto antexport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto da più di 60 giorni per il prodotto antexport e l'accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto per il prodotto finimport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 60 giorni per il prodotto finimport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto per il prodotto finimport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto finimport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Media trimestrale del rapporto fra la quota totale di scaduto da più di 60 giorni per il prodotto finimport e l’accordato mensile per cassa a breve termine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segnalazione a sofferenze nella Centrale dei Rischi, se di importi congrui (IRIS FATAL). 
+Per la controparte oggetto delle valutazioni, per calcolare tale indicatore devono essere considerate le sofferenze su altri istituti del Sistema in ambito segnalazione centrale rischi. 
+L’indicatore è il rapporto tra (importo a sofferenza SISTEMA – importo a sofferenza GRUPPO ISP) e MAX(accordato operativo totale, utilizzato totale) </t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo ricavata dal bilancio consolidato o dal MOL.</t>
+  </si>
+  <si>
+    <t>Il colore del modulo "Dati di Mercato" è dato dal SECONDO peggiore tra i semafori di categoria calcolati per EQUITY, CDS e BOND a seconda dei valori assunti dagli indicatori EDF_ImpliedRating, Bond_ImpliedRating e CDS_ImpliedRating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2093,6 +2575,26 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2125,7 +2627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2133,43 +2635,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2177,27 +2701,83 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,8 +2876,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88981</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2354,8 +2934,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88981</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2412,8 +2992,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88981</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2470,8 +3050,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88981</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2528,8 +3108,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2561910</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88981</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2635,7 +3215,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>178393</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2693,7 +3273,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>178393</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2751,7 +3331,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>178393</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2809,7 +3389,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>178393</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2867,7 +3447,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>178393</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3223,16 +3803,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="58" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
@@ -3250,7 +3831,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3272,7 +3853,7 @@
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3316,7 +3897,7 @@
       <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="61" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3326,7 +3907,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="8">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -3360,7 +3941,7 @@
       <c r="C4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="62" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -3370,7 +3951,7 @@
         <v>104</v>
       </c>
       <c r="G4" s="8">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
@@ -3404,7 +3985,7 @@
       <c r="C5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="63" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -3414,7 +3995,7 @@
         <v>81</v>
       </c>
       <c r="G5" s="8">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
@@ -3448,7 +4029,7 @@
       <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="64" t="s">
         <v>108</v>
       </c>
       <c r="E6" t="s">
@@ -3458,7 +4039,7 @@
         <v>110</v>
       </c>
       <c r="G6" s="8">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>12</v>
@@ -3482,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -3492,8 +4073,8 @@
       <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
+      <c r="D7" s="65" t="s">
+        <v>581</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
@@ -3502,7 +4083,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -3536,8 +4117,8 @@
       <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>52</v>
+      <c r="D8" s="59" t="s">
+        <v>582</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>87</v>
@@ -3546,7 +4127,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>12</v>
@@ -3580,8 +4161,8 @@
       <c r="C9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
+      <c r="D9" s="59" t="s">
+        <v>583</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>88</v>
@@ -3590,7 +4171,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>12</v>
@@ -3614,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3624,8 +4205,8 @@
       <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>54</v>
+      <c r="D10" s="66" t="s">
+        <v>584</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>89</v>
@@ -3634,7 +4215,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>12</v>
@@ -3658,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3668,8 +4249,8 @@
       <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
+      <c r="D11" s="66" t="s">
+        <v>585</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>90</v>
@@ -3678,7 +4259,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
@@ -3702,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3712,8 +4293,8 @@
       <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
+      <c r="D12" s="66" t="s">
+        <v>586</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>91</v>
@@ -3722,7 +4303,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>12</v>
@@ -3746,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3756,8 +4337,8 @@
       <c r="C13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
+      <c r="D13" s="66" t="s">
+        <v>587</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>92</v>
@@ -3766,7 +4347,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>12</v>
@@ -3790,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -3800,8 +4381,8 @@
       <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
+      <c r="D14" s="66" t="s">
+        <v>588</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>93</v>
@@ -3810,7 +4391,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
@@ -3834,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -3844,8 +4425,8 @@
       <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
+      <c r="D15" s="66" t="s">
+        <v>589</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>94</v>
@@ -3854,7 +4435,7 @@
         <v>86</v>
       </c>
       <c r="G15" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
@@ -3878,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3888,8 +4469,8 @@
       <c r="C16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>60</v>
+      <c r="D16" s="66" t="s">
+        <v>590</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -3898,7 +4479,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
@@ -3922,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -3932,8 +4513,8 @@
       <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>61</v>
+      <c r="D17" s="66" t="s">
+        <v>591</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3942,7 +4523,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
@@ -3966,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -3976,8 +4557,8 @@
       <c r="C18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>63</v>
+      <c r="D18" s="67" t="s">
+        <v>718</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>180</v>
@@ -3986,7 +4567,7 @@
         <v>181</v>
       </c>
       <c r="G18" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
@@ -4010,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -4020,8 +4601,8 @@
       <c r="C19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
+      <c r="D19" s="66" t="s">
+        <v>592</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>99</v>
@@ -4030,7 +4611,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
@@ -4054,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -4064,8 +4645,8 @@
       <c r="C20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
+      <c r="D20" s="66" t="s">
+        <v>593</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -4074,7 +4655,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
@@ -4108,8 +4689,8 @@
       <c r="C21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>112</v>
+      <c r="D21" s="66" t="s">
+        <v>594</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>130</v>
@@ -4118,7 +4699,7 @@
         <v>147</v>
       </c>
       <c r="G21" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
@@ -4152,8 +4733,8 @@
       <c r="C22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>114</v>
+      <c r="D22" s="66" t="s">
+        <v>596</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>131</v>
@@ -4162,7 +4743,7 @@
         <v>139</v>
       </c>
       <c r="G22" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
@@ -4196,8 +4777,8 @@
       <c r="C23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>115</v>
+      <c r="D23" s="59" t="s">
+        <v>595</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>132</v>
@@ -4206,7 +4787,7 @@
         <v>140</v>
       </c>
       <c r="G23" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
@@ -4240,8 +4821,8 @@
       <c r="C24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>116</v>
+      <c r="D24" s="59" t="s">
+        <v>597</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>133</v>
@@ -4250,7 +4831,7 @@
         <v>141</v>
       </c>
       <c r="G24" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
@@ -4284,8 +4865,8 @@
       <c r="C25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>117</v>
+      <c r="D25" s="59" t="s">
+        <v>598</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>134</v>
@@ -4294,7 +4875,7 @@
         <v>142</v>
       </c>
       <c r="G25" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
@@ -4328,8 +4909,8 @@
       <c r="C26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>118</v>
+      <c r="D26" s="59" t="s">
+        <v>599</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>135</v>
@@ -4338,7 +4919,7 @@
         <v>143</v>
       </c>
       <c r="G26" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
@@ -4372,8 +4953,8 @@
       <c r="C27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>119</v>
+      <c r="D27" s="59" t="s">
+        <v>600</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>136</v>
@@ -4382,7 +4963,7 @@
         <v>144</v>
       </c>
       <c r="G27" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
@@ -4416,8 +4997,8 @@
       <c r="C28" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>120</v>
+      <c r="D28" s="59" t="s">
+        <v>601</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>137</v>
@@ -4426,7 +5007,7 @@
         <v>145</v>
       </c>
       <c r="G28" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
@@ -4460,8 +5041,8 @@
       <c r="C29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>121</v>
+      <c r="D29" s="66" t="s">
+        <v>602</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>138</v>
@@ -4470,7 +5051,7 @@
         <v>146</v>
       </c>
       <c r="G29" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
@@ -4504,8 +5085,8 @@
       <c r="C30" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>544</v>
+      <c r="D30" s="66" t="s">
+        <v>603</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>535</v>
@@ -4514,7 +5095,7 @@
         <v>551</v>
       </c>
       <c r="G30" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
@@ -4548,8 +5129,8 @@
       <c r="C31" s="45" t="s">
         <v>545</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>545</v>
+      <c r="D31" s="59" t="s">
+        <v>604</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>536</v>
@@ -4558,7 +5139,7 @@
         <v>552</v>
       </c>
       <c r="G31" s="8">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
@@ -4592,8 +5173,8 @@
       <c r="C32" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>546</v>
+      <c r="D32" s="59" t="s">
+        <v>605</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>537</v>
@@ -4602,7 +5183,7 @@
         <v>553</v>
       </c>
       <c r="G32" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
@@ -4636,17 +5217,17 @@
       <c r="C33" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D33" s="49" t="s">
-        <v>547</v>
+      <c r="D33" s="59" t="s">
+        <v>606</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="60" t="s">
         <v>554</v>
       </c>
       <c r="G33" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
@@ -4680,8 +5261,8 @@
       <c r="C34" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>548</v>
+      <c r="D34" s="59" t="s">
+        <v>607</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>539</v>
@@ -4690,7 +5271,7 @@
         <v>555</v>
       </c>
       <c r="G34" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
@@ -4724,8 +5305,8 @@
       <c r="C35" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>549</v>
+      <c r="D35" s="59" t="s">
+        <v>608</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>540</v>
@@ -4734,7 +5315,7 @@
         <v>556</v>
       </c>
       <c r="G35" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>12</v>
@@ -4768,8 +5349,8 @@
       <c r="C36" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>550</v>
+      <c r="D36" s="59" t="s">
+        <v>609</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>541</v>
@@ -4778,7 +5359,7 @@
         <v>557</v>
       </c>
       <c r="G36" s="8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>12</v>
@@ -4812,8 +5393,8 @@
       <c r="C37" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="D37" s="49" t="s">
-        <v>559</v>
+      <c r="D37" s="68" t="s">
+        <v>610</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>542</v>
@@ -4822,7 +5403,7 @@
         <v>568</v>
       </c>
       <c r="G37" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>12</v>
@@ -4856,8 +5437,8 @@
       <c r="C38" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>558</v>
+      <c r="D38" s="68" t="s">
+        <v>598</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>543</v>
@@ -4866,7 +5447,7 @@
         <v>560</v>
       </c>
       <c r="G38" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>12</v>
@@ -4890,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>11</v>
       </c>
@@ -4900,8 +5481,8 @@
       <c r="C39" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>191</v>
+      <c r="D39" s="59" t="s">
+        <v>611</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>190</v>
@@ -4910,7 +5491,7 @@
         <v>565</v>
       </c>
       <c r="G39" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>12</v>
@@ -4944,8 +5525,8 @@
       <c r="C40" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>563</v>
+      <c r="D40" s="59" t="s">
+        <v>612</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>561</v>
@@ -4954,7 +5535,7 @@
         <v>566</v>
       </c>
       <c r="G40" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>12</v>
@@ -4988,8 +5569,8 @@
       <c r="C41" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>564</v>
+      <c r="D41" s="59" t="s">
+        <v>613</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>562</v>
@@ -4998,7 +5579,7 @@
         <v>567</v>
       </c>
       <c r="G41" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>12</v>
@@ -5022,27 +5603,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>152</v>
+      <c r="B42" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>579</v>
       </c>
       <c r="G42" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>12</v>
@@ -5050,17 +5631,17 @@
       <c r="I42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>102</v>
+      <c r="J42" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -5071,22 +5652,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>12</v>
@@ -5114,23 +5695,23 @@
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>158</v>
+      <c r="B44" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G44" s="8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>12</v>
@@ -5158,23 +5739,23 @@
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>170</v>
+      <c r="B45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G45" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>12</v>
@@ -5198,27 +5779,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>160</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G46" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>12</v>
@@ -5242,27 +5823,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>161</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>12</v>
@@ -5291,22 +5872,22 @@
         <v>11</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>162</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>12</v>
@@ -5335,22 +5916,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>163</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
@@ -5378,23 +5959,23 @@
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>184</v>
+      <c r="B50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="G50" s="8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>12</v>
@@ -5405,7 +5986,7 @@
       <c r="J50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L50" t="b">
@@ -5419,34 +6000,34 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>187</v>
+      <c r="A51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="G51" s="8">
-        <v>57</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K51" s="22" t="s">
@@ -5466,35 +6047,35 @@
       <c r="A52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>195</v>
+      <c r="B52" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="G52" s="8">
-        <v>59</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -5510,23 +6091,23 @@
       <c r="A53" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>219</v>
+      <c r="B53" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="G53" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>12</v>
@@ -5555,22 +6136,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>614</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G54" s="8">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>12</v>
@@ -5599,22 +6180,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>615</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G55" s="8">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>12</v>
@@ -5643,22 +6224,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>616</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G56" s="8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>12</v>
@@ -5687,22 +6268,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>617</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G57" s="8">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>12</v>
@@ -5730,23 +6311,23 @@
       <c r="A58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>232</v>
+      <c r="B58" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="74" t="s">
+        <v>618</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="G58" s="8">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>12</v>
@@ -5774,23 +6355,23 @@
       <c r="A59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>236</v>
+      <c r="B59" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>619</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="G59" s="8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>12</v>
@@ -5819,22 +6400,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>620</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G60" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>12</v>
@@ -5863,22 +6444,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>621</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G61" s="8">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>12</v>
@@ -5906,23 +6487,23 @@
       <c r="A62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" t="s">
-        <v>314</v>
-      </c>
-      <c r="D62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="F62" t="s">
-        <v>340</v>
+      <c r="B62" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="G62" s="8">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>12</v>
@@ -5950,23 +6531,23 @@
       <c r="A63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>342</v>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" t="s">
+        <v>340</v>
       </c>
       <c r="G63" s="8">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>12</v>
@@ -5995,22 +6576,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>624</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G64" s="8">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>12</v>
@@ -6038,23 +6619,23 @@
       <c r="A65" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" t="s">
-        <v>353</v>
-      </c>
-      <c r="D65" t="s">
-        <v>353</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="F65" t="s">
-        <v>362</v>
+      <c r="B65" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>625</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="G65" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>12</v>
@@ -6083,22 +6664,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>626</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G66" s="8">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>12</v>
@@ -6127,22 +6708,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>627</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G67" s="8">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>12</v>
@@ -6171,22 +6752,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
-      </c>
-      <c r="D68" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>628</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G68" s="8">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>12</v>
@@ -6215,22 +6796,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
-      </c>
-      <c r="D69" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>629</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G69" s="8">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>12</v>
@@ -6259,22 +6840,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
-      </c>
-      <c r="D70" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>630</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G70" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>12</v>
@@ -6303,22 +6884,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
-      </c>
-      <c r="D71" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>631</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G71" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>12</v>
@@ -6347,22 +6928,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
-      </c>
-      <c r="D72" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>632</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G72" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>12</v>
@@ -6391,22 +6972,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
-      </c>
-      <c r="D73" t="s">
-        <v>361</v>
-      </c>
-      <c r="E73" s="42" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>351</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G73" s="8">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>12</v>
@@ -6435,22 +7016,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>373</v>
-      </c>
-      <c r="D74" t="s">
-        <v>373</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>627</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G74" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>12</v>
@@ -6479,22 +7060,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C75" t="s">
-        <v>374</v>
-      </c>
-      <c r="D75" t="s">
-        <v>374</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>371</v>
       </c>
       <c r="F75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G75" s="8">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>12</v>
@@ -6523,22 +7104,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
-      </c>
-      <c r="D76" t="s">
-        <v>385</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>635</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="F76" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="G76" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>12</v>
@@ -6547,10 +7128,10 @@
         <v>12</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -6567,22 +7148,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>386</v>
-      </c>
-      <c r="D77" t="s">
-        <v>386</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>378</v>
+        <v>385</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>636</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>377</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G77" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>12</v>
@@ -6611,22 +7192,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C78" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" t="s">
-        <v>387</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>379</v>
+        <v>386</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>637</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="F78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G78" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>12</v>
@@ -6655,22 +7236,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" t="s">
-        <v>388</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>380</v>
+        <v>387</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>638</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G79" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>12</v>
@@ -6679,10 +7260,10 @@
         <v>12</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -6699,22 +7280,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
-      </c>
-      <c r="D80" t="s">
-        <v>389</v>
-      </c>
-      <c r="E80" s="41" t="s">
-        <v>381</v>
+        <v>388</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="F80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G80" s="8">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>12</v>
@@ -6743,22 +7324,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>390</v>
-      </c>
-      <c r="D81" t="s">
-        <v>390</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>382</v>
+        <v>389</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>639</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>381</v>
       </c>
       <c r="F81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G81" s="8">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>12</v>
@@ -6767,10 +7348,10 @@
         <v>12</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -6787,22 +7368,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
-      </c>
-      <c r="D82" t="s">
-        <v>391</v>
-      </c>
-      <c r="E82" s="41" t="s">
-        <v>383</v>
+        <v>390</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>382</v>
       </c>
       <c r="F82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G82" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>12</v>
@@ -6831,22 +7412,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
-      </c>
-      <c r="D83" t="s">
-        <v>392</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>384</v>
+        <v>391</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>641</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>383</v>
       </c>
       <c r="F83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G83" s="8">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>12</v>
@@ -6875,22 +7456,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>575</v>
+        <v>392</v>
       </c>
       <c r="C84" t="s">
-        <v>575</v>
-      </c>
-      <c r="D84" t="s">
-        <v>575</v>
+        <v>392</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>720</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>569</v>
+        <v>384</v>
       </c>
       <c r="F84" t="s">
-        <v>572</v>
+        <v>400</v>
       </c>
       <c r="G84" s="8">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>12</v>
@@ -6919,22 +7500,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C85" t="s">
-        <v>576</v>
-      </c>
-      <c r="D85" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>575</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G85" s="8">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>12</v>
@@ -6963,22 +7544,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C86" t="s">
-        <v>577</v>
-      </c>
-      <c r="D86" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>576</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G86" s="8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>12</v>
@@ -7006,23 +7587,23 @@
       <c r="A87" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>224</v>
+      <c r="B87" t="s">
+        <v>577</v>
+      </c>
+      <c r="C87" t="s">
+        <v>577</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="F87" t="s">
+        <v>574</v>
       </c>
       <c r="G87" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>12</v>
@@ -7031,10 +7612,10 @@
         <v>12</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -7051,22 +7632,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="D88" s="74" t="s">
+        <v>642</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G88" s="8">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>12</v>
@@ -7095,22 +7676,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>643</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G89" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>12</v>
@@ -7139,22 +7720,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>644</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G90" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>12</v>
@@ -7183,22 +7764,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>645</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G91" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>12</v>
@@ -7227,22 +7808,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>646</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G92" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>12</v>
@@ -7270,23 +7851,23 @@
       <c r="A93" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B93" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" t="s">
-        <v>246</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>247</v>
+      <c r="B93" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="G93" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>12</v>
@@ -7315,22 +7896,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>648</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" t="s">
-        <v>254</v>
+        <v>245</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G94" s="8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>12</v>
@@ -7359,22 +7940,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
-      </c>
-      <c r="D95" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>649</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G95" s="8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>12</v>
@@ -7403,22 +7984,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>650</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G96" s="8">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>12</v>
@@ -7447,22 +8028,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
-      </c>
-      <c r="D97" t="s">
-        <v>285</v>
+        <v>253</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>651</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F97" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G97" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>12</v>
@@ -7491,22 +8072,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
-      </c>
-      <c r="D98" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>652</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G98" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>12</v>
@@ -7535,22 +8116,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>653</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F99" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="G99" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>12</v>
@@ -7579,22 +8160,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
-      </c>
-      <c r="D100" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>654</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G100" s="8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>12</v>
@@ -7623,22 +8204,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
-      </c>
-      <c r="D101" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>655</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G101" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>12</v>
@@ -7667,22 +8248,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>656</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G102" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>12</v>
@@ -7711,22 +8292,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
-      </c>
-      <c r="D103" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>657</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G103" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>12</v>
@@ -7755,22 +8336,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
-      </c>
-      <c r="D104" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>658</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G104" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>12</v>
@@ -7799,22 +8380,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
-      </c>
-      <c r="D105" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>659</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F105" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G105" s="8">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>12</v>
@@ -7823,10 +8404,10 @@
         <v>12</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -7843,22 +8424,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
-      </c>
-      <c r="D106" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>660</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G106" s="8">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>12</v>
@@ -7887,22 +8468,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D107" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>661</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G107" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>12</v>
@@ -7911,10 +8492,10 @@
         <v>12</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -7931,22 +8512,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D108" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G108" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>12</v>
@@ -7975,22 +8556,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
-      </c>
-      <c r="D109" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="D109" s="64" t="s">
+        <v>663</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G109" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>12</v>
@@ -8019,22 +8600,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
-        <v>300</v>
-      </c>
-      <c r="D110" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="D110" s="64" t="s">
+        <v>664</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G110" s="8">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>12</v>
@@ -8063,22 +8644,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>301</v>
-      </c>
-      <c r="D111" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="D111" s="64" t="s">
+        <v>665</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G111" s="8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>12</v>
@@ -8107,22 +8688,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
-        <v>302</v>
-      </c>
-      <c r="D112" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>666</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F112" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G112" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>12</v>
@@ -8151,22 +8732,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
-      </c>
-      <c r="D113" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>667</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G113" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>12</v>
@@ -8195,22 +8776,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
-        <v>304</v>
-      </c>
-      <c r="D114" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>668</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G114" s="8">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>12</v>
@@ -8239,22 +8820,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
-      </c>
-      <c r="D115" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>669</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G115" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>12</v>
@@ -8283,22 +8864,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
-      </c>
-      <c r="D116" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="D116" s="64" t="s">
+        <v>670</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G116" s="8">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>12</v>
@@ -8327,22 +8908,22 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
-        <v>307</v>
-      </c>
-      <c r="D117" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="D117" s="64" t="s">
+        <v>671</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G117" s="8">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>12</v>
@@ -8371,22 +8952,22 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
-      </c>
-      <c r="D118" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>672</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G118" s="8">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>12</v>
@@ -8415,22 +8996,22 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>309</v>
-      </c>
-      <c r="D119" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>673</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F119" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G119" s="8">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>12</v>
@@ -8459,22 +9040,22 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>310</v>
-      </c>
-      <c r="D120" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>674</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G120" s="8">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>12</v>
@@ -8503,22 +9084,22 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
-      </c>
-      <c r="D121" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>675</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F121" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G121" s="8">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>12</v>
@@ -8547,22 +9128,22 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
-      </c>
-      <c r="D122" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>676</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F122" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G122" s="8">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>12</v>
@@ -8591,22 +9172,22 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
-        <v>313</v>
-      </c>
-      <c r="D123" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>677</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G123" s="8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>12</v>
@@ -8635,22 +9216,22 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>440</v>
-      </c>
-      <c r="D124" t="s">
-        <v>440</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>401</v>
+        <v>313</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="F124" t="s">
-        <v>479</v>
+        <v>339</v>
       </c>
       <c r="G124" s="8">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>12</v>
@@ -8679,22 +9260,22 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
-      </c>
-      <c r="D125" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="D125" s="64" t="s">
+        <v>679</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F125" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G125" s="8">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>12</v>
@@ -8723,22 +9304,22 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
-      </c>
-      <c r="D126" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>680</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G126" s="8">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>12</v>
@@ -8767,22 +9348,22 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C127" t="s">
-        <v>443</v>
-      </c>
-      <c r="D127" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="D127" s="64" t="s">
+        <v>681</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F127" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G127" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>12</v>
@@ -8811,22 +9392,22 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C128" t="s">
-        <v>444</v>
-      </c>
-      <c r="D128" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="D128" s="64" t="s">
+        <v>682</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F128" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G128" s="8">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>12</v>
@@ -8855,22 +9436,22 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
-      </c>
-      <c r="D129" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="D129" s="64" t="s">
+        <v>683</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G129" s="8">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>12</v>
@@ -8899,22 +9480,22 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C130" t="s">
-        <v>446</v>
-      </c>
-      <c r="D130" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="D130" s="64" t="s">
+        <v>684</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G130" s="8">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>12</v>
@@ -8943,22 +9524,22 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C131" t="s">
-        <v>447</v>
-      </c>
-      <c r="D131" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="D131" s="64" t="s">
+        <v>685</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F131" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G131" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>12</v>
@@ -8987,22 +9568,22 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
-      </c>
-      <c r="D132" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>686</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G132" s="8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>12</v>
@@ -9031,22 +9612,22 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
-      </c>
-      <c r="D133" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>687</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F133" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G133" s="8">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>12</v>
@@ -9075,22 +9656,22 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
-      </c>
-      <c r="D134" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="D134" s="64" t="s">
+        <v>688</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G134" s="8">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>12</v>
@@ -9119,22 +9700,22 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
-      </c>
-      <c r="D135" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="D135" s="64" t="s">
+        <v>689</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F135" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G135" s="8">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>12</v>
@@ -9163,22 +9744,22 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
-      </c>
-      <c r="D136" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="D136" s="64" t="s">
+        <v>690</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F136" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G136" s="8">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>12</v>
@@ -9207,22 +9788,22 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C137" t="s">
-        <v>453</v>
-      </c>
-      <c r="D137" t="s">
-        <v>453</v>
+        <v>452</v>
+      </c>
+      <c r="D137" s="64" t="s">
+        <v>691</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F137" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G137" s="8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>12</v>
@@ -9251,22 +9832,22 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C138" t="s">
-        <v>454</v>
-      </c>
-      <c r="D138" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="D138" s="64" t="s">
+        <v>692</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G138" s="8">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>12</v>
@@ -9295,22 +9876,22 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>455</v>
-      </c>
-      <c r="D139" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="D139" s="64" t="s">
+        <v>693</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F139" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G139" s="8">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>12</v>
@@ -9339,22 +9920,22 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C140" t="s">
-        <v>456</v>
-      </c>
-      <c r="D140" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="D140" s="64" t="s">
+        <v>694</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F140" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G140" s="8">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>12</v>
@@ -9383,22 +9964,22 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C141" t="s">
-        <v>457</v>
-      </c>
-      <c r="D141" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="D141" s="64" t="s">
+        <v>695</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F141" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G141" s="8">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>12</v>
@@ -9427,22 +10008,22 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
-      </c>
-      <c r="D142" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="D142" s="64" t="s">
+        <v>696</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F142" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G142" s="8">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>12</v>
@@ -9471,22 +10052,22 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
-      </c>
-      <c r="D143" t="s">
-        <v>459</v>
+        <v>458</v>
+      </c>
+      <c r="D143" s="64" t="s">
+        <v>697</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F143" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G143" s="8">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>12</v>
@@ -9515,22 +10096,22 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
-      </c>
-      <c r="D144" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="D144" s="64" t="s">
+        <v>698</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G144" s="8">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>12</v>
@@ -9559,22 +10140,22 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C145" t="s">
-        <v>461</v>
-      </c>
-      <c r="D145" t="s">
-        <v>461</v>
+        <v>460</v>
+      </c>
+      <c r="D145" s="64" t="s">
+        <v>699</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G145" s="8">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>12</v>
@@ -9603,22 +10184,22 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C146" t="s">
-        <v>462</v>
-      </c>
-      <c r="D146" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+      <c r="D146" s="64" t="s">
+        <v>700</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G146" s="8">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>12</v>
@@ -9647,22 +10228,22 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C147" t="s">
-        <v>463</v>
-      </c>
-      <c r="D147" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="D147" s="64" t="s">
+        <v>701</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G147" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>12</v>
@@ -9691,22 +10272,22 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
-        <v>464</v>
-      </c>
-      <c r="D148" t="s">
-        <v>464</v>
+        <v>463</v>
+      </c>
+      <c r="D148" s="64" t="s">
+        <v>702</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F148" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G148" s="8">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>12</v>
@@ -9735,22 +10316,22 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C149" t="s">
-        <v>465</v>
-      </c>
-      <c r="D149" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="D149" s="64" t="s">
+        <v>703</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F149" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G149" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>12</v>
@@ -9779,22 +10360,22 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
-      </c>
-      <c r="D150" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="D150" s="64" t="s">
+        <v>704</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F150" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G150" s="8">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>12</v>
@@ -9823,22 +10404,22 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C151" t="s">
-        <v>467</v>
-      </c>
-      <c r="D151" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="D151" s="64" t="s">
+        <v>705</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F151" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G151" s="8">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>12</v>
@@ -9867,22 +10448,22 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C152" t="s">
-        <v>468</v>
-      </c>
-      <c r="D152" t="s">
-        <v>468</v>
+        <v>467</v>
+      </c>
+      <c r="D152" s="64" t="s">
+        <v>706</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F152" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G152" s="8">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>12</v>
@@ -9911,22 +10492,22 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C153" t="s">
-        <v>469</v>
-      </c>
-      <c r="D153" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="D153" s="64" t="s">
+        <v>707</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F153" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G153" s="8">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>12</v>
@@ -9955,22 +10536,22 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C154" t="s">
-        <v>470</v>
-      </c>
-      <c r="D154" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="D154" s="64" t="s">
+        <v>708</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F154" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G154" s="8">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>12</v>
@@ -9999,22 +10580,22 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C155" t="s">
-        <v>471</v>
-      </c>
-      <c r="D155" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="D155" s="64" t="s">
+        <v>709</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F155" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G155" s="8">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>12</v>
@@ -10043,22 +10624,22 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C156" t="s">
-        <v>472</v>
-      </c>
-      <c r="D156" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="D156" s="64" t="s">
+        <v>710</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F156" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G156" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>12</v>
@@ -10087,22 +10668,22 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
-      </c>
-      <c r="D157" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="D157" s="64" t="s">
+        <v>711</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F157" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G157" s="8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>12</v>
@@ -10131,22 +10712,22 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C158" t="s">
-        <v>474</v>
-      </c>
-      <c r="D158" t="s">
-        <v>474</v>
+        <v>473</v>
+      </c>
+      <c r="D158" s="64" t="s">
+        <v>712</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F158" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G158" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>12</v>
@@ -10175,22 +10756,22 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C159" t="s">
-        <v>475</v>
-      </c>
-      <c r="D159" t="s">
-        <v>475</v>
+        <v>474</v>
+      </c>
+      <c r="D159" s="64" t="s">
+        <v>713</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F159" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G159" s="8">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>12</v>
@@ -10219,22 +10800,22 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C160" t="s">
-        <v>476</v>
-      </c>
-      <c r="D160" t="s">
-        <v>476</v>
+        <v>475</v>
+      </c>
+      <c r="D160" s="64" t="s">
+        <v>714</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F160" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G160" s="8">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>12</v>
@@ -10263,22 +10844,22 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C161" t="s">
-        <v>477</v>
-      </c>
-      <c r="D161" t="s">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="D161" s="64" t="s">
+        <v>715</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F161" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G161" s="8">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>12</v>
@@ -10307,22 +10888,22 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
-      </c>
-      <c r="D162" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+      <c r="D162" s="64" t="s">
+        <v>716</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F162" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G162" s="8">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>12</v>
@@ -10343,6 +10924,50 @@
         <v>0</v>
       </c>
       <c r="N162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" t="s">
+        <v>478</v>
+      </c>
+      <c r="D163" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="E163" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F163" t="s">
+        <v>517</v>
+      </c>
+      <c r="G163" s="8">
+        <v>161</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10355,10 +10980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83:F86"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11067,35 +11692,37 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
@@ -11105,16 +11732,16 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11122,14 +11749,14 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>160</v>
+      <c r="B44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>23</v>
@@ -11140,13 +11767,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>23</v>
@@ -11157,13 +11784,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>23</v>
@@ -11174,13 +11801,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
@@ -11191,13 +11818,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>23</v>
@@ -11207,14 +11834,14 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>183</v>
+      <c r="B49" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>23</v>
@@ -11224,14 +11851,14 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>188</v>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>23</v>
@@ -11241,14 +11868,14 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>191</v>
+      <c r="B51" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
@@ -11258,31 +11885,31 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>194</v>
+      <c r="B52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>208</v>
+      <c r="B53" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>22</v>
@@ -11293,13 +11920,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>22</v>
@@ -11310,13 +11937,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>22</v>
@@ -11327,13 +11954,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>22</v>
@@ -11344,13 +11971,13 @@
         <v>11</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>22</v>
@@ -11360,14 +11987,14 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>231</v>
+      <c r="B58" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>22</v>
@@ -11377,14 +12004,14 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>236</v>
+      <c r="B59" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>22</v>
@@ -11395,13 +12022,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -11412,13 +12039,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -11428,14 +12055,14 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" t="s">
-        <v>314</v>
+      <c r="B62" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -11445,14 +12072,14 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>242</v>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" t="s">
+        <v>314</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -11463,13 +12090,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -11479,14 +12106,14 @@
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" t="s">
-        <v>353</v>
-      </c>
-      <c r="E65" t="s">
-        <v>353</v>
+      <c r="B65" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -11497,13 +12124,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -11514,13 +12141,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -11531,13 +12158,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -11548,13 +12175,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -11565,13 +12192,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -11582,13 +12209,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -11599,13 +12226,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -11616,13 +12243,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -11633,13 +12260,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -11650,13 +12277,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -11667,16 +12294,16 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E76" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11684,13 +12311,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>23</v>
@@ -11701,13 +12328,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>23</v>
@@ -11718,16 +12345,16 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11735,13 +12362,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -11752,16 +12379,16 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11769,13 +12396,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>23</v>
@@ -11786,13 +12413,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>23</v>
@@ -11803,13 +12430,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>575</v>
+        <v>392</v>
       </c>
       <c r="C84" t="s">
-        <v>575</v>
+        <v>392</v>
       </c>
       <c r="E84" t="s">
-        <v>575</v>
+        <v>392</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>23</v>
@@ -11820,13 +12447,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>23</v>
@@ -11837,13 +12464,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>23</v>
@@ -11853,17 +12480,17 @@
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C87" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>211</v>
+      <c r="B87" t="s">
+        <v>577</v>
+      </c>
+      <c r="C87" t="s">
+        <v>577</v>
+      </c>
+      <c r="E87" t="s">
+        <v>577</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -11871,13 +12498,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -11888,13 +12515,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -11905,13 +12532,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -11922,13 +12549,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>22</v>
@@ -11939,13 +12566,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>22</v>
@@ -11955,14 +12582,14 @@
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C93" t="s">
-        <v>532</v>
-      </c>
-      <c r="E93" t="s">
-        <v>246</v>
+      <c r="B93" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
@@ -11973,13 +12600,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>532</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>532</v>
       </c>
       <c r="E94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>22</v>
@@ -11990,13 +12617,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -12007,13 +12634,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -12024,13 +12651,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E97" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -12041,13 +12668,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -12058,13 +12685,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -12075,13 +12702,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -12092,13 +12719,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -12109,13 +12736,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E102" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -12126,13 +12753,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -12143,13 +12770,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -12160,16 +12787,16 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12177,13 +12804,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>23</v>
@@ -12194,16 +12821,16 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12211,13 +12838,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -12228,13 +12855,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -12245,13 +12872,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -12262,13 +12889,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -12279,13 +12906,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -12296,13 +12923,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -12313,13 +12940,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -12330,13 +12957,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -12347,13 +12974,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -12364,13 +12991,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -12381,13 +13008,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -12398,13 +13025,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -12415,13 +13042,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -12432,13 +13059,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -12449,13 +13076,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -12466,13 +13093,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -12483,13 +13110,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="E124" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -12500,13 +13127,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -12517,13 +13144,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -12534,13 +13161,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -12551,13 +13178,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -12568,13 +13195,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -12585,13 +13212,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -12602,13 +13229,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -12619,13 +13246,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -12636,13 +13263,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -12653,13 +13280,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -12670,13 +13297,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -12687,13 +13314,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -12704,13 +13331,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C137" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E137" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -12721,13 +13348,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -12738,13 +13365,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E139" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -12755,13 +13382,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -12772,13 +13399,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C141" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E141" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -12789,13 +13416,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -12806,13 +13433,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -12823,13 +13450,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -12840,13 +13467,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -12857,13 +13484,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -12874,13 +13501,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C147" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E147" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -12891,13 +13518,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -12908,13 +13535,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C149" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E149" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -12925,13 +13552,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E150" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -12942,13 +13569,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C151" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E151" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -12959,13 +13586,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -12976,13 +13603,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -12993,13 +13620,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C154" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E154" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -13010,13 +13637,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -13027,13 +13654,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -13044,13 +13671,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -13061,13 +13688,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -13078,13 +13705,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -13095,13 +13722,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -13112,13 +13739,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -13129,15 +13756,32 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" t="s">
+        <v>477</v>
+      </c>
+      <c r="E162" t="s">
+        <v>477</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
         <v>478</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>478</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E163" t="s">
         <v>478</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F163" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="733">
   <si>
     <t>Variable</t>
   </si>
@@ -2234,11 +2234,47 @@
   <si>
     <t>Il colore del modulo "Dati di Mercato" è dato dal SECONDO peggiore tra i semafori di categoria calcolati per EQUITY, CDS e BOND a seconda dei valori assunti dagli indicatori EDF_ImpliedRating, Bond_ImpliedRating e CDS_ImpliedRating</t>
   </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>500 - QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>501 - QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>503 - QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1_REAL</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2_REAL</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3_REAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2655,7 +2691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2778,6 +2814,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2875,7 +2918,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -2933,7 +2976,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -2991,7 +3034,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3049,7 +3092,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3107,7 +3150,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3616,6 +3659,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3651,6 +3711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3803,26 +3880,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="H137" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W144" sqref="W144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="1019" width="8.7109375"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -10971,6 +11050,132 @@
         <v>0</v>
       </c>
     </row>
+    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="78" t="s">
+        <v>721</v>
+      </c>
+      <c r="C164" s="78" t="s">
+        <v>721</v>
+      </c>
+      <c r="D164" s="80"/>
+      <c r="E164" s="78" t="s">
+        <v>724</v>
+      </c>
+      <c r="F164" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="G164" s="81">
+        <v>500</v>
+      </c>
+      <c r="H164" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K164" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" s="78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="78" t="s">
+        <v>722</v>
+      </c>
+      <c r="C165" s="78" t="s">
+        <v>722</v>
+      </c>
+      <c r="D165" s="80"/>
+      <c r="E165" s="78" t="s">
+        <v>725</v>
+      </c>
+      <c r="F165" s="78" t="s">
+        <v>728</v>
+      </c>
+      <c r="G165" s="81">
+        <v>501</v>
+      </c>
+      <c r="H165" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K165" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N165" s="78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="C166" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="D166" s="80"/>
+      <c r="E166" s="78" t="s">
+        <v>726</v>
+      </c>
+      <c r="F166" s="78" t="s">
+        <v>729</v>
+      </c>
+      <c r="G166" s="81">
+        <v>502</v>
+      </c>
+      <c r="H166" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K166" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L166" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" s="78" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -10980,10 +11185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13782,6 +13987,60 @@
         <v>478</v>
       </c>
       <c r="F163" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="78" t="s">
+        <v>730</v>
+      </c>
+      <c r="C164" s="78" t="s">
+        <v>730</v>
+      </c>
+      <c r="D164" s="78"/>
+      <c r="E164" s="78" t="s">
+        <v>721</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="78" t="s">
+        <v>731</v>
+      </c>
+      <c r="C165" s="78" t="s">
+        <v>731</v>
+      </c>
+      <c r="D165" s="78"/>
+      <c r="E165" s="78" t="s">
+        <v>722</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="78" t="s">
+        <v>732</v>
+      </c>
+      <c r="C166" s="78" t="s">
+        <v>732</v>
+      </c>
+      <c r="D166" s="78"/>
+      <c r="E166" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="749">
   <si>
     <t>Variable</t>
   </si>
@@ -2234,17 +2234,108 @@
   <si>
     <t>Il colore del modulo "Dati di Mercato" è dato dal SECONDO peggiore tra i semafori di categoria calcolati per EQUITY, CDS e BOND a seconda dei valori assunti dagli indicatori EDF_ImpliedRating, Bond_ImpliedRating e CDS_ImpliedRating</t>
   </si>
+  <si>
+    <t>IND_37</t>
+  </si>
+  <si>
+    <t>IND_38</t>
+  </si>
+  <si>
+    <t>IND_39</t>
+  </si>
+  <si>
+    <t>IND_40</t>
+  </si>
+  <si>
+    <t>IND_41</t>
+  </si>
+  <si>
+    <t>IND_42</t>
+  </si>
+  <si>
+    <t>IND_43</t>
+  </si>
+  <si>
+    <t>37 - Delta patrimonio netto</t>
+  </si>
+  <si>
+    <t>38 - Delta utile lordo</t>
+  </si>
+  <si>
+    <t>39 - Leverage patrimonio tangibile</t>
+  </si>
+  <si>
+    <t>40 - Patrimonio netto tempo t</t>
+  </si>
+  <si>
+    <t>41 - Utile lordo tempo t</t>
+  </si>
+  <si>
+    <t>42 - Rating interno</t>
+  </si>
+  <si>
+    <t>43 - Rating Fitch</t>
+  </si>
+  <si>
+    <t>Delta patrimonio netto</t>
+  </si>
+  <si>
+    <t>Delta utile lordo</t>
+  </si>
+  <si>
+    <t>Leverage patrimonio tangibile</t>
+  </si>
+  <si>
+    <t>Patrimonio netto tempo t</t>
+  </si>
+  <si>
+    <t>Utile lordo tempo t</t>
+  </si>
+  <si>
+    <t>Rating interno</t>
+  </si>
+  <si>
+    <t>Rating Fitch</t>
+  </si>
+  <si>
+    <t>FITCH_01</t>
+  </si>
+  <si>
+    <t>FITCH_02</t>
+  </si>
+  <si>
+    <t>FITCH_03</t>
+  </si>
+  <si>
+    <t>FITCH_04</t>
+  </si>
+  <si>
+    <t>FITCH_05</t>
+  </si>
+  <si>
+    <t>FITCH_06</t>
+  </si>
+  <si>
+    <t>FITCH_07</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2595,8 +2686,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,6 +2724,12 @@
         <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2651,98 +2755,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,16 +2853,22 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,12 +2883,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2875,7 +2988,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2490472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -2933,7 +3046,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2490472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -2991,7 +3104,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2490472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3049,7 +3162,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2490472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3107,7 +3220,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2561910</xdr:colOff>
+      <xdr:colOff>2490472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3214,8 +3327,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157226</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3272,8 +3385,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157226</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3330,8 +3443,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157226</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3388,8 +3501,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157226</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3446,8 +3559,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157226</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3803,15 +3916,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" style="58" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
@@ -5647,24 +5760,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>152</v>
+      <c r="B43" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>735</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>728</v>
       </c>
       <c r="G43" s="8">
         <v>41</v>
@@ -5675,40 +5788,40 @@
       <c r="I43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>102</v>
+      <c r="J43" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>153</v>
+      <c r="B44" s="78" t="s">
+        <v>743</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>743</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>736</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>729</v>
       </c>
       <c r="G44" s="8">
         <v>42</v>
@@ -5719,40 +5832,40 @@
       <c r="I44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>102</v>
+      <c r="J44" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>158</v>
+      <c r="B45" s="78" t="s">
+        <v>744</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>744</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>730</v>
       </c>
       <c r="G45" s="8">
         <v>43</v>
@@ -5763,40 +5876,40 @@
       <c r="I45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>102</v>
+      <c r="J45" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>170</v>
+      <c r="B46" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>731</v>
       </c>
       <c r="G46" s="8">
         <v>44</v>
@@ -5807,40 +5920,40 @@
       <c r="I46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>102</v>
+      <c r="J46" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>171</v>
+      <c r="B47" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>732</v>
       </c>
       <c r="G47" s="8">
         <v>45</v>
@@ -5851,40 +5964,40 @@
       <c r="I47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>102</v>
+      <c r="J47" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>172</v>
+      <c r="B48" s="78" t="s">
+        <v>747</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>747</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>733</v>
       </c>
       <c r="G48" s="8">
         <v>46</v>
@@ -5911,24 +6024,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>173</v>
+      <c r="B49" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>734</v>
       </c>
       <c r="G49" s="8">
         <v>47</v>
@@ -5939,17 +6052,17 @@
       <c r="I49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>102</v>
+      <c r="J49" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -5959,20 +6072,20 @@
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>174</v>
+      <c r="B50" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="G50" s="8">
         <v>48</v>
@@ -6003,20 +6116,20 @@
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>184</v>
+      <c r="B51" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G51" s="8">
         <v>49</v>
@@ -6030,7 +6143,7 @@
       <c r="J51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L51" t="b">
@@ -6044,37 +6157,37 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>187</v>
+      <c r="A52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G52" s="8">
         <v>50</v>
       </c>
-      <c r="H52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="22" t="s">
+      <c r="H52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L52" t="b">
@@ -6088,23 +6201,23 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>195</v>
+      <c r="A53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G53" s="8">
         <v>51</v>
@@ -6116,10 +6229,10 @@
         <v>12</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -6131,24 +6244,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="74" t="s">
-        <v>614</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>219</v>
+    <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="G54" s="8">
         <v>52</v>
@@ -6160,10 +6273,10 @@
         <v>12</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -6176,23 +6289,23 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>615</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>220</v>
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="G55" s="8">
         <v>53</v>
@@ -6204,10 +6317,10 @@
         <v>12</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -6220,23 +6333,23 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>616</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>221</v>
+      <c r="A56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="G56" s="8">
         <v>54</v>
@@ -6248,10 +6361,10 @@
         <v>12</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -6264,23 +6377,23 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="74" t="s">
-        <v>617</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>222</v>
+      <c r="A57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="G57" s="8">
         <v>55</v>
@@ -6292,10 +6405,10 @@
         <v>12</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -6308,23 +6421,23 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="74" t="s">
-        <v>618</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>223</v>
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="G58" s="8">
         <v>56</v>
@@ -6336,10 +6449,10 @@
         <v>12</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -6355,35 +6468,35 @@
       <c r="A59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="75" t="s">
-        <v>619</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>232</v>
+      <c r="B59" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="G59" s="8">
         <v>57</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>12</v>
+      <c r="H59" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -6399,20 +6512,20 @@
       <c r="A60" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>239</v>
+      <c r="B60" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="G60" s="8">
         <v>58</v>
@@ -6443,20 +6556,20 @@
       <c r="A61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" s="76" t="s">
-        <v>621</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>240</v>
+      <c r="B61" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>614</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G61" s="8">
         <v>59</v>
@@ -6487,20 +6600,20 @@
       <c r="A62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="76" t="s">
-        <v>622</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>241</v>
+      <c r="B62" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="G62" s="8">
         <v>60</v>
@@ -6531,20 +6644,20 @@
       <c r="A63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>623</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="F63" t="s">
-        <v>340</v>
+      <c r="B63" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>616</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="G63" s="8">
         <v>61</v>
@@ -6575,20 +6688,20 @@
       <c r="A64" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>624</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>342</v>
+      <c r="B64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="G64" s="8">
         <v>62</v>
@@ -6619,20 +6732,20 @@
       <c r="A65" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="77" t="s">
-        <v>625</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>343</v>
+      <c r="B65" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>618</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="G65" s="8">
         <v>63</v>
@@ -6663,20 +6776,20 @@
       <c r="A66" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="64" t="s">
-        <v>626</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="F66" t="s">
-        <v>362</v>
+      <c r="B66" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="G66" s="8">
         <v>64</v>
@@ -6707,20 +6820,20 @@
       <c r="A67" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
-        <v>354</v>
-      </c>
-      <c r="C67" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="64" t="s">
-        <v>627</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="F67" t="s">
-        <v>363</v>
+      <c r="B67" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="76" t="s">
+        <v>620</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="G67" s="8">
         <v>65</v>
@@ -6751,20 +6864,20 @@
       <c r="A68" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="64" t="s">
-        <v>628</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="F68" t="s">
-        <v>364</v>
+      <c r="B68" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="G68" s="8">
         <v>66</v>
@@ -6795,20 +6908,20 @@
       <c r="A69" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>629</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="F69" t="s">
-        <v>365</v>
+      <c r="B69" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="G69" s="8">
         <v>67</v>
@@ -6840,19 +6953,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>630</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>348</v>
+        <v>623</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="G70" s="8">
         <v>68</v>
@@ -6883,20 +6996,20 @@
       <c r="A71" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
-        <v>358</v>
-      </c>
-      <c r="C71" t="s">
-        <v>358</v>
-      </c>
-      <c r="D71" s="64" t="s">
-        <v>631</v>
-      </c>
-      <c r="E71" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71" t="s">
-        <v>367</v>
+      <c r="B71" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>624</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="G71" s="8">
         <v>69</v>
@@ -6927,20 +7040,20 @@
       <c r="A72" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" t="s">
-        <v>359</v>
-      </c>
-      <c r="D72" s="64" t="s">
-        <v>632</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="F72" t="s">
-        <v>368</v>
+      <c r="B72" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="77" t="s">
+        <v>625</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="G72" s="8">
         <v>70</v>
@@ -6972,19 +7085,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G73" s="8">
         <v>71</v>
@@ -7016,19 +7129,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D74" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="E74" s="42" t="s">
-        <v>352</v>
+      <c r="E74" s="41" t="s">
+        <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G74" s="8">
         <v>72</v>
@@ -7060,19 +7173,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G75" s="8">
         <v>73</v>
@@ -7104,19 +7217,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>635</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>372</v>
+        <v>629</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G76" s="8">
         <v>74</v>
@@ -7148,19 +7261,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="G77" s="8">
         <v>75</v>
@@ -7172,10 +7285,10 @@
         <v>12</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -7192,19 +7305,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C78" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>637</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>378</v>
+        <v>631</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>349</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="G78" s="8">
         <v>76</v>
@@ -7216,10 +7329,10 @@
         <v>12</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -7236,19 +7349,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C79" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G79" s="8">
         <v>77</v>
@@ -7260,10 +7373,10 @@
         <v>12</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -7280,19 +7393,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>380</v>
+        <v>633</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>351</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="G80" s="8">
         <v>78</v>
@@ -7324,19 +7437,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>639</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>381</v>
+        <v>627</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="F81" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="G81" s="8">
         <v>79</v>
@@ -7368,19 +7481,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>640</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>382</v>
+        <v>634</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>371</v>
       </c>
       <c r="F82" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="G82" s="8">
         <v>80</v>
@@ -7392,10 +7505,10 @@
         <v>12</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -7412,19 +7525,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>641</v>
-      </c>
-      <c r="E83" s="41" t="s">
-        <v>383</v>
+        <v>635</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="F83" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="G83" s="8">
         <v>81</v>
@@ -7436,10 +7549,10 @@
         <v>12</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -7456,19 +7569,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>720</v>
-      </c>
-      <c r="E84" s="42" t="s">
-        <v>384</v>
+        <v>636</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>377</v>
       </c>
       <c r="F84" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G84" s="8">
         <v>82</v>
@@ -7500,19 +7613,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>569</v>
+        <v>378</v>
       </c>
       <c r="F85" t="s">
-        <v>572</v>
+        <v>394</v>
       </c>
       <c r="G85" s="8">
         <v>83</v>
@@ -7544,19 +7657,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>570</v>
+        <v>638</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>395</v>
       </c>
       <c r="G86" s="8">
         <v>84</v>
@@ -7588,19 +7701,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="C87" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="D87" s="64" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>571</v>
+        <v>380</v>
       </c>
       <c r="F87" t="s">
-        <v>574</v>
+        <v>396</v>
       </c>
       <c r="G87" s="8">
         <v>85</v>
@@ -7612,10 +7725,10 @@
         <v>12</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -7631,20 +7744,20 @@
       <c r="A88" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" s="74" t="s">
-        <v>642</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>224</v>
+      <c r="B88" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" t="s">
+        <v>389</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>639</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="F88" t="s">
+        <v>397</v>
       </c>
       <c r="G88" s="8">
         <v>86</v>
@@ -7675,20 +7788,20 @@
       <c r="A89" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="74" t="s">
-        <v>643</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>225</v>
+      <c r="B89" t="s">
+        <v>390</v>
+      </c>
+      <c r="C89" t="s">
+        <v>390</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" t="s">
+        <v>398</v>
       </c>
       <c r="G89" s="8">
         <v>87</v>
@@ -7700,10 +7813,10 @@
         <v>12</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -7719,20 +7832,20 @@
       <c r="A90" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>226</v>
+      <c r="B90" t="s">
+        <v>391</v>
+      </c>
+      <c r="C90" t="s">
+        <v>391</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>641</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F90" t="s">
+        <v>399</v>
       </c>
       <c r="G90" s="8">
         <v>88</v>
@@ -7744,10 +7857,10 @@
         <v>12</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -7763,20 +7876,20 @@
       <c r="A91" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>227</v>
+      <c r="B91" t="s">
+        <v>392</v>
+      </c>
+      <c r="C91" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="F91" t="s">
+        <v>400</v>
       </c>
       <c r="G91" s="8">
         <v>89</v>
@@ -7788,10 +7901,10 @@
         <v>12</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -7807,20 +7920,20 @@
       <c r="A92" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D92" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>228</v>
+      <c r="B92" t="s">
+        <v>575</v>
+      </c>
+      <c r="C92" t="s">
+        <v>575</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="F92" t="s">
+        <v>572</v>
       </c>
       <c r="G92" s="8">
         <v>90</v>
@@ -7832,10 +7945,10 @@
         <v>12</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -7851,20 +7964,20 @@
       <c r="A93" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D93" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>229</v>
+      <c r="B93" t="s">
+        <v>576</v>
+      </c>
+      <c r="C93" t="s">
+        <v>576</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="F93" t="s">
+        <v>573</v>
       </c>
       <c r="G93" s="8">
         <v>91</v>
@@ -7876,10 +7989,10 @@
         <v>12</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -7896,19 +8009,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>577</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>577</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>648</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F94" s="36" t="s">
-        <v>247</v>
+        <v>577</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="F94" t="s">
+        <v>574</v>
       </c>
       <c r="G94" s="8">
         <v>92</v>
@@ -7920,10 +8033,10 @@
         <v>12</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -7939,20 +8052,20 @@
       <c r="A95" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" t="s">
-        <v>251</v>
-      </c>
-      <c r="D95" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F95" t="s">
-        <v>254</v>
+      <c r="B95" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="G95" s="8">
         <v>93</v>
@@ -7983,20 +8096,20 @@
       <c r="A96" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B96" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" t="s">
-        <v>252</v>
-      </c>
-      <c r="D96" s="64" t="s">
-        <v>650</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F96" t="s">
-        <v>255</v>
+      <c r="B96" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="G96" s="8">
         <v>94</v>
@@ -8027,20 +8140,20 @@
       <c r="A97" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B97" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" t="s">
-        <v>253</v>
-      </c>
-      <c r="D97" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F97" t="s">
-        <v>256</v>
+      <c r="B97" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="G97" s="8">
         <v>95</v>
@@ -8071,20 +8184,20 @@
       <c r="A98" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B98" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" s="64" t="s">
-        <v>652</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F98" t="s">
-        <v>287</v>
+      <c r="B98" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="G98" s="8">
         <v>96</v>
@@ -8115,20 +8228,20 @@
       <c r="A99" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B99" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" t="s">
-        <v>286</v>
-      </c>
-      <c r="D99" s="64" t="s">
-        <v>653</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F99" t="s">
-        <v>288</v>
+      <c r="B99" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="G99" s="8">
         <v>97</v>
@@ -8159,20 +8272,20 @@
       <c r="A100" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B100" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" t="s">
-        <v>292</v>
-      </c>
-      <c r="D100" s="64" t="s">
-        <v>654</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="F100" t="s">
-        <v>315</v>
+      <c r="B100" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="G100" s="8">
         <v>98</v>
@@ -8204,19 +8317,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="C101" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="D101" s="64" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F101" t="s">
-        <v>316</v>
+        <v>245</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G101" s="8">
         <v>99</v>
@@ -8248,19 +8361,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="D102" s="64" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F102" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="G102" s="8">
         <v>100</v>
@@ -8292,19 +8405,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="D103" s="64" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F103" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="G103" s="8">
         <v>101</v>
@@ -8336,19 +8449,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D104" s="64" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F104" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="G104" s="8">
         <v>102</v>
@@ -8380,19 +8493,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D105" s="64" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F105" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G105" s="8">
         <v>103</v>
@@ -8424,19 +8537,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D106" s="64" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F106" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="G106" s="8">
         <v>104</v>
@@ -8448,10 +8561,10 @@
         <v>12</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -8468,19 +8581,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D107" s="64" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F107" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G107" s="8">
         <v>105</v>
@@ -8492,10 +8605,10 @@
         <v>12</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -8512,19 +8625,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F108" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G108" s="8">
         <v>106</v>
@@ -8556,19 +8669,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F109" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G109" s="8">
         <v>107</v>
@@ -8600,19 +8713,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F110" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G110" s="8">
         <v>108</v>
@@ -8644,19 +8757,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F111" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G111" s="8">
         <v>109</v>
@@ -8688,19 +8801,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G112" s="8">
         <v>110</v>
@@ -8732,19 +8845,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F113" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G113" s="8">
         <v>111</v>
@@ -8756,10 +8869,10 @@
         <v>12</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -8776,19 +8889,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F114" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G114" s="8">
         <v>112</v>
@@ -8800,10 +8913,10 @@
         <v>12</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -8820,19 +8933,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G115" s="8">
         <v>113</v>
@@ -8864,19 +8977,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F116" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G116" s="8">
         <v>114</v>
@@ -8908,19 +9021,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F117" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G117" s="8">
         <v>115</v>
@@ -8952,19 +9065,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F118" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G118" s="8">
         <v>116</v>
@@ -8996,19 +9109,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F119" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G119" s="8">
         <v>117</v>
@@ -9040,19 +9153,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F120" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G120" s="8">
         <v>118</v>
@@ -9084,19 +9197,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F121" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G121" s="8">
         <v>119</v>
@@ -9128,19 +9241,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F122" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G122" s="8">
         <v>120</v>
@@ -9172,19 +9285,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F123" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G123" s="8">
         <v>121</v>
@@ -9216,19 +9329,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F124" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G124" s="8">
         <v>122</v>
@@ -9260,19 +9373,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="D125" s="64" t="s">
-        <v>679</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>401</v>
+        <v>672</v>
+      </c>
+      <c r="E125" s="35" t="s">
+        <v>277</v>
       </c>
       <c r="F125" t="s">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="G125" s="8">
         <v>123</v>
@@ -9304,19 +9417,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>680</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>402</v>
+        <v>673</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="F126" t="s">
-        <v>480</v>
+        <v>334</v>
       </c>
       <c r="G126" s="8">
         <v>124</v>
@@ -9348,19 +9461,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>681</v>
-      </c>
-      <c r="E127" s="43" t="s">
-        <v>403</v>
+        <v>674</v>
+      </c>
+      <c r="E127" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="F127" t="s">
-        <v>481</v>
+        <v>335</v>
       </c>
       <c r="G127" s="8">
         <v>125</v>
@@ -9392,19 +9505,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>682</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>404</v>
+        <v>675</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>280</v>
       </c>
       <c r="F128" t="s">
-        <v>482</v>
+        <v>336</v>
       </c>
       <c r="G128" s="8">
         <v>126</v>
@@ -9436,19 +9549,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>683</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>405</v>
+        <v>676</v>
+      </c>
+      <c r="E129" s="35" t="s">
+        <v>281</v>
       </c>
       <c r="F129" t="s">
-        <v>483</v>
+        <v>337</v>
       </c>
       <c r="G129" s="8">
         <v>127</v>
@@ -9480,19 +9593,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="E130" s="43" t="s">
-        <v>406</v>
+        <v>677</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="F130" t="s">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="G130" s="8">
         <v>128</v>
@@ -9524,19 +9637,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="D131" s="64" t="s">
-        <v>685</v>
-      </c>
-      <c r="E131" s="43" t="s">
-        <v>407</v>
+        <v>678</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="F131" t="s">
-        <v>485</v>
+        <v>339</v>
       </c>
       <c r="G131" s="8">
         <v>129</v>
@@ -9568,19 +9681,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F132" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G132" s="8">
         <v>130</v>
@@ -9612,19 +9725,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F133" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G133" s="8">
         <v>131</v>
@@ -9656,19 +9769,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F134" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G134" s="8">
         <v>132</v>
@@ -9700,19 +9813,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C135" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F135" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G135" s="8">
         <v>133</v>
@@ -9744,19 +9857,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F136" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G136" s="8">
         <v>134</v>
@@ -9788,19 +9901,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C137" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F137" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G137" s="8">
         <v>135</v>
@@ -9832,19 +9945,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F138" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G138" s="8">
         <v>136</v>
@@ -9876,19 +9989,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F139" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G139" s="8">
         <v>137</v>
@@ -9920,19 +10033,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C140" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F140" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G140" s="8">
         <v>138</v>
@@ -9964,19 +10077,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C141" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F141" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G141" s="8">
         <v>139</v>
@@ -10008,19 +10121,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C142" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F142" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G142" s="8">
         <v>140</v>
@@ -10052,19 +10165,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C143" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F143" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G143" s="8">
         <v>141</v>
@@ -10096,19 +10209,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C144" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D144" s="64" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F144" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G144" s="8">
         <v>142</v>
@@ -10140,19 +10253,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F145" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G145" s="8">
         <v>143</v>
@@ -10184,19 +10297,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C146" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F146" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G146" s="8">
         <v>144</v>
@@ -10228,19 +10341,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C147" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F147" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G147" s="8">
         <v>145</v>
@@ -10272,19 +10385,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G148" s="8">
         <v>146</v>
@@ -10316,19 +10429,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C149" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F149" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G149" s="8">
         <v>147</v>
@@ -10360,19 +10473,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F150" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G150" s="8">
         <v>148</v>
@@ -10404,19 +10517,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C151" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F151" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G151" s="8">
         <v>149</v>
@@ -10448,19 +10561,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C152" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F152" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G152" s="8">
         <v>150</v>
@@ -10492,19 +10605,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D153" s="64" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F153" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G153" s="8">
         <v>151</v>
@@ -10536,19 +10649,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C154" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D154" s="64" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F154" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G154" s="8">
         <v>152</v>
@@ -10580,19 +10693,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C155" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D155" s="64" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F155" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G155" s="8">
         <v>153</v>
@@ -10624,19 +10737,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C156" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D156" s="64" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F156" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G156" s="8">
         <v>154</v>
@@ -10668,19 +10781,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C157" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D157" s="64" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F157" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G157" s="8">
         <v>155</v>
@@ -10712,19 +10825,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C158" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D158" s="64" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F158" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G158" s="8">
         <v>156</v>
@@ -10756,19 +10869,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F159" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G159" s="8">
         <v>157</v>
@@ -10800,19 +10913,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F160" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G160" s="8">
         <v>158</v>
@@ -10844,19 +10957,19 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G161" s="8">
         <v>159</v>
@@ -10888,19 +11001,19 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F162" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G162" s="8">
         <v>160</v>
@@ -10932,19 +11045,19 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C163" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F163" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G163" s="8">
         <v>161</v>
@@ -10968,6 +11081,314 @@
         <v>0</v>
       </c>
       <c r="N163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>472</v>
+      </c>
+      <c r="C164" t="s">
+        <v>472</v>
+      </c>
+      <c r="D164" s="64" t="s">
+        <v>711</v>
+      </c>
+      <c r="E164" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="F164" t="s">
+        <v>511</v>
+      </c>
+      <c r="G164" s="8">
+        <v>162</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" t="s">
+        <v>473</v>
+      </c>
+      <c r="D165" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="E165" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="F165" t="s">
+        <v>512</v>
+      </c>
+      <c r="G165" s="8">
+        <v>163</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+      <c r="N165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" t="s">
+        <v>474</v>
+      </c>
+      <c r="D166" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="E166" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="F166" t="s">
+        <v>513</v>
+      </c>
+      <c r="G166" s="8">
+        <v>164</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A167" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" t="s">
+        <v>475</v>
+      </c>
+      <c r="D167" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="E167" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="F167" t="s">
+        <v>514</v>
+      </c>
+      <c r="G167" s="8">
+        <v>165</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+      <c r="N167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" t="s">
+        <v>476</v>
+      </c>
+      <c r="D168" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="E168" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="F168" t="s">
+        <v>515</v>
+      </c>
+      <c r="G168" s="8">
+        <v>166</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" t="s">
+        <v>477</v>
+      </c>
+      <c r="D169" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="E169" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="F169" t="s">
+        <v>516</v>
+      </c>
+      <c r="G169" s="8">
+        <v>167</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A170" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" t="s">
+        <v>478</v>
+      </c>
+      <c r="D170" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F170" t="s">
+        <v>517</v>
+      </c>
+      <c r="G170" s="8">
+        <v>168</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J170" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+      <c r="N170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10980,10 +11401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11264,7 +11685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -11281,353 +11702,341 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="B18" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>104</v>
+      <c r="B19" s="78" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>743</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>743</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
+      <c r="B20" s="78" t="s">
+        <v>744</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>744</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>112</v>
+      <c r="B21" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>745</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>114</v>
+      <c r="B22" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>746</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>115</v>
+      <c r="B23" s="78" t="s">
+        <v>747</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>747</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>747</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>116</v>
+      <c r="B24" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>748</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>748</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>118</v>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>119</v>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>544</v>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>545</v>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>546</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>547</v>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>548</v>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>549</v>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>550</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>559</v>
+      <c r="A37" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>544</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>23</v>
@@ -11639,33 +12048,31 @@
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>558</v>
+      <c r="B38" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>545</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>563</v>
+      <c r="B39" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>546</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>23</v>
@@ -11677,14 +12084,14 @@
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>564</v>
+      <c r="B40" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>547</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>
@@ -11696,154 +12103,168 @@
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>580</v>
+      <c r="B41" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>548</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="4" t="s">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>156</v>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>559</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>160</v>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>558</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>161</v>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>563</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>162</v>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>564</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>163</v>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>580</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11852,15 +12273,15 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11868,14 +12289,14 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>188</v>
+      <c r="B51" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
@@ -11885,14 +12306,14 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>191</v>
+      <c r="B52" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>23</v>
@@ -11902,133 +12323,133 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>194</v>
+      <c r="B53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>208</v>
+      <c r="B54" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>209</v>
+      <c r="B55" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>210</v>
+      <c r="B56" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>217</v>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>218</v>
+      <c r="B58" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>231</v>
+      <c r="B59" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>236</v>
+      <c r="B60" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -12039,13 +12460,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>237</v>
+        <v>518</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>208</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -12056,13 +12477,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>238</v>
+        <v>519</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -12072,14 +12493,14 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" t="s">
-        <v>314</v>
-      </c>
-      <c r="E63" t="s">
-        <v>314</v>
+      <c r="B63" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -12090,13 +12511,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>242</v>
+        <v>521</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -12107,13 +12528,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>244</v>
+        <v>522</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -12123,14 +12544,14 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" t="s">
-        <v>353</v>
-      </c>
-      <c r="E66" t="s">
-        <v>353</v>
+      <c r="B66" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -12140,14 +12561,14 @@
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
-        <v>354</v>
-      </c>
-      <c r="C67" t="s">
-        <v>354</v>
-      </c>
-      <c r="E67" t="s">
-        <v>354</v>
+      <c r="B67" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -12157,14 +12578,14 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" t="s">
-        <v>355</v>
-      </c>
-      <c r="E68" t="s">
-        <v>355</v>
+      <c r="B68" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -12174,14 +12595,14 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" t="s">
-        <v>356</v>
-      </c>
-      <c r="E69" t="s">
-        <v>356</v>
+      <c r="B69" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -12192,13 +12613,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -12208,14 +12629,14 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
-        <v>358</v>
-      </c>
-      <c r="C71" t="s">
-        <v>358</v>
-      </c>
-      <c r="E71" t="s">
-        <v>358</v>
+      <c r="B71" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -12225,14 +12646,14 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" t="s">
-        <v>359</v>
-      </c>
-      <c r="E72" t="s">
-        <v>359</v>
+      <c r="B72" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -12243,13 +12664,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -12260,13 +12681,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -12277,13 +12698,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E75" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -12294,13 +12715,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E76" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -12311,16 +12732,16 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E77" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12328,16 +12749,16 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C78" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12345,16 +12766,16 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C79" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E79" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12362,13 +12783,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E80" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -12379,13 +12800,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E81" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -12396,16 +12817,16 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12413,16 +12834,16 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E83" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12430,13 +12851,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E84" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>23</v>
@@ -12447,13 +12868,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="E85" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>23</v>
@@ -12464,13 +12885,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
       <c r="E86" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>23</v>
@@ -12481,30 +12902,30 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="C87" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="E87" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>211</v>
+      <c r="B88" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" t="s">
+        <v>389</v>
+      </c>
+      <c r="E88" t="s">
+        <v>389</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -12514,85 +12935,85 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>212</v>
+      <c r="B89" t="s">
+        <v>390</v>
+      </c>
+      <c r="C89" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="C90" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>213</v>
+      <c r="B90" t="s">
+        <v>391</v>
+      </c>
+      <c r="C90" t="s">
+        <v>391</v>
+      </c>
+      <c r="E90" t="s">
+        <v>391</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C91" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>214</v>
+      <c r="B91" t="s">
+        <v>392</v>
+      </c>
+      <c r="C91" t="s">
+        <v>392</v>
+      </c>
+      <c r="E91" t="s">
+        <v>392</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>215</v>
+      <c r="B92" t="s">
+        <v>575</v>
+      </c>
+      <c r="C92" t="s">
+        <v>575</v>
+      </c>
+      <c r="E92" t="s">
+        <v>575</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>216</v>
+      <c r="B93" t="s">
+        <v>576</v>
+      </c>
+      <c r="C93" t="s">
+        <v>576</v>
+      </c>
+      <c r="E93" t="s">
+        <v>576</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12600,30 +13021,30 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="C94" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>577</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" t="s">
-        <v>251</v>
-      </c>
-      <c r="E95" t="s">
-        <v>251</v>
+      <c r="B95" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C95" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -12633,14 +13054,14 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" t="s">
-        <v>252</v>
-      </c>
-      <c r="E96" t="s">
-        <v>252</v>
+      <c r="B96" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -12650,14 +13071,14 @@
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" t="s">
-        <v>253</v>
+      <c r="B97" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -12667,14 +13088,14 @@
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" t="s">
-        <v>285</v>
-      </c>
-      <c r="E98" t="s">
-        <v>285</v>
+      <c r="B98" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -12684,14 +13105,14 @@
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" t="s">
-        <v>286</v>
-      </c>
-      <c r="E99" t="s">
-        <v>286</v>
+      <c r="B99" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -12701,14 +13122,14 @@
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" t="s">
-        <v>292</v>
-      </c>
-      <c r="E100" t="s">
-        <v>292</v>
+      <c r="B100" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -12719,13 +13140,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>532</v>
       </c>
       <c r="C101" t="s">
-        <v>293</v>
+        <v>532</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -12736,13 +13157,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -12753,13 +13174,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="E103" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -12770,13 +13191,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="E104" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -12787,13 +13208,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -12804,16 +13225,16 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12821,16 +13242,16 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12838,13 +13259,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -12855,13 +13276,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -12872,13 +13293,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -12889,13 +13310,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E111" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -12906,13 +13327,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -12923,16 +13344,16 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12940,16 +13361,16 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -12957,13 +13378,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -12974,13 +13395,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -12991,13 +13412,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -13008,13 +13429,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -13025,13 +13446,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -13042,13 +13463,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -13059,13 +13480,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -13076,13 +13497,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -13093,13 +13514,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -13110,13 +13531,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -13127,13 +13548,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="E125" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -13144,13 +13565,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="E126" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -13161,13 +13582,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="E127" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -13178,13 +13599,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -13195,13 +13616,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -13212,13 +13633,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -13229,13 +13650,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="E131" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -13246,13 +13667,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E132" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -13263,13 +13684,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -13280,13 +13701,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -13297,13 +13718,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C135" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E135" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -13314,13 +13735,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E136" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -13331,13 +13752,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C137" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E137" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -13348,13 +13769,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E138" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -13365,13 +13786,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E139" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -13382,13 +13803,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C140" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E140" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -13399,13 +13820,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C141" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E141" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -13416,13 +13837,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C142" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E142" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -13433,13 +13854,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C143" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E143" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -13450,13 +13871,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C144" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E144" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -13467,13 +13888,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -13484,13 +13905,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C146" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E146" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -13501,13 +13922,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C147" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E147" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -13518,13 +13939,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E148" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -13535,13 +13956,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C149" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E149" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -13552,13 +13973,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -13569,13 +13990,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C151" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E151" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -13586,13 +14007,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C152" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E152" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -13603,13 +14024,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -13620,13 +14041,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C154" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E154" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -13637,13 +14058,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C155" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E155" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -13654,13 +14075,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C156" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E156" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -13671,13 +14092,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C157" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E157" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -13688,13 +14109,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C158" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E158" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -13705,13 +14126,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E159" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -13722,13 +14143,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -13739,13 +14160,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E161" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -13756,13 +14177,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E162" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>22</v>
@@ -13773,15 +14194,134 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
+        <v>471</v>
+      </c>
+      <c r="C163" t="s">
+        <v>471</v>
+      </c>
+      <c r="E163" t="s">
+        <v>471</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>472</v>
+      </c>
+      <c r="C164" t="s">
+        <v>472</v>
+      </c>
+      <c r="E164" t="s">
+        <v>472</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" t="s">
+        <v>473</v>
+      </c>
+      <c r="E165" t="s">
+        <v>473</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" t="s">
+        <v>474</v>
+      </c>
+      <c r="E166" t="s">
+        <v>474</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" t="s">
+        <v>475</v>
+      </c>
+      <c r="E167" t="s">
+        <v>475</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" t="s">
+        <v>476</v>
+      </c>
+      <c r="E168" t="s">
+        <v>476</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" t="s">
+        <v>477</v>
+      </c>
+      <c r="E169" t="s">
+        <v>477</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
         <v>478</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C170" t="s">
         <v>478</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E170" t="s">
         <v>478</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F170" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="761">
   <si>
     <t>Variable</t>
   </si>
@@ -491,97 +491,13 @@
     <t>15-Severe phenomena personnel management</t>
   </si>
   <si>
-    <t>IND_08_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_08_FL_DATE</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_DATE</t>
-  </si>
-  <si>
-    <t>08-Group bankruptcy_fl_override</t>
-  </si>
-  <si>
-    <t>08-Group bankruptcy_fl_date</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_OVERRIDE_STRING</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_DATE_STRING</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_01_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>01-Counterparty Rating_fl_override</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_RATING_FL_OVERRIDE_STRING</t>
-  </si>
-  <si>
-    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>DELTA_EQUITY_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>SCONFINO_FL_OVERRIDE</t>
-  </si>
-  <si>
     <t>SEGNALAZIONE_FL_OVERRIDE</t>
   </si>
   <si>
-    <t>IND_05_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_03_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_04_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_09_FL_OVERRIDE</t>
-  </si>
-  <si>
     <t>IND_12_FL_OVERRIDE</t>
   </si>
   <si>
-    <t>05-Debt Service Coverage Ratio_fl_override</t>
-  </si>
-  <si>
-    <t>03-Delta Equity_fl_override</t>
-  </si>
-  <si>
-    <t>04-Delta Turnover_fl_override</t>
-  </si>
-  <si>
-    <t>09-Overdraft (Days)_fl_override</t>
-  </si>
-  <si>
     <t>12-Report to non performing loans in CR_fl_override</t>
-  </si>
-  <si>
-    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE_STRING</t>
-  </si>
-  <si>
-    <t>DELTA_EQUITY_FL_OVERRIDE_STRING</t>
-  </si>
-  <si>
-    <t>DELTA_TURNOVER_FL_OVERRIDE_STRING</t>
-  </si>
-  <si>
-    <t>SCONFINO_FL_OVERRIDE_STRING</t>
   </si>
   <si>
     <t>SEGNALAZIONE_FL_OVERRIDE_STRING</t>
@@ -2235,95 +2151,215 @@
     <t>Il colore del modulo "Dati di Mercato" è dato dal SECONDO peggiore tra i semafori di categoria calcolati per EQUITY, CDS e BOND a seconda dei valori assunti dagli indicatori EDF_ImpliedRating, Bond_ImpliedRating e CDS_ImpliedRating</t>
   </si>
   <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>500 - QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>501 - QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>503 - QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1_REAL</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2_REAL</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3_REAL</t>
+  </si>
+  <si>
+    <t>FITCH_01</t>
+  </si>
+  <si>
+    <t>FITCH_02</t>
+  </si>
+  <si>
+    <t>FITCH_03</t>
+  </si>
+  <si>
+    <t>FITCH_04</t>
+  </si>
+  <si>
+    <t>FITCH_05</t>
+  </si>
+  <si>
+    <t>FITCH_06</t>
+  </si>
+  <si>
+    <t>FITCH_07</t>
+  </si>
+  <si>
+    <t>Delta patrimonio netto</t>
+  </si>
+  <si>
     <t>IND_37</t>
   </si>
   <si>
+    <t>37 - Delta patrimonio netto</t>
+  </si>
+  <si>
+    <t>Delta utile lordo</t>
+  </si>
+  <si>
     <t>IND_38</t>
   </si>
   <si>
+    <t>38 - Delta utile lordo</t>
+  </si>
+  <si>
+    <t>Leverage patrimonio tangibile</t>
+  </si>
+  <si>
     <t>IND_39</t>
   </si>
   <si>
+    <t>39 - Leverage patrimonio tangibile</t>
+  </si>
+  <si>
+    <t>Patrimonio netto tempo t</t>
+  </si>
+  <si>
     <t>IND_40</t>
   </si>
   <si>
+    <t>40 - Patrimonio netto tempo t</t>
+  </si>
+  <si>
+    <t>Utile lordo tempo t</t>
+  </si>
+  <si>
     <t>IND_41</t>
   </si>
   <si>
+    <t>41 - Utile lordo tempo t</t>
+  </si>
+  <si>
+    <t>Rating interno</t>
+  </si>
+  <si>
     <t>IND_42</t>
   </si>
   <si>
+    <t>42 - Rating interno</t>
+  </si>
+  <si>
+    <t>Rating Fitch</t>
+  </si>
+  <si>
     <t>IND_43</t>
   </si>
   <si>
-    <t>37 - Delta patrimonio netto</t>
-  </si>
-  <si>
-    <t>38 - Delta utile lordo</t>
-  </si>
-  <si>
-    <t>39 - Leverage patrimonio tangibile</t>
-  </si>
-  <si>
-    <t>40 - Patrimonio netto tempo t</t>
-  </si>
-  <si>
-    <t>41 - Utile lordo tempo t</t>
-  </si>
-  <si>
-    <t>42 - Rating interno</t>
-  </si>
-  <si>
     <t>43 - Rating Fitch</t>
   </si>
   <si>
-    <t>Delta patrimonio netto</t>
-  </si>
-  <si>
-    <t>Delta utile lordo</t>
-  </si>
-  <si>
-    <t>Leverage patrimonio tangibile</t>
-  </si>
-  <si>
-    <t>Patrimonio netto tempo t</t>
-  </si>
-  <si>
-    <t>Utile lordo tempo t</t>
-  </si>
-  <si>
-    <t>Rating interno</t>
-  </si>
-  <si>
-    <t>Rating Fitch</t>
-  </si>
-  <si>
-    <t>FITCH_01</t>
-  </si>
-  <si>
-    <t>FITCH_02</t>
-  </si>
-  <si>
-    <t>FITCH_03</t>
-  </si>
-  <si>
-    <t>FITCH_04</t>
-  </si>
-  <si>
-    <t>FITCH_05</t>
-  </si>
-  <si>
-    <t>FITCH_06</t>
-  </si>
-  <si>
-    <t>FITCH_07</t>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE_STRING</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE_STRING</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_08_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>08-Group bankruptcy_fl_override</t>
+  </si>
+  <si>
+    <t>IND_08_FL_DATE</t>
+  </si>
+  <si>
+    <t>08-Group bankruptcy_fl_date</t>
+  </si>
+  <si>
+    <t>IND_01_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>01-Counterparty Rating_fl_override</t>
+  </si>
+  <si>
+    <t>IND_05_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>05-Debt Service Coverage Ratio_fl_override</t>
+  </si>
+  <si>
+    <t>IND_03_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>03-Delta Equity_fl_override</t>
+  </si>
+  <si>
+    <t>IND_04_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>04-Delta Turnover_fl_override</t>
+  </si>
+  <si>
+    <t>IND_09_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>09-Overdraft (Days)_fl_override</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2686,15 +2722,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2722,12 +2751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2760,7 +2783,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2883,13 +2906,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2988,7 +3010,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2490472</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3046,7 +3068,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2490472</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3104,7 +3126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2490472</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3162,7 +3184,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2490472</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3220,7 +3242,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2490472</xdr:colOff>
+      <xdr:colOff>2109472</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3327,8 +3349,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3385,8 +3407,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3443,8 +3465,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3501,8 +3523,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3559,8 +3581,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645870</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3916,26 +3938,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="1019" width="8.7109375"/>
+    <col min="2" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -4187,7 +4211,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
@@ -4231,7 +4255,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>87</v>
@@ -4275,7 +4299,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>88</v>
@@ -4319,7 +4343,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>89</v>
@@ -4363,7 +4387,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>90</v>
@@ -4407,7 +4431,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>91</v>
@@ -4451,7 +4475,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>92</v>
@@ -4495,7 +4519,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>93</v>
@@ -4539,7 +4563,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>94</v>
@@ -4583,7 +4607,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -4627,7 +4651,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -4671,13 +4695,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G18" s="8">
         <v>16</v>
@@ -4715,7 +4739,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>99</v>
@@ -4759,7 +4783,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -4803,7 +4827,7 @@
         <v>112</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>130</v>
@@ -4847,7 +4871,7 @@
         <v>114</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>131</v>
@@ -4891,7 +4915,7 @@
         <v>115</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>132</v>
@@ -4935,7 +4959,7 @@
         <v>116</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>133</v>
@@ -4979,7 +5003,7 @@
         <v>117</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>134</v>
@@ -5023,7 +5047,7 @@
         <v>118</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>135</v>
@@ -5067,7 +5091,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>136</v>
@@ -5111,7 +5135,7 @@
         <v>120</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>137</v>
@@ -5155,7 +5179,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>138</v>
@@ -5193,19 +5217,19 @@
         <v>11</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="G30" s="8">
         <v>28</v>
@@ -5237,19 +5261,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="G31" s="8">
         <v>29</v>
@@ -5281,19 +5305,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="G32" s="8">
         <v>30</v>
@@ -5325,19 +5349,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="G33" s="8">
         <v>31</v>
@@ -5369,19 +5393,19 @@
         <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="G34" s="8">
         <v>32</v>
@@ -5413,19 +5437,19 @@
         <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="G35" s="8">
         <v>33</v>
@@ -5457,19 +5481,19 @@
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="G36" s="8">
         <v>34</v>
@@ -5501,19 +5525,19 @@
         <v>11</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="G37" s="8">
         <v>35</v>
@@ -5545,19 +5569,19 @@
         <v>11</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="G38" s="8">
         <v>36</v>
@@ -5589,19 +5613,19 @@
         <v>11</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="G39" s="8">
         <v>37</v>
@@ -5633,19 +5657,19 @@
         <v>11</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="G40" s="8">
         <v>38</v>
@@ -5677,19 +5701,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="G41" s="8">
         <v>39</v>
@@ -5721,19 +5745,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="D42" s="68" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="G42" s="8">
         <v>40</v>
@@ -5764,20 +5788,20 @@
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>735</v>
+      <c r="B43" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>712</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>728</v>
+        <v>713</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>714</v>
       </c>
       <c r="G43" s="8">
         <v>41</v>
@@ -5808,20 +5832,20 @@
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="78" t="s">
-        <v>743</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>743</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>736</v>
+      <c r="B44" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>715</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>729</v>
+        <v>716</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>717</v>
       </c>
       <c r="G44" s="8">
         <v>42</v>
@@ -5852,20 +5876,20 @@
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>737</v>
+      <c r="B45" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>718</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>730</v>
+        <v>719</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>720</v>
       </c>
       <c r="G45" s="8">
         <v>43</v>
@@ -5896,20 +5920,20 @@
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="C46" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>738</v>
+      <c r="B46" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>721</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>731</v>
+        <v>722</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>723</v>
       </c>
       <c r="G46" s="8">
         <v>44</v>
@@ -5940,20 +5964,20 @@
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>739</v>
+      <c r="B47" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>724</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="F47" s="78" t="s">
-        <v>732</v>
+      <c r="F47" s="55" t="s">
+        <v>726</v>
       </c>
       <c r="G47" s="8">
         <v>45</v>
@@ -5984,20 +6008,20 @@
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="78" t="s">
-        <v>747</v>
-      </c>
-      <c r="C48" s="78" t="s">
-        <v>747</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>740</v>
+      <c r="B48" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>727</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>733</v>
+        <v>728</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>729</v>
       </c>
       <c r="G48" s="8">
         <v>46</v>
@@ -6008,7 +6032,7 @@
       <c r="I48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="53" t="s">
         <v>102</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -6028,20 +6052,20 @@
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="78" t="s">
-        <v>748</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>748</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>741</v>
+      <c r="B49" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>730</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>734</v>
+        <v>731</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>732</v>
       </c>
       <c r="G49" s="8">
         <v>47</v>
@@ -6068,24 +6092,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>747</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>152</v>
+        <v>748</v>
       </c>
       <c r="G50" s="8">
         <v>48</v>
@@ -6112,24 +6136,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>151</v>
+        <v>736</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>151</v>
+        <v>736</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>151</v>
+        <v>736</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>149</v>
+        <v>749</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>153</v>
+        <v>750</v>
       </c>
       <c r="G51" s="8">
         <v>49</v>
@@ -6156,24 +6180,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>156</v>
+        <v>738</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>156</v>
+        <v>738</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>156</v>
+        <v>738</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>157</v>
+        <v>751</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>158</v>
+        <v>752</v>
       </c>
       <c r="G52" s="8">
         <v>50</v>
@@ -6200,24 +6224,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>160</v>
+        <v>740</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>160</v>
+        <v>740</v>
       </c>
       <c r="D53" s="71" t="s">
-        <v>160</v>
+        <v>740</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>165</v>
+        <v>753</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>170</v>
+        <v>754</v>
       </c>
       <c r="G53" s="8">
         <v>51</v>
@@ -6244,24 +6268,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="D54" s="71" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>166</v>
+        <v>755</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>171</v>
+        <v>756</v>
       </c>
       <c r="G54" s="8">
         <v>52</v>
@@ -6288,24 +6312,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>162</v>
+        <v>744</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>162</v>
+        <v>744</v>
       </c>
       <c r="D55" s="71" t="s">
-        <v>162</v>
+        <v>744</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>167</v>
+        <v>757</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>172</v>
+        <v>758</v>
       </c>
       <c r="G55" s="8">
         <v>53</v>
@@ -6337,19 +6361,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>163</v>
+        <v>746</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>163</v>
+        <v>746</v>
       </c>
       <c r="D56" s="71" t="s">
-        <v>163</v>
+        <v>746</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>168</v>
+        <v>759</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>173</v>
+        <v>760</v>
       </c>
       <c r="G56" s="8">
         <v>54</v>
@@ -6381,19 +6405,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D57" s="71" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G57" s="8">
         <v>55</v>
@@ -6425,19 +6449,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G58" s="8">
         <v>56</v>
@@ -6469,19 +6493,19 @@
         <v>11</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D59" s="72" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G59" s="8">
         <v>57</v>
@@ -6513,19 +6537,19 @@
         <v>11</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="G60" s="8">
         <v>58</v>
@@ -6557,19 +6581,19 @@
         <v>11</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D61" s="74" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G61" s="8">
         <v>59</v>
@@ -6601,19 +6625,19 @@
         <v>11</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G62" s="8">
         <v>60</v>
@@ -6645,19 +6669,19 @@
         <v>11</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G63" s="8">
         <v>61</v>
@@ -6689,19 +6713,19 @@
         <v>11</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D64" s="74" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G64" s="8">
         <v>62</v>
@@ -6733,19 +6757,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D65" s="74" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G65" s="8">
         <v>63</v>
@@ -6777,19 +6801,19 @@
         <v>11</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G66" s="8">
         <v>64</v>
@@ -6821,19 +6845,19 @@
         <v>11</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D67" s="76" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="G67" s="8">
         <v>65</v>
@@ -6865,19 +6889,19 @@
         <v>11</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G68" s="8">
         <v>66</v>
@@ -6909,19 +6933,19 @@
         <v>11</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G69" s="8">
         <v>67</v>
@@ -6953,19 +6977,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G70" s="8">
         <v>68</v>
@@ -6997,19 +7021,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D71" s="77" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="G71" s="8">
         <v>69</v>
@@ -7041,19 +7065,19 @@
         <v>11</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D72" s="77" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="G72" s="8">
         <v>70</v>
@@ -7085,19 +7109,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C73" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="G73" s="8">
         <v>71</v>
@@ -7129,19 +7153,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F74" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="G74" s="8">
         <v>72</v>
@@ -7173,19 +7197,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="F75" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="G75" s="8">
         <v>73</v>
@@ -7217,19 +7241,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="F76" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="G76" s="8">
         <v>74</v>
@@ -7261,19 +7285,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F77" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="G77" s="8">
         <v>75</v>
@@ -7305,19 +7329,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F78" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G78" s="8">
         <v>76</v>
@@ -7349,19 +7373,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="G79" s="8">
         <v>77</v>
@@ -7393,19 +7417,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="F80" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="G80" s="8">
         <v>78</v>
@@ -7437,19 +7461,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="G81" s="8">
         <v>79</v>
@@ -7481,19 +7505,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F82" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G82" s="8">
         <v>80</v>
@@ -7525,19 +7549,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G83" s="8">
         <v>81</v>
@@ -7569,19 +7593,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="F84" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="G84" s="8">
         <v>82</v>
@@ -7613,19 +7637,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F85" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="G85" s="8">
         <v>83</v>
@@ -7657,19 +7681,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C86" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F86" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G86" s="8">
         <v>84</v>
@@ -7701,19 +7725,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D87" s="64" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="G87" s="8">
         <v>85</v>
@@ -7745,19 +7769,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D88" s="64" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G88" s="8">
         <v>86</v>
@@ -7789,19 +7813,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D89" s="64" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G89" s="8">
         <v>87</v>
@@ -7833,19 +7857,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="F90" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G90" s="8">
         <v>88</v>
@@ -7877,19 +7901,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="D91" s="64" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="F91" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G91" s="8">
         <v>89</v>
@@ -7921,19 +7945,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C92" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="D92" s="64" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="F92" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="G92" s="8">
         <v>90</v>
@@ -7965,19 +7989,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C93" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="F93" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="G93" s="8">
         <v>91</v>
@@ -8009,19 +8033,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="C94" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="F94" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="G94" s="8">
         <v>92</v>
@@ -8053,19 +8077,19 @@
         <v>11</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G95" s="8">
         <v>93</v>
@@ -8097,19 +8121,19 @@
         <v>11</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D96" s="74" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G96" s="8">
         <v>94</v>
@@ -8141,19 +8165,19 @@
         <v>11</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D97" s="74" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G97" s="8">
         <v>95</v>
@@ -8185,19 +8209,19 @@
         <v>11</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D98" s="74" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G98" s="8">
         <v>96</v>
@@ -8229,19 +8253,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D99" s="74" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G99" s="8">
         <v>97</v>
@@ -8273,19 +8297,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D100" s="74" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G100" s="8">
         <v>98</v>
@@ -8317,19 +8341,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D101" s="64" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="G101" s="8">
         <v>99</v>
@@ -8361,19 +8385,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="D102" s="64" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="F102" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G102" s="8">
         <v>100</v>
@@ -8405,19 +8429,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D103" s="64" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="F103" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="G103" s="8">
         <v>101</v>
@@ -8449,19 +8473,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="D104" s="64" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F104" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="G104" s="8">
         <v>102</v>
@@ -8493,19 +8517,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D105" s="64" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F105" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G105" s="8">
         <v>103</v>
@@ -8537,19 +8561,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D106" s="64" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="F106" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="G106" s="8">
         <v>104</v>
@@ -8581,19 +8605,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D107" s="64" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F107" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="G107" s="8">
         <v>105</v>
@@ -8625,19 +8649,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="G108" s="8">
         <v>106</v>
@@ -8669,19 +8693,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="G109" s="8">
         <v>107</v>
@@ -8713,19 +8737,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="F110" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G110" s="8">
         <v>108</v>
@@ -8757,19 +8781,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F111" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="G111" s="8">
         <v>109</v>
@@ -8801,19 +8825,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="F112" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="G112" s="8">
         <v>110</v>
@@ -8845,19 +8869,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="G113" s="8">
         <v>111</v>
@@ -8889,19 +8913,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="G114" s="8">
         <v>112</v>
@@ -8933,19 +8957,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F115" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="G115" s="8">
         <v>113</v>
@@ -8977,19 +9001,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F116" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="G116" s="8">
         <v>114</v>
@@ -9021,19 +9045,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F117" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="G117" s="8">
         <v>115</v>
@@ -9065,19 +9089,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F118" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="G118" s="8">
         <v>116</v>
@@ -9109,19 +9133,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="F119" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="G119" s="8">
         <v>117</v>
@@ -9153,19 +9177,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="F120" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="G120" s="8">
         <v>118</v>
@@ -9197,19 +9221,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F121" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="G121" s="8">
         <v>119</v>
@@ -9241,19 +9265,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="F122" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="G122" s="8">
         <v>120</v>
@@ -9285,19 +9309,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F123" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="G123" s="8">
         <v>121</v>
@@ -9329,19 +9353,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="F124" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="G124" s="8">
         <v>122</v>
@@ -9373,19 +9397,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D125" s="64" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F125" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G125" s="8">
         <v>123</v>
@@ -9417,19 +9441,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="F126" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G126" s="8">
         <v>124</v>
@@ -9461,19 +9485,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="G127" s="8">
         <v>125</v>
@@ -9505,19 +9529,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="G128" s="8">
         <v>126</v>
@@ -9549,19 +9573,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="G129" s="8">
         <v>127</v>
@@ -9593,19 +9617,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="G130" s="8">
         <v>128</v>
@@ -9637,19 +9661,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D131" s="64" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="G131" s="8">
         <v>129</v>
@@ -9681,19 +9705,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C132" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F132" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="G132" s="8">
         <v>130</v>
@@ -9725,19 +9749,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C133" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="F133" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="G133" s="8">
         <v>131</v>
@@ -9769,19 +9793,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="F134" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="G134" s="8">
         <v>132</v>
@@ -9813,19 +9837,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="F135" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="G135" s="8">
         <v>133</v>
@@ -9857,19 +9881,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C136" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="F136" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="G136" s="8">
         <v>134</v>
@@ -9901,19 +9925,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F137" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="G137" s="8">
         <v>135</v>
@@ -9945,19 +9969,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="F138" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="G138" s="8">
         <v>136</v>
@@ -9989,19 +10013,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C139" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="F139" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="G139" s="8">
         <v>137</v>
@@ -10033,19 +10057,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="F140" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="G140" s="8">
         <v>138</v>
@@ -10077,19 +10101,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C141" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="F141" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="G141" s="8">
         <v>139</v>
@@ -10121,19 +10145,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="C142" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="F142" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="G142" s="8">
         <v>140</v>
@@ -10165,19 +10189,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C143" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F143" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="G143" s="8">
         <v>141</v>
@@ -10209,19 +10233,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="D144" s="64" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="F144" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="G144" s="8">
         <v>142</v>
@@ -10253,19 +10277,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="F145" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="G145" s="8">
         <v>143</v>
@@ -10297,19 +10321,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="F146" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="G146" s="8">
         <v>144</v>
@@ -10341,19 +10365,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="F147" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="G147" s="8">
         <v>145</v>
@@ -10385,19 +10409,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="C148" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="F148" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="G148" s="8">
         <v>146</v>
@@ -10429,19 +10453,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="C149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="F149" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="G149" s="8">
         <v>147</v>
@@ -10473,19 +10497,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="F150" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="G150" s="8">
         <v>148</v>
@@ -10517,19 +10541,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="F151" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="G151" s="8">
         <v>149</v>
@@ -10561,19 +10585,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C152" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="F152" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="G152" s="8">
         <v>150</v>
@@ -10605,19 +10629,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C153" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="D153" s="64" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="F153" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="G153" s="8">
         <v>151</v>
@@ -10649,19 +10673,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C154" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D154" s="64" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="F154" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="G154" s="8">
         <v>152</v>
@@ -10693,19 +10717,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="C155" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="D155" s="64" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="F155" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="G155" s="8">
         <v>153</v>
@@ -10737,19 +10761,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="D156" s="64" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F156" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="G156" s="8">
         <v>154</v>
@@ -10781,19 +10805,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C157" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D157" s="64" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="F157" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="G157" s="8">
         <v>155</v>
@@ -10825,19 +10849,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="C158" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="D158" s="64" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="F158" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="G158" s="8">
         <v>156</v>
@@ -10869,19 +10893,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="C159" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F159" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="G159" s="8">
         <v>157</v>
@@ -10913,19 +10937,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="F160" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="G160" s="8">
         <v>158</v>
@@ -10957,19 +10981,19 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="F161" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="G161" s="8">
         <v>159</v>
@@ -11001,19 +11025,19 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="F162" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="G162" s="8">
         <v>160</v>
@@ -11045,19 +11069,19 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="F163" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="G163" s="8">
         <v>161</v>
@@ -11089,19 +11113,19 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="C164" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="D164" s="64" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="F164" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="G164" s="8">
         <v>162</v>
@@ -11133,19 +11157,19 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="C165" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="D165" s="64" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F165" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="G165" s="8">
         <v>163</v>
@@ -11177,19 +11201,19 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C166" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D166" s="64" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="F166" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="G166" s="8">
         <v>164</v>
@@ -11221,19 +11245,19 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="D167" s="64" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="F167" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="G167" s="8">
         <v>165</v>
@@ -11265,19 +11289,19 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="C168" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="D168" s="64" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="F168" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="G168" s="8">
         <v>166</v>
@@ -11309,19 +11333,19 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C169" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D169" s="64" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="F169" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="G169" s="8">
         <v>167</v>
@@ -11353,19 +11377,19 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D170" s="64" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="F170" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="G170" s="8">
         <v>168</v>
@@ -11389,6 +11413,132 @@
         <v>0</v>
       </c>
       <c r="N170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="78" t="s">
+        <v>693</v>
+      </c>
+      <c r="C171" s="78" t="s">
+        <v>693</v>
+      </c>
+      <c r="D171" s="80"/>
+      <c r="E171" s="78" t="s">
+        <v>696</v>
+      </c>
+      <c r="F171" s="78" t="s">
+        <v>699</v>
+      </c>
+      <c r="G171" s="8">
+        <v>169</v>
+      </c>
+      <c r="H171" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="K171" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L171" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" s="78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A172" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="78" t="s">
+        <v>694</v>
+      </c>
+      <c r="C172" s="78" t="s">
+        <v>694</v>
+      </c>
+      <c r="D172" s="80"/>
+      <c r="E172" s="78" t="s">
+        <v>697</v>
+      </c>
+      <c r="F172" s="78" t="s">
+        <v>700</v>
+      </c>
+      <c r="G172" s="8">
+        <v>170</v>
+      </c>
+      <c r="H172" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="K172" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" s="78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="78" t="s">
+        <v>695</v>
+      </c>
+      <c r="C173" s="78" t="s">
+        <v>695</v>
+      </c>
+      <c r="D173" s="80"/>
+      <c r="E173" s="78" t="s">
+        <v>698</v>
+      </c>
+      <c r="F173" s="78" t="s">
+        <v>701</v>
+      </c>
+      <c r="G173" s="8">
+        <v>171</v>
+      </c>
+      <c r="H173" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="K173" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" s="78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" s="78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11401,10 +11551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11685,7 +11835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -11702,341 +11852,353 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>743</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>743</v>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>744</v>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>745</v>
+      <c r="B21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>746</v>
+      <c r="B22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>747</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>747</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>747</v>
+      <c r="B23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>748</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>748</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>748</v>
+      <c r="B24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>104</v>
+      <c r="B26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
+      <c r="B27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>115</v>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>516</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>116</v>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>517</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>118</v>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>519</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>119</v>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>520</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>120</v>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>521</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>121</v>
+        <v>22</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>522</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>544</v>
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>531</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>23</v>
@@ -12048,31 +12210,33 @@
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>545</v>
+      <c r="B38" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>530</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>546</v>
+      <c r="B39" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>535</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>23</v>
@@ -12084,14 +12248,14 @@
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>547</v>
+      <c r="B40" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>536</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>
@@ -12103,17 +12267,17 @@
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>548</v>
+      <c r="B41" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>552</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -12122,14 +12286,14 @@
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>549</v>
+      <c r="B42" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>705</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>22</v>
@@ -12141,17 +12305,17 @@
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>550</v>
+      <c r="B43" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>706</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -12160,17 +12324,17 @@
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>559</v>
+      <c r="B44" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -12179,17 +12343,17 @@
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>558</v>
+      <c r="B45" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>708</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -12198,17 +12362,17 @@
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>563</v>
+      <c r="B46" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>709</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -12217,14 +12381,14 @@
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>564</v>
+      <c r="B47" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="E47" s="56" t="s">
+        <v>710</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
@@ -12237,13 +12401,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>580</v>
+        <v>711</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>580</v>
+        <v>711</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>580</v>
+        <v>711</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
@@ -12256,13 +12420,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>733</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>733</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>23</v>
@@ -12273,13 +12437,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>735</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>735</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>151</v>
+        <v>736</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>23</v>
@@ -12290,13 +12454,13 @@
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>159</v>
+        <v>737</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>159</v>
+        <v>737</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>156</v>
+        <v>738</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
@@ -12307,13 +12471,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>175</v>
+        <v>739</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>175</v>
+        <v>739</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>160</v>
+        <v>740</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>23</v>
@@ -12324,13 +12488,13 @@
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>176</v>
+        <v>741</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>176</v>
+        <v>741</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>23</v>
@@ -12341,13 +12505,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>177</v>
+        <v>743</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>177</v>
+        <v>743</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>162</v>
+        <v>744</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>23</v>
@@ -12358,13 +12522,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>178</v>
+        <v>745</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>178</v>
+        <v>745</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>163</v>
+        <v>746</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>23</v>
@@ -12375,13 +12539,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>23</v>
@@ -12392,13 +12556,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>23</v>
@@ -12409,13 +12573,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>23</v>
@@ -12426,13 +12590,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>23</v>
@@ -12443,13 +12607,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -12460,13 +12624,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -12477,13 +12641,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -12494,13 +12658,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -12511,13 +12675,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -12528,13 +12692,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -12545,13 +12709,13 @@
         <v>11</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -12562,13 +12726,13 @@
         <v>11</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -12579,13 +12743,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -12596,13 +12760,13 @@
         <v>11</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -12613,13 +12777,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -12630,13 +12794,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -12647,13 +12811,13 @@
         <v>11</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -12664,13 +12828,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C73" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="E73" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -12681,13 +12845,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="E74" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -12698,13 +12862,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="E75" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -12715,13 +12879,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -12732,13 +12896,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="E77" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -12749,13 +12913,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="E78" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -12766,13 +12930,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E79" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -12783,13 +12947,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="E80" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -12800,13 +12964,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="E81" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -12817,13 +12981,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="E82" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>22</v>
@@ -12834,13 +12998,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="E83" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>22</v>
@@ -12851,13 +13015,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E84" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>23</v>
@@ -12868,13 +13032,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="E85" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>23</v>
@@ -12885,13 +13049,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C86" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>23</v>
@@ -12902,13 +13066,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E87" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -12919,13 +13083,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -12936,13 +13100,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E89" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>23</v>
@@ -12953,13 +13117,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="E90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>23</v>
@@ -12970,13 +13134,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="E91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>23</v>
@@ -12987,13 +13151,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C92" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>23</v>
@@ -13004,13 +13168,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C93" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="E93" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>23</v>
@@ -13021,13 +13185,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="C94" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="E94" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>23</v>
@@ -13038,13 +13202,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -13055,13 +13219,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -13072,13 +13236,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -13089,13 +13253,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -13106,13 +13270,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -13123,13 +13287,13 @@
         <v>11</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -13140,13 +13304,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="C101" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="E101" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -13157,13 +13321,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -13174,13 +13338,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -13191,13 +13355,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -13208,13 +13372,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -13225,13 +13389,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="E106" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -13242,13 +13406,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -13259,13 +13423,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -13276,13 +13440,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E109" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -13293,13 +13457,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="E110" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -13310,13 +13474,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -13327,13 +13491,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -13344,13 +13508,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="E113" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>23</v>
@@ -13361,13 +13525,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E114" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>23</v>
@@ -13378,13 +13542,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="E115" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -13395,13 +13559,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -13412,13 +13576,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E117" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -13429,13 +13593,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E118" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -13446,13 +13610,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -13463,13 +13627,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E120" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -13480,13 +13644,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E121" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -13497,13 +13661,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -13514,13 +13678,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -13531,13 +13695,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -13548,13 +13712,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="E125" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -13565,13 +13729,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="E126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -13582,13 +13746,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="E127" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -13599,13 +13763,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -13616,13 +13780,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E129" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -13633,13 +13797,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="E130" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -13650,13 +13814,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="E131" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -13667,13 +13831,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C132" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -13684,13 +13848,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C133" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -13701,13 +13865,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -13718,13 +13882,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="E135" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -13735,13 +13899,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C136" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -13752,13 +13916,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -13769,13 +13933,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="E138" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -13786,13 +13950,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C139" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E139" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -13803,13 +13967,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -13820,13 +13984,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C141" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -13837,13 +14001,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="C142" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -13854,13 +14018,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C143" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E143" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -13871,13 +14035,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="E144" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -13888,13 +14052,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="E145" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -13905,13 +14069,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E146" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -13922,13 +14086,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="E147" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -13939,13 +14103,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="C148" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="E148" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -13956,13 +14120,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="C149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="E149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -13973,13 +14137,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="E150" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -13990,13 +14154,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="E151" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -14007,13 +14171,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C152" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="E152" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -14024,13 +14188,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C153" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="E153" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -14041,13 +14205,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C154" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="E154" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -14058,13 +14222,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="C155" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="E155" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -14075,13 +14239,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="E156" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -14092,13 +14256,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C157" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="E157" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -14109,13 +14273,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="C158" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E158" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -14126,13 +14290,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="C159" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E159" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -14143,13 +14307,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="E160" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -14160,13 +14324,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="E161" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -14177,13 +14341,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="E162" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>22</v>
@@ -14194,13 +14358,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E163" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>22</v>
@@ -14211,13 +14375,13 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="C164" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="E164" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>22</v>
@@ -14228,13 +14392,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="C165" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="E165" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>22</v>
@@ -14245,13 +14409,13 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C166" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="E166" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>22</v>
@@ -14262,13 +14426,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="E167" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>22</v>
@@ -14279,13 +14443,13 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="C168" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E168" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>22</v>
@@ -14296,13 +14460,13 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C169" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="E169" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>22</v>
@@ -14313,15 +14477,69 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E170" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="F170" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="C171" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="D171" s="78"/>
+      <c r="E171" s="78" t="s">
+        <v>693</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A172" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="78" t="s">
+        <v>703</v>
+      </c>
+      <c r="C172" s="78" t="s">
+        <v>703</v>
+      </c>
+      <c r="D172" s="78"/>
+      <c r="E172" s="78" t="s">
+        <v>694</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="78" t="s">
+        <v>704</v>
+      </c>
+      <c r="C173" s="78" t="s">
+        <v>704</v>
+      </c>
+      <c r="D173" s="78"/>
+      <c r="E173" s="78" t="s">
+        <v>695</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2145,9 +2145,6 @@
 L’indicatore è il rapporto tra (importo a sofferenza SISTEMA – importo a sofferenza GRUPPO ISP) e MAX(accordato operativo totale, utilizzato totale) </t>
   </si>
   <si>
-    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo ricavata dal bilancio consolidato o dal MOL.</t>
-  </si>
-  <si>
     <t>Il colore del modulo "Dati di Mercato" è dato dal SECONDO peggiore tra i semafori di categoria calcolati per EQUITY, CDS e BOND a seconda dei valori assunti dagli indicatori EDF_ImpliedRating, Bond_ImpliedRating e CDS_ImpliedRating</t>
   </si>
   <si>
@@ -2208,63 +2205,42 @@
     <t>FITCH_07</t>
   </si>
   <si>
-    <t>Delta patrimonio netto</t>
-  </si>
-  <si>
     <t>IND_37</t>
   </si>
   <si>
     <t>37 - Delta patrimonio netto</t>
   </si>
   <si>
-    <t>Delta utile lordo</t>
-  </si>
-  <si>
     <t>IND_38</t>
   </si>
   <si>
     <t>38 - Delta utile lordo</t>
   </si>
   <si>
-    <t>Leverage patrimonio tangibile</t>
-  </si>
-  <si>
     <t>IND_39</t>
   </si>
   <si>
     <t>39 - Leverage patrimonio tangibile</t>
   </si>
   <si>
-    <t>Patrimonio netto tempo t</t>
-  </si>
-  <si>
     <t>IND_40</t>
   </si>
   <si>
     <t>40 - Patrimonio netto tempo t</t>
   </si>
   <si>
-    <t>Utile lordo tempo t</t>
-  </si>
-  <si>
     <t>IND_41</t>
   </si>
   <si>
     <t>41 - Utile lordo tempo t</t>
   </si>
   <si>
-    <t>Rating interno</t>
-  </si>
-  <si>
     <t>IND_42</t>
   </si>
   <si>
     <t>42 - Rating interno</t>
   </si>
   <si>
-    <t>Rating Fitch</t>
-  </si>
-  <si>
     <t>IND_43</t>
   </si>
   <si>
@@ -2353,25 +2329,42 @@
   </si>
   <si>
     <t>09-Overdraft (Days)_fl_override</t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è fornire la variazione relativa del patrimonio netto all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di patrimonio netto (TOT_EQUITY_1 - TOT_EQUITY_2) e il valore assoluto del patrimonio netto al tempo t-1 (TOT_EQUITY_2)</t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è fornire la variazione relativa dell'utile lordo all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di utile lordo (PRE_TAX_PROFIT_1 - PRE_TAX_PROFIT_2) e il valore assoluto dell'utile lordo al tempo t-1 (PRE_TAX_PROFIT_2)</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore del rapporto tra Patrimonio netto tangibile (patrimonio netto sottratti gli assets non tangibili) ed il Totale attivo tangibile (utile lordo sottratti gli assets non tangibili)</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore del Patrimonio netto all'ultima data disponibile (ultimo anno)</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato l'utile lordo all'ultima data disponibile (ultimo anno)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per il singolo SNDG viene riportato il codice relativo al suo rating interno relativo all'ultima data disponibile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per il singolo SNDG viene riportato il codice relativo al rating espresso dalla società di rating Fitch espresso in valore numerico su una scala da 1 a 20 (dove 1 corrisponde a AAA e 20 Default) relativo all'ultima data disponibile </t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2723,7 +2716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2753,8 +2746,14 @@
         <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2777,97 +2776,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,22 +2888,16 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,12 +2912,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3940,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G173"/>
+    <sheetView tabSelected="1" topLeftCell="D160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,7 +4235,7 @@
       <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="59" t="s">
         <v>553</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4342,7 +4367,7 @@
       <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="59" t="s">
         <v>556</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -4386,7 +4411,7 @@
       <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="59" t="s">
         <v>557</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4430,7 +4455,7 @@
       <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="59" t="s">
         <v>558</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -4474,7 +4499,7 @@
       <c r="C13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="59" t="s">
         <v>559</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -4518,7 +4543,7 @@
       <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="59" t="s">
         <v>560</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4562,7 +4587,7 @@
       <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="59" t="s">
         <v>561</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -4606,7 +4631,7 @@
       <c r="C16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="59" t="s">
         <v>562</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -4650,7 +4675,7 @@
       <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="59" t="s">
         <v>563</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4694,7 +4719,7 @@
       <c r="C18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>690</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -4738,7 +4763,7 @@
       <c r="C19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="59" t="s">
         <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -4782,7 +4807,7 @@
       <c r="C20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="59" t="s">
         <v>565</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -4826,7 +4851,7 @@
       <c r="C21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="59" t="s">
         <v>566</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -4870,10 +4895,10 @@
       <c r="C22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="65" t="s">
         <v>568</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="84" t="s">
         <v>131</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -5137,7 +5162,7 @@
       <c r="D28" s="59" t="s">
         <v>573</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="87" t="s">
         <v>137</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -5178,10 +5203,10 @@
       <c r="C29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="65" t="s">
         <v>574</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="84" t="s">
         <v>138</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -5222,10 +5247,10 @@
       <c r="C30" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>575</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="85" t="s">
         <v>507</v>
       </c>
       <c r="F30" s="47" t="s">
@@ -5530,7 +5555,7 @@
       <c r="C37" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="83" t="s">
         <v>582</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -5574,10 +5599,10 @@
       <c r="C38" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="84" t="s">
         <v>515</v>
       </c>
       <c r="F38" s="50" t="s">
@@ -5618,7 +5643,7 @@
       <c r="C39" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="82" t="s">
         <v>583</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -5662,7 +5687,7 @@
       <c r="C40" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="82" t="s">
         <v>584</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -5706,7 +5731,7 @@
       <c r="C41" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="82" t="s">
         <v>585</v>
       </c>
       <c r="E41" s="13" t="s">
@@ -5750,8 +5775,8 @@
       <c r="C42" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>691</v>
+      <c r="D42" s="83" t="s">
+        <v>760</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>550</v>
@@ -5789,19 +5814,19 @@
         <v>11</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>705</v>
-      </c>
-      <c r="D43" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>753</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="F43" s="55" t="s">
         <v>712</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>714</v>
       </c>
       <c r="G43" s="8">
         <v>41</v>
@@ -5833,19 +5858,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>706</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>715</v>
+        <v>705</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>754</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G44" s="8">
         <v>42</v>
@@ -5877,19 +5902,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>707</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>718</v>
+        <v>706</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>755</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F45" s="55" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G45" s="8">
         <v>43</v>
@@ -5921,19 +5946,19 @@
         <v>11</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>708</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>721</v>
+        <v>707</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>756</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G46" s="8">
         <v>44</v>
@@ -5965,19 +5990,19 @@
         <v>11</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>709</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>724</v>
+        <v>708</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>757</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G47" s="8">
         <v>45</v>
@@ -6009,19 +6034,19 @@
         <v>11</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>710</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>727</v>
+        <v>709</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>758</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="G48" s="8">
         <v>46</v>
@@ -6053,19 +6078,19 @@
         <v>11</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>711</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>730</v>
+        <v>710</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>759</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G49" s="8">
         <v>47</v>
@@ -6097,19 +6122,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>734</v>
+        <v>726</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>726</v>
       </c>
       <c r="E50" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G50" s="8">
         <v>48</v>
@@ -6141,19 +6166,19 @@
         <v>11</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>736</v>
+        <v>728</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>728</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G51" s="8">
         <v>49</v>
@@ -6185,19 +6210,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="D52" s="70" t="s">
-        <v>738</v>
+        <v>730</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>730</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G52" s="8">
         <v>50</v>
@@ -6229,19 +6254,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="D53" s="71" t="s">
-        <v>740</v>
+        <v>732</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>732</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G53" s="8">
         <v>51</v>
@@ -6273,19 +6298,19 @@
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54" s="71" t="s">
-        <v>742</v>
+        <v>734</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>734</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G54" s="8">
         <v>52</v>
@@ -6317,19 +6342,19 @@
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="D55" s="71" t="s">
-        <v>744</v>
+        <v>736</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>736</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G55" s="8">
         <v>53</v>
@@ -6361,19 +6386,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>746</v>
+        <v>738</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>738</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G56" s="8">
         <v>54</v>
@@ -6410,7 +6435,7 @@
       <c r="C57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="70" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -6498,7 +6523,7 @@
       <c r="C59" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="71" t="s">
         <v>160</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -6542,7 +6567,7 @@
       <c r="C60" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="72" t="s">
         <v>166</v>
       </c>
       <c r="E60" t="s">
@@ -6586,7 +6611,7 @@
       <c r="C61" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="73" t="s">
         <v>586</v>
       </c>
       <c r="E61" s="30" t="s">
@@ -6630,7 +6655,7 @@
       <c r="C62" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="73" t="s">
         <v>587</v>
       </c>
       <c r="E62" s="30" t="s">
@@ -6674,7 +6699,7 @@
       <c r="C63" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="73" t="s">
         <v>588</v>
       </c>
       <c r="E63" s="30" t="s">
@@ -6718,7 +6743,7 @@
       <c r="C64" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="73" t="s">
         <v>589</v>
       </c>
       <c r="E64" s="30" t="s">
@@ -6762,7 +6787,7 @@
       <c r="C65" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="73" t="s">
         <v>590</v>
       </c>
       <c r="E65" s="30" t="s">
@@ -6806,7 +6831,7 @@
       <c r="C66" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="74" t="s">
         <v>591</v>
       </c>
       <c r="E66" s="32" t="s">
@@ -6850,7 +6875,7 @@
       <c r="C67" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="75" t="s">
         <v>592</v>
       </c>
       <c r="E67" s="32" t="s">
@@ -6894,7 +6919,7 @@
       <c r="C68" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="75" t="s">
         <v>593</v>
       </c>
       <c r="E68" s="32" t="s">
@@ -6938,7 +6963,7 @@
       <c r="C69" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="76" t="s">
+      <c r="D69" s="75" t="s">
         <v>594</v>
       </c>
       <c r="E69" s="32" t="s">
@@ -7026,7 +7051,7 @@
       <c r="C71" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="76" t="s">
         <v>596</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -7070,7 +7095,7 @@
       <c r="C72" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="76" t="s">
         <v>597</v>
       </c>
       <c r="E72" s="39" t="s">
@@ -7730,10 +7755,10 @@
       <c r="C87" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="64" t="s">
+      <c r="D87" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="86" t="s">
         <v>352</v>
       </c>
       <c r="F87" t="s">
@@ -7907,7 +7932,7 @@
         <v>364</v>
       </c>
       <c r="D91" s="64" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E91" s="42" t="s">
         <v>356</v>
@@ -8082,7 +8107,7 @@
       <c r="C95" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D95" s="73" t="s">
         <v>614</v>
       </c>
       <c r="E95" s="30" t="s">
@@ -8126,7 +8151,7 @@
       <c r="C96" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="73" t="s">
         <v>615</v>
       </c>
       <c r="E96" s="30" t="s">
@@ -8170,7 +8195,7 @@
       <c r="C97" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D97" s="74" t="s">
+      <c r="D97" s="73" t="s">
         <v>616</v>
       </c>
       <c r="E97" s="30" t="s">
@@ -8214,7 +8239,7 @@
       <c r="C98" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="73" t="s">
         <v>617</v>
       </c>
       <c r="E98" s="30" t="s">
@@ -8258,7 +8283,7 @@
       <c r="C99" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="74" t="s">
+      <c r="D99" s="73" t="s">
         <v>618</v>
       </c>
       <c r="E99" s="30" t="s">
@@ -8302,7 +8327,7 @@
       <c r="C100" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D100" s="74" t="s">
+      <c r="D100" s="73" t="s">
         <v>619</v>
       </c>
       <c r="E100" s="30" t="s">
@@ -11417,128 +11442,128 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="78" t="s">
-        <v>693</v>
-      </c>
-      <c r="C171" s="78" t="s">
-        <v>693</v>
-      </c>
-      <c r="D171" s="80"/>
-      <c r="E171" s="78" t="s">
-        <v>696</v>
-      </c>
-      <c r="F171" s="78" t="s">
-        <v>699</v>
+      <c r="A171" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="C171" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="D171" s="79"/>
+      <c r="E171" s="77" t="s">
+        <v>695</v>
+      </c>
+      <c r="F171" s="77" t="s">
+        <v>698</v>
       </c>
       <c r="G171" s="8">
         <v>169</v>
       </c>
-      <c r="H171" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I171" s="81" t="b">
+      <c r="H171" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="J171" s="81" t="s">
+      <c r="J171" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K171" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="L171" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N171" s="78" t="b">
+      <c r="K171" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L171" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" s="77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="78" t="s">
-        <v>694</v>
-      </c>
-      <c r="C172" s="78" t="s">
-        <v>694</v>
-      </c>
-      <c r="D172" s="80"/>
-      <c r="E172" s="78" t="s">
-        <v>697</v>
-      </c>
-      <c r="F172" s="78" t="s">
-        <v>700</v>
+      <c r="A172" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C172" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="D172" s="79"/>
+      <c r="E172" s="77" t="s">
+        <v>696</v>
+      </c>
+      <c r="F172" s="77" t="s">
+        <v>699</v>
       </c>
       <c r="G172" s="8">
         <v>170</v>
       </c>
-      <c r="H172" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I172" s="81" t="b">
+      <c r="H172" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="J172" s="81" t="s">
+      <c r="J172" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K172" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="L172" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" s="78" t="b">
+      <c r="K172" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" s="77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="78" t="s">
-        <v>695</v>
-      </c>
-      <c r="C173" s="78" t="s">
-        <v>695</v>
-      </c>
-      <c r="D173" s="80"/>
-      <c r="E173" s="78" t="s">
-        <v>698</v>
-      </c>
-      <c r="F173" s="78" t="s">
-        <v>701</v>
+      <c r="A173" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="77" t="s">
+        <v>694</v>
+      </c>
+      <c r="C173" s="77" t="s">
+        <v>694</v>
+      </c>
+      <c r="D173" s="79"/>
+      <c r="E173" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="F173" s="77" t="s">
+        <v>700</v>
       </c>
       <c r="G173" s="8">
         <v>171</v>
       </c>
-      <c r="H173" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I173" s="81" t="b">
+      <c r="H173" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="J173" s="81" t="s">
+      <c r="J173" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K173" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="L173" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" s="78" t="b">
+      <c r="K173" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" s="77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12287,13 +12312,13 @@
         <v>11</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>22</v>
@@ -12306,13 +12331,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>22</v>
@@ -12325,13 +12350,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>22</v>
@@ -12344,13 +12369,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>22</v>
@@ -12363,13 +12388,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>22</v>
@@ -12382,13 +12407,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
@@ -12401,13 +12426,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
@@ -12420,13 +12445,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C49" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>23</v>
@@ -12437,13 +12462,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C50" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>23</v>
@@ -12454,13 +12479,13 @@
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
@@ -12471,13 +12496,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>23</v>
@@ -12488,13 +12513,13 @@
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>23</v>
@@ -12505,13 +12530,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>23</v>
@@ -12522,13 +12547,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>23</v>
@@ -14490,54 +14515,54 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="C171" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="D171" s="78"/>
-      <c r="E171" s="78" t="s">
-        <v>693</v>
+      <c r="A171" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="77" t="s">
+        <v>701</v>
+      </c>
+      <c r="C171" s="77" t="s">
+        <v>701</v>
+      </c>
+      <c r="D171" s="77"/>
+      <c r="E171" s="77" t="s">
+        <v>692</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="78" t="s">
-        <v>703</v>
-      </c>
-      <c r="C172" s="78" t="s">
-        <v>703</v>
-      </c>
-      <c r="D172" s="78"/>
-      <c r="E172" s="78" t="s">
-        <v>694</v>
+      <c r="A172" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="77" t="s">
+        <v>702</v>
+      </c>
+      <c r="C172" s="77" t="s">
+        <v>702</v>
+      </c>
+      <c r="D172" s="77"/>
+      <c r="E172" s="77" t="s">
+        <v>693</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="78" t="s">
-        <v>704</v>
-      </c>
-      <c r="C173" s="78" t="s">
-        <v>704</v>
-      </c>
-      <c r="D173" s="78"/>
-      <c r="E173" s="78" t="s">
-        <v>695</v>
+      <c r="A173" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="77" t="s">
+        <v>703</v>
+      </c>
+      <c r="C173" s="77" t="s">
+        <v>703</v>
+      </c>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77" t="s">
+        <v>694</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>22</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,9 +290,6 @@
     <t>TARGET_STRING</t>
   </si>
   <si>
-    <t>Target Default (6 months)</t>
-  </si>
-  <si>
     <t>10-Protest of bills or checks</t>
   </si>
   <si>
@@ -2354,17 +2351,27 @@
   <si>
     <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo.</t>
   </si>
+  <si>
+    <t>Target Default (3 months)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2792,95 +2799,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2888,16 +2892,22 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2912,31 +2922,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,6 +3784,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3811,6 +3836,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3965,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,19 +4076,19 @@
         <v>7</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -4078,7 +4120,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
@@ -4098,19 +4140,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="8">
         <v>2</v>
@@ -4122,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
@@ -4153,8 +4195,8 @@
       <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>81</v>
+      <c r="F5" s="89" t="s">
+        <v>760</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
@@ -4166,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -4186,19 +4228,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -4210,7 +4252,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -4236,10 +4278,10 @@
         <v>51</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -4254,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
@@ -4280,10 +4322,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>44</v>
@@ -4298,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
@@ -4324,10 +4366,10 @@
         <v>53</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>45</v>
@@ -4342,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
@@ -4368,10 +4410,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>46</v>
@@ -4386,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -4412,10 +4454,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>47</v>
@@ -4430,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -4456,10 +4498,10 @@
         <v>56</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>48</v>
@@ -4474,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
@@ -4500,10 +4542,10 @@
         <v>57</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>49</v>
@@ -4518,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
@@ -4544,10 +4586,10 @@
         <v>58</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>50</v>
@@ -4562,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
@@ -4588,13 +4630,13 @@
         <v>59</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="8">
         <v>13</v>
@@ -4606,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
@@ -4632,13 +4674,13 @@
         <v>60</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="8">
         <v>14</v>
@@ -4650,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
@@ -4676,13 +4718,13 @@
         <v>61</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8">
         <v>15</v>
@@ -4694,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
@@ -4720,13 +4762,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="G18" s="8">
         <v>16</v>
@@ -4738,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
@@ -4764,13 +4806,13 @@
         <v>62</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="8">
         <v>17</v>
@@ -4782,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
@@ -4808,13 +4850,13 @@
         <v>64</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="8">
         <v>18</v>
@@ -4826,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
@@ -4846,19 +4888,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="8">
         <v>19</v>
@@ -4870,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>13</v>
@@ -4890,19 +4932,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="8">
         <v>20</v>
@@ -4914,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>13</v>
@@ -4934,19 +4976,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="8">
         <v>21</v>
@@ -4958,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>13</v>
@@ -4978,19 +5020,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="8">
         <v>22</v>
@@ -5002,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>13</v>
@@ -5022,19 +5064,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="8">
         <v>23</v>
@@ -5046,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>13</v>
@@ -5066,19 +5108,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="8">
         <v>24</v>
@@ -5090,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>13</v>
@@ -5110,19 +5152,19 @@
         <v>11</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="8">
         <v>25</v>
@@ -5134,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>13</v>
@@ -5154,19 +5196,19 @@
         <v>11</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" s="8">
         <v>26</v>
@@ -5178,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>13</v>
@@ -5198,19 +5240,19 @@
         <v>11</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="8">
         <v>27</v>
@@ -5222,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>13</v>
@@ -5242,19 +5284,19 @@
         <v>11</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G30" s="8">
         <v>28</v>
@@ -5266,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>13</v>
@@ -5286,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G31" s="8">
         <v>29</v>
@@ -5310,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
@@ -5330,19 +5372,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G32" s="8">
         <v>30</v>
@@ -5354,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>13</v>
@@ -5374,19 +5416,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G33" s="8">
         <v>31</v>
@@ -5398,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>13</v>
@@ -5418,19 +5460,19 @@
         <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G34" s="8">
         <v>32</v>
@@ -5442,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>13</v>
@@ -5462,19 +5504,19 @@
         <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G35" s="8">
         <v>33</v>
@@ -5486,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
@@ -5506,19 +5548,19 @@
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G36" s="8">
         <v>34</v>
@@ -5530,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>13</v>
@@ -5550,19 +5592,19 @@
         <v>11</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G37" s="8">
         <v>35</v>
@@ -5574,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>13</v>
@@ -5594,19 +5636,19 @@
         <v>11</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G38" s="8">
         <v>36</v>
@@ -5618,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>13</v>
@@ -5638,19 +5680,19 @@
         <v>11</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G39" s="8">
         <v>37</v>
@@ -5662,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>13</v>
@@ -5682,19 +5724,19 @@
         <v>11</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G40" s="8">
         <v>38</v>
@@ -5706,7 +5748,7 @@
         <v>12</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>13</v>
@@ -5726,19 +5768,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G41" s="8">
         <v>39</v>
@@ -5750,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>13</v>
@@ -5770,19 +5812,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>550</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>551</v>
       </c>
       <c r="G42" s="8">
         <v>40</v>
@@ -5794,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>12</v>
@@ -5814,19 +5856,19 @@
         <v>11</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E43" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="F43" s="55" t="s">
         <v>711</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>712</v>
       </c>
       <c r="G43" s="8">
         <v>41</v>
@@ -5838,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
@@ -5858,19 +5900,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="F44" s="55" t="s">
         <v>713</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>714</v>
       </c>
       <c r="G44" s="8">
         <v>42</v>
@@ -5882,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
@@ -5902,19 +5944,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="F45" s="55" t="s">
         <v>715</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>716</v>
       </c>
       <c r="G45" s="8">
         <v>43</v>
@@ -5926,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
@@ -5946,19 +5988,19 @@
         <v>11</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E46" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F46" s="55" t="s">
         <v>717</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>718</v>
       </c>
       <c r="G46" s="8">
         <v>44</v>
@@ -5970,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
@@ -5990,19 +6032,19 @@
         <v>11</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E47" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="F47" s="55" t="s">
         <v>719</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>720</v>
       </c>
       <c r="G47" s="8">
         <v>45</v>
@@ -6014,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
@@ -6034,19 +6076,19 @@
         <v>11</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E48" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="F48" s="55" t="s">
         <v>721</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>722</v>
       </c>
       <c r="G48" s="8">
         <v>46</v>
@@ -6058,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>13</v>
@@ -6078,19 +6120,19 @@
         <v>11</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E49" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F49" s="55" t="s">
         <v>723</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>724</v>
       </c>
       <c r="G49" s="8">
         <v>47</v>
@@ -6102,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>12</v>
@@ -6122,19 +6164,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>739</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>740</v>
       </c>
       <c r="G50" s="8">
         <v>48</v>
@@ -6146,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>13</v>
@@ -6166,19 +6208,19 @@
         <v>11</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E51" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>741</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>742</v>
       </c>
       <c r="G51" s="8">
         <v>49</v>
@@ -6190,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>13</v>
@@ -6210,19 +6252,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E52" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>743</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>744</v>
       </c>
       <c r="G52" s="8">
         <v>50</v>
@@ -6234,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>13</v>
@@ -6254,19 +6296,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>746</v>
       </c>
       <c r="G53" s="8">
         <v>51</v>
@@ -6278,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>13</v>
@@ -6298,19 +6340,19 @@
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E54" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>747</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>748</v>
       </c>
       <c r="G54" s="8">
         <v>52</v>
@@ -6322,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>13</v>
@@ -6342,19 +6384,19 @@
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E55" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>749</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>750</v>
       </c>
       <c r="G55" s="8">
         <v>53</v>
@@ -6366,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>13</v>
@@ -6386,19 +6428,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>752</v>
       </c>
       <c r="G56" s="8">
         <v>54</v>
@@ -6410,7 +6452,7 @@
         <v>12</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>13</v>
@@ -6430,19 +6472,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="G57" s="8">
         <v>55</v>
@@ -6454,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>13</v>
@@ -6474,19 +6516,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="C58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="G58" s="8">
         <v>56</v>
@@ -6498,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>13</v>
@@ -6518,19 +6560,19 @@
         <v>11</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E59" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="G59" s="8">
         <v>57</v>
@@ -6542,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>13</v>
@@ -6562,19 +6604,19 @@
         <v>11</v>
       </c>
       <c r="B60" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>167</v>
       </c>
       <c r="G60" s="8">
         <v>58</v>
@@ -6586,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>12</v>
@@ -6606,19 +6648,19 @@
         <v>11</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61" s="8">
         <v>59</v>
@@ -6630,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>12</v>
@@ -6650,19 +6692,19 @@
         <v>11</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G62" s="8">
         <v>60</v>
@@ -6674,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>12</v>
@@ -6694,19 +6736,19 @@
         <v>11</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G63" s="8">
         <v>61</v>
@@ -6718,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>12</v>
@@ -6738,19 +6780,19 @@
         <v>11</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G64" s="8">
         <v>62</v>
@@ -6762,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>12</v>
@@ -6782,19 +6824,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G65" s="8">
         <v>63</v>
@@ -6806,7 +6848,7 @@
         <v>12</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>12</v>
@@ -6826,19 +6868,19 @@
         <v>11</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>590</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="33" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="74" t="s">
-        <v>591</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>204</v>
       </c>
       <c r="G66" s="8">
         <v>64</v>
@@ -6850,7 +6892,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>12</v>
@@ -6870,19 +6912,19 @@
         <v>11</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G67" s="8">
         <v>65</v>
@@ -6894,7 +6936,7 @@
         <v>12</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>12</v>
@@ -6914,19 +6956,19 @@
         <v>11</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G68" s="8">
         <v>66</v>
@@ -6938,7 +6980,7 @@
         <v>12</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>12</v>
@@ -6958,19 +7000,19 @@
         <v>11</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G69" s="8">
         <v>67</v>
@@ -6982,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>12</v>
@@ -7002,19 +7044,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G70" s="8">
         <v>68</v>
@@ -7026,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>12</v>
@@ -7046,19 +7088,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E71" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71" s="40" t="s">
         <v>313</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>314</v>
       </c>
       <c r="G71" s="8">
         <v>69</v>
@@ -7070,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>12</v>
@@ -7090,19 +7132,19 @@
         <v>11</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72" s="8">
         <v>70</v>
@@ -7114,7 +7156,7 @@
         <v>12</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>12</v>
@@ -7134,19 +7176,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F73" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G73" s="8">
         <v>71</v>
@@ -7158,7 +7200,7 @@
         <v>12</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>12</v>
@@ -7178,19 +7220,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G74" s="8">
         <v>72</v>
@@ -7202,7 +7244,7 @@
         <v>12</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>12</v>
@@ -7222,19 +7264,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G75" s="8">
         <v>73</v>
@@ -7246,7 +7288,7 @@
         <v>12</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>12</v>
@@ -7266,19 +7308,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G76" s="8">
         <v>74</v>
@@ -7290,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>12</v>
@@ -7310,19 +7352,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G77" s="8">
         <v>75</v>
@@ -7334,7 +7376,7 @@
         <v>12</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>12</v>
@@ -7354,19 +7396,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G78" s="8">
         <v>76</v>
@@ -7378,7 +7420,7 @@
         <v>12</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>12</v>
@@ -7398,19 +7440,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G79" s="8">
         <v>77</v>
@@ -7422,7 +7464,7 @@
         <v>12</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>12</v>
@@ -7442,19 +7484,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G80" s="8">
         <v>78</v>
@@ -7466,7 +7508,7 @@
         <v>12</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>12</v>
@@ -7486,19 +7528,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G81" s="8">
         <v>79</v>
@@ -7510,7 +7552,7 @@
         <v>12</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>12</v>
@@ -7530,19 +7572,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G82" s="8">
         <v>80</v>
@@ -7554,7 +7596,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>12</v>
@@ -7574,19 +7616,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G83" s="8">
         <v>81</v>
@@ -7598,7 +7640,7 @@
         <v>12</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>12</v>
@@ -7618,19 +7660,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G84" s="8">
         <v>82</v>
@@ -7642,7 +7684,7 @@
         <v>12</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>13</v>
@@ -7662,19 +7704,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G85" s="8">
         <v>83</v>
@@ -7686,7 +7728,7 @@
         <v>12</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>13</v>
@@ -7706,19 +7748,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F86" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G86" s="8">
         <v>84</v>
@@ -7730,7 +7772,7 @@
         <v>12</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>13</v>
@@ -7750,19 +7792,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D87" s="88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E87" s="86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G87" s="8">
         <v>85</v>
@@ -7774,7 +7816,7 @@
         <v>12</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>12</v>
@@ -7794,19 +7836,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D88" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G88" s="8">
         <v>86</v>
@@ -7818,7 +7860,7 @@
         <v>12</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>12</v>
@@ -7838,19 +7880,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D89" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G89" s="8">
         <v>87</v>
@@ -7862,7 +7904,7 @@
         <v>12</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>13</v>
@@ -7882,19 +7924,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G90" s="8">
         <v>88</v>
@@ -7906,7 +7948,7 @@
         <v>12</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>13</v>
@@ -7926,19 +7968,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D91" s="64" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G91" s="8">
         <v>89</v>
@@ -7950,7 +7992,7 @@
         <v>12</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>13</v>
@@ -7970,19 +8012,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D92" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G92" s="8">
         <v>90</v>
@@ -7994,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>13</v>
@@ -8014,19 +8056,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G93" s="8">
         <v>91</v>
@@ -8038,7 +8080,7 @@
         <v>12</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>13</v>
@@ -8058,19 +8100,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G94" s="8">
         <v>92</v>
@@ -8082,7 +8124,7 @@
         <v>12</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>13</v>
@@ -8102,19 +8144,19 @@
         <v>11</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D95" s="73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G95" s="8">
         <v>93</v>
@@ -8126,7 +8168,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>12</v>
@@ -8146,19 +8188,19 @@
         <v>11</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D96" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G96" s="8">
         <v>94</v>
@@ -8170,7 +8212,7 @@
         <v>12</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>12</v>
@@ -8190,19 +8232,19 @@
         <v>11</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D97" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G97" s="8">
         <v>95</v>
@@ -8214,7 +8256,7 @@
         <v>12</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>12</v>
@@ -8234,19 +8276,19 @@
         <v>11</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D98" s="73" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G98" s="8">
         <v>96</v>
@@ -8258,7 +8300,7 @@
         <v>12</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>12</v>
@@ -8278,19 +8320,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D99" s="73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G99" s="8">
         <v>97</v>
@@ -8302,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>12</v>
@@ -8322,19 +8364,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D100" s="73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G100" s="8">
         <v>98</v>
@@ -8346,7 +8388,7 @@
         <v>12</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>12</v>
@@ -8366,19 +8408,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" s="36" t="s">
         <v>218</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F101" s="36" t="s">
-        <v>219</v>
       </c>
       <c r="G101" s="8">
         <v>99</v>
@@ -8390,7 +8432,7 @@
         <v>12</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>12</v>
@@ -8410,19 +8452,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D102" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102" s="8">
         <v>100</v>
@@ -8434,7 +8476,7 @@
         <v>12</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>12</v>
@@ -8454,19 +8496,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" s="64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G103" s="8">
         <v>101</v>
@@ -8478,7 +8520,7 @@
         <v>12</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>12</v>
@@ -8498,19 +8540,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D104" s="64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G104" s="8">
         <v>102</v>
@@ -8522,7 +8564,7 @@
         <v>12</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>12</v>
@@ -8542,19 +8584,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D105" s="64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G105" s="8">
         <v>103</v>
@@ -8566,7 +8608,7 @@
         <v>12</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>12</v>
@@ -8586,19 +8628,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" s="64" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G106" s="8">
         <v>104</v>
@@ -8610,7 +8652,7 @@
         <v>12</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>12</v>
@@ -8630,19 +8672,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="64" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G107" s="8">
         <v>105</v>
@@ -8654,7 +8696,7 @@
         <v>12</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>12</v>
@@ -8674,19 +8716,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G108" s="8">
         <v>106</v>
@@ -8698,7 +8740,7 @@
         <v>12</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>12</v>
@@ -8718,19 +8760,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G109" s="8">
         <v>107</v>
@@ -8742,7 +8784,7 @@
         <v>12</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>12</v>
@@ -8762,19 +8804,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G110" s="8">
         <v>108</v>
@@ -8786,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>12</v>
@@ -8806,19 +8848,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G111" s="8">
         <v>109</v>
@@ -8830,7 +8872,7 @@
         <v>12</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>12</v>
@@ -8850,19 +8892,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G112" s="8">
         <v>110</v>
@@ -8874,7 +8916,7 @@
         <v>12</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>12</v>
@@ -8894,19 +8936,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G113" s="8">
         <v>111</v>
@@ -8918,7 +8960,7 @@
         <v>12</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>13</v>
@@ -8938,19 +8980,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G114" s="8">
         <v>112</v>
@@ -8962,7 +9004,7 @@
         <v>12</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>13</v>
@@ -8982,19 +9024,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G115" s="8">
         <v>113</v>
@@ -9006,7 +9048,7 @@
         <v>12</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>12</v>
@@ -9026,19 +9068,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G116" s="8">
         <v>114</v>
@@ -9050,7 +9092,7 @@
         <v>12</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>12</v>
@@ -9070,19 +9112,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G117" s="8">
         <v>115</v>
@@ -9094,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>12</v>
@@ -9114,19 +9156,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F118" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G118" s="8">
         <v>116</v>
@@ -9138,7 +9180,7 @@
         <v>12</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>12</v>
@@ -9158,19 +9200,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F119" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G119" s="8">
         <v>117</v>
@@ -9182,7 +9224,7 @@
         <v>12</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>12</v>
@@ -9202,19 +9244,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G120" s="8">
         <v>118</v>
@@ -9226,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>12</v>
@@ -9246,19 +9288,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G121" s="8">
         <v>119</v>
@@ -9270,7 +9312,7 @@
         <v>12</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>12</v>
@@ -9290,19 +9332,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G122" s="8">
         <v>120</v>
@@ -9314,7 +9356,7 @@
         <v>12</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>12</v>
@@ -9334,19 +9376,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G123" s="8">
         <v>121</v>
@@ -9358,7 +9400,7 @@
         <v>12</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>12</v>
@@ -9378,19 +9420,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G124" s="8">
         <v>122</v>
@@ -9402,7 +9444,7 @@
         <v>12</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>12</v>
@@ -9422,19 +9464,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D125" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G125" s="8">
         <v>123</v>
@@ -9446,7 +9488,7 @@
         <v>12</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>12</v>
@@ -9466,19 +9508,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G126" s="8">
         <v>124</v>
@@ -9490,7 +9532,7 @@
         <v>12</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>12</v>
@@ -9510,19 +9552,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G127" s="8">
         <v>125</v>
@@ -9534,7 +9576,7 @@
         <v>12</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>12</v>
@@ -9554,19 +9596,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G128" s="8">
         <v>126</v>
@@ -9578,7 +9620,7 @@
         <v>12</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>12</v>
@@ -9598,19 +9640,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G129" s="8">
         <v>127</v>
@@ -9622,7 +9664,7 @@
         <v>12</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>12</v>
@@ -9642,19 +9684,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G130" s="8">
         <v>128</v>
@@ -9666,7 +9708,7 @@
         <v>12</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>12</v>
@@ -9686,19 +9728,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D131" s="64" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G131" s="8">
         <v>129</v>
@@ -9710,7 +9752,7 @@
         <v>12</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>12</v>
@@ -9730,19 +9772,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G132" s="8">
         <v>130</v>
@@ -9754,7 +9796,7 @@
         <v>12</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>12</v>
@@ -9774,19 +9816,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G133" s="8">
         <v>131</v>
@@ -9798,7 +9840,7 @@
         <v>12</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>12</v>
@@ -9818,19 +9860,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F134" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G134" s="8">
         <v>132</v>
@@ -9842,7 +9884,7 @@
         <v>12</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>12</v>
@@ -9862,19 +9904,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F135" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G135" s="8">
         <v>133</v>
@@ -9886,7 +9928,7 @@
         <v>12</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K135" s="7" t="s">
         <v>12</v>
@@ -9906,19 +9948,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G136" s="8">
         <v>134</v>
@@ -9930,7 +9972,7 @@
         <v>12</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K136" s="7" t="s">
         <v>12</v>
@@ -9950,19 +9992,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F137" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G137" s="8">
         <v>135</v>
@@ -9974,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>12</v>
@@ -9994,19 +10036,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F138" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G138" s="8">
         <v>136</v>
@@ -10018,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>12</v>
@@ -10038,19 +10080,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G139" s="8">
         <v>137</v>
@@ -10062,7 +10104,7 @@
         <v>12</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>12</v>
@@ -10082,19 +10124,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F140" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G140" s="8">
         <v>138</v>
@@ -10106,7 +10148,7 @@
         <v>12</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>12</v>
@@ -10126,19 +10168,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F141" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G141" s="8">
         <v>139</v>
@@ -10150,7 +10192,7 @@
         <v>12</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>12</v>
@@ -10170,19 +10212,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F142" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G142" s="8">
         <v>140</v>
@@ -10194,7 +10236,7 @@
         <v>12</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K142" s="7" t="s">
         <v>12</v>
@@ -10214,19 +10256,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F143" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G143" s="8">
         <v>141</v>
@@ -10238,7 +10280,7 @@
         <v>12</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K143" s="7" t="s">
         <v>12</v>
@@ -10258,19 +10300,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D144" s="64" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F144" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G144" s="8">
         <v>142</v>
@@ -10282,7 +10324,7 @@
         <v>12</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>12</v>
@@ -10302,19 +10344,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F145" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G145" s="8">
         <v>143</v>
@@ -10326,7 +10368,7 @@
         <v>12</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K145" s="7" t="s">
         <v>12</v>
@@ -10346,19 +10388,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F146" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G146" s="8">
         <v>144</v>
@@ -10370,7 +10412,7 @@
         <v>12</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K146" s="7" t="s">
         <v>12</v>
@@ -10390,19 +10432,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F147" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G147" s="8">
         <v>145</v>
@@ -10414,7 +10456,7 @@
         <v>12</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>12</v>
@@ -10434,19 +10476,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F148" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G148" s="8">
         <v>146</v>
@@ -10458,7 +10500,7 @@
         <v>12</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>12</v>
@@ -10478,19 +10520,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F149" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G149" s="8">
         <v>147</v>
@@ -10502,7 +10544,7 @@
         <v>12</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K149" s="7" t="s">
         <v>12</v>
@@ -10522,19 +10564,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F150" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G150" s="8">
         <v>148</v>
@@ -10546,7 +10588,7 @@
         <v>12</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K150" s="7" t="s">
         <v>12</v>
@@ -10566,19 +10608,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F151" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G151" s="8">
         <v>149</v>
@@ -10590,7 +10632,7 @@
         <v>12</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>12</v>
@@ -10610,19 +10652,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F152" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G152" s="8">
         <v>150</v>
@@ -10634,7 +10676,7 @@
         <v>12</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K152" s="7" t="s">
         <v>12</v>
@@ -10654,19 +10696,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D153" s="64" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F153" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G153" s="8">
         <v>151</v>
@@ -10678,7 +10720,7 @@
         <v>12</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K153" s="7" t="s">
         <v>12</v>
@@ -10698,19 +10740,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D154" s="64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G154" s="8">
         <v>152</v>
@@ -10722,7 +10764,7 @@
         <v>12</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K154" s="7" t="s">
         <v>12</v>
@@ -10742,19 +10784,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D155" s="64" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G155" s="8">
         <v>153</v>
@@ -10766,7 +10808,7 @@
         <v>12</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K155" s="7" t="s">
         <v>12</v>
@@ -10786,19 +10828,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D156" s="64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F156" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G156" s="8">
         <v>154</v>
@@ -10810,7 +10852,7 @@
         <v>12</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>12</v>
@@ -10830,19 +10872,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D157" s="64" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F157" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G157" s="8">
         <v>155</v>
@@ -10854,7 +10896,7 @@
         <v>12</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K157" s="7" t="s">
         <v>12</v>
@@ -10874,19 +10916,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D158" s="64" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F158" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G158" s="8">
         <v>156</v>
@@ -10898,7 +10940,7 @@
         <v>12</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>12</v>
@@ -10918,19 +10960,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F159" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G159" s="8">
         <v>157</v>
@@ -10942,7 +10984,7 @@
         <v>12</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>12</v>
@@ -10962,19 +11004,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F160" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G160" s="8">
         <v>158</v>
@@ -10986,7 +11028,7 @@
         <v>12</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K160" s="7" t="s">
         <v>12</v>
@@ -11006,19 +11048,19 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F161" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G161" s="8">
         <v>159</v>
@@ -11030,7 +11072,7 @@
         <v>12</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K161" s="7" t="s">
         <v>12</v>
@@ -11050,19 +11092,19 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F162" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G162" s="8">
         <v>160</v>
@@ -11074,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>12</v>
@@ -11094,19 +11136,19 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F163" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G163" s="8">
         <v>161</v>
@@ -11118,7 +11160,7 @@
         <v>12</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K163" s="7" t="s">
         <v>12</v>
@@ -11138,19 +11180,19 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D164" s="64" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F164" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G164" s="8">
         <v>162</v>
@@ -11162,7 +11204,7 @@
         <v>12</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K164" s="7" t="s">
         <v>12</v>
@@ -11182,19 +11224,19 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D165" s="64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F165" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G165" s="8">
         <v>163</v>
@@ -11206,7 +11248,7 @@
         <v>12</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K165" s="7" t="s">
         <v>12</v>
@@ -11226,19 +11268,19 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D166" s="64" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F166" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G166" s="8">
         <v>164</v>
@@ -11250,7 +11292,7 @@
         <v>12</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K166" s="7" t="s">
         <v>12</v>
@@ -11270,19 +11312,19 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D167" s="64" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F167" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G167" s="8">
         <v>165</v>
@@ -11294,7 +11336,7 @@
         <v>12</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K167" s="7" t="s">
         <v>12</v>
@@ -11314,19 +11356,19 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D168" s="64" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G168" s="8">
         <v>166</v>
@@ -11338,7 +11380,7 @@
         <v>12</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K168" s="7" t="s">
         <v>12</v>
@@ -11358,19 +11400,19 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D169" s="64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F169" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G169" s="8">
         <v>167</v>
@@ -11382,7 +11424,7 @@
         <v>12</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K169" s="7" t="s">
         <v>12</v>
@@ -11402,19 +11444,19 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D170" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F170" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G170" s="8">
         <v>168</v>
@@ -11426,7 +11468,7 @@
         <v>12</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K170" s="7" t="s">
         <v>12</v>
@@ -11446,17 +11488,17 @@
         <v>11</v>
       </c>
       <c r="B171" s="77" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C171" s="77" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D171" s="79"/>
       <c r="E171" s="77" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F171" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G171" s="8">
         <v>169</v>
@@ -11468,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K171" s="80" t="s">
         <v>12</v>
@@ -11488,17 +11530,17 @@
         <v>11</v>
       </c>
       <c r="B172" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C172" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D172" s="79"/>
       <c r="E172" s="77" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F172" s="77" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G172" s="8">
         <v>170</v>
@@ -11510,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="J172" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K172" s="80" t="s">
         <v>12</v>
@@ -11530,17 +11572,17 @@
         <v>11</v>
       </c>
       <c r="B173" s="77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C173" s="77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D173" s="79"/>
       <c r="E173" s="77" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F173" s="77" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G173" s="8">
         <v>171</v>
@@ -11552,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>12</v>
@@ -11780,10 +11822,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>59</v>
@@ -11899,13 +11941,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>23</v>
@@ -11916,13 +11958,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
@@ -11933,13 +11975,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>23</v>
@@ -11950,13 +11992,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -11967,13 +12009,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
@@ -11984,13 +12026,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>23</v>
@@ -12001,13 +12043,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>23</v>
@@ -12018,13 +12060,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>23</v>
@@ -12035,13 +12077,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>23</v>
@@ -12052,13 +12094,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>23</v>
@@ -12069,13 +12111,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>23</v>
@@ -12086,13 +12128,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>23</v>
@@ -12105,13 +12147,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>22</v>
@@ -12122,13 +12164,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>23</v>
@@ -12141,13 +12183,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>23</v>
@@ -12160,13 +12202,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>23</v>
@@ -12179,13 +12221,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>22</v>
@@ -12198,13 +12240,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>23</v>
@@ -12217,13 +12259,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>23</v>
@@ -12236,13 +12278,13 @@
         <v>11</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>23</v>
@@ -12255,13 +12297,13 @@
         <v>11</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>23</v>
@@ -12274,13 +12316,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>
@@ -12293,13 +12335,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>22</v>
@@ -12312,13 +12354,13 @@
         <v>11</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>22</v>
@@ -12331,13 +12373,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>22</v>
@@ -12350,13 +12392,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>22</v>
@@ -12369,13 +12411,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>22</v>
@@ -12388,13 +12430,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>22</v>
@@ -12407,13 +12449,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>23</v>
@@ -12426,13 +12468,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
@@ -12445,13 +12487,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
+        <v>724</v>
+      </c>
+      <c r="C49" t="s">
+        <v>724</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>725</v>
-      </c>
-      <c r="C49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>726</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>23</v>
@@ -12462,13 +12504,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="C50" t="s">
-        <v>727</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>728</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>23</v>
@@ -12479,13 +12521,13 @@
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>729</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>730</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
@@ -12496,13 +12538,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>732</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>23</v>
@@ -12513,13 +12555,13 @@
         <v>11</v>
       </c>
       <c r="B53" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>733</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>734</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>23</v>
@@ -12530,13 +12572,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E54" s="37" t="s">
         <v>735</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>736</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>23</v>
@@ -12547,13 +12589,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>737</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>738</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>23</v>
@@ -12564,13 +12606,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>23</v>
@@ -12581,13 +12623,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>23</v>
@@ -12598,13 +12640,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>23</v>
@@ -12615,13 +12657,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>23</v>
@@ -12632,13 +12674,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -12649,13 +12691,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -12666,13 +12708,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -12683,13 +12725,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -12700,13 +12742,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -12717,13 +12759,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -12734,13 +12776,13 @@
         <v>11</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -12751,13 +12793,13 @@
         <v>11</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -12768,13 +12810,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -12785,13 +12827,13 @@
         <v>11</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -12802,13 +12844,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -12819,13 +12861,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -12836,13 +12878,13 @@
         <v>11</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -12853,13 +12895,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -12870,13 +12912,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -12887,13 +12929,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -12904,13 +12946,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -12921,13 +12963,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -12938,13 +12980,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -12955,13 +12997,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -12972,13 +13014,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -12989,13 +13031,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -13006,13 +13048,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>22</v>
@@ -13023,13 +13065,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>22</v>
@@ -13040,13 +13082,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>23</v>
@@ -13057,13 +13099,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>23</v>
@@ -13074,13 +13116,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>23</v>
@@ -13091,13 +13133,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -13108,13 +13150,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -13125,13 +13167,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>23</v>
@@ -13142,13 +13184,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>23</v>
@@ -13159,13 +13201,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>23</v>
@@ -13176,13 +13218,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>23</v>
@@ -13193,13 +13235,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>23</v>
@@ -13210,13 +13252,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>23</v>
@@ -13227,13 +13269,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -13244,13 +13286,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -13261,13 +13303,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -13278,13 +13320,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -13295,13 +13337,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -13312,13 +13354,13 @@
         <v>11</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -13329,13 +13371,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C101" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -13346,13 +13388,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -13363,13 +13405,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -13380,13 +13422,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -13397,13 +13439,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -13414,13 +13456,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -13431,13 +13473,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -13448,13 +13490,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -13465,13 +13507,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -13482,13 +13524,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -13499,13 +13541,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -13516,13 +13558,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -13533,13 +13575,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>23</v>
@@ -13550,13 +13592,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>23</v>
@@ -13567,13 +13609,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -13584,13 +13626,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -13601,13 +13643,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -13618,13 +13660,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -13635,13 +13677,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -13652,13 +13694,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -13669,13 +13711,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -13686,13 +13728,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -13703,13 +13745,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -13720,13 +13762,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -13737,13 +13779,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -13754,13 +13796,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -13771,13 +13813,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -13788,13 +13830,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -13805,13 +13847,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -13822,13 +13864,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -13839,13 +13881,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -13856,13 +13898,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -13873,13 +13915,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -13890,13 +13932,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -13907,13 +13949,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -13924,13 +13966,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -13941,13 +13983,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -13958,13 +14000,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -13975,13 +14017,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -13992,13 +14034,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -14009,13 +14051,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -14026,13 +14068,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -14043,13 +14085,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -14060,13 +14102,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -14077,13 +14119,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -14094,13 +14136,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -14111,13 +14153,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -14128,13 +14170,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -14145,13 +14187,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -14162,13 +14204,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -14179,13 +14221,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -14196,13 +14238,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -14213,13 +14255,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -14230,13 +14272,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -14247,13 +14289,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -14264,13 +14306,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -14281,13 +14323,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -14298,13 +14340,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -14315,13 +14357,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -14332,13 +14374,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -14349,13 +14391,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -14366,13 +14408,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>22</v>
@@ -14383,13 +14425,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>22</v>
@@ -14400,13 +14442,13 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>22</v>
@@ -14417,13 +14459,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>22</v>
@@ -14434,13 +14476,13 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>22</v>
@@ -14451,13 +14493,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>22</v>
@@ -14468,13 +14510,13 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>22</v>
@@ -14485,13 +14527,13 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>22</v>
@@ -14502,13 +14544,13 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>22</v>
@@ -14519,14 +14561,14 @@
         <v>11</v>
       </c>
       <c r="B171" s="77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C171" s="77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D171" s="77"/>
       <c r="E171" s="77" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>22</v>
@@ -14537,14 +14579,14 @@
         <v>11</v>
       </c>
       <c r="B172" s="77" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C172" s="77" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D172" s="77"/>
       <c r="E172" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>22</v>
@@ -14555,14 +14597,14 @@
         <v>11</v>
       </c>
       <c r="B173" s="77" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C173" s="77" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D173" s="77"/>
       <c r="E173" s="77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>22</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="777">
   <si>
     <t>Variable</t>
   </si>
@@ -2354,17 +2354,72 @@
   <si>
     <t>Target Default (3 months)</t>
   </si>
+  <si>
+    <t>IND_84</t>
+  </si>
+  <si>
+    <t>IND_85</t>
+  </si>
+  <si>
+    <t>IND_86</t>
+  </si>
+  <si>
+    <t>IND_87</t>
+  </si>
+  <si>
+    <t>84 - Rata arretrata</t>
+  </si>
+  <si>
+    <t>85 - Sconfino di C/C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 - Sconfino controparte </t>
+  </si>
+  <si>
+    <t>87 - Forborne sconfinato</t>
+  </si>
+  <si>
+    <t>ESP_FL_RATA_ARRETRATA</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CTPY</t>
+  </si>
+  <si>
+    <t>ESP_FL_FORBORNE_SCONFINO</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di una rata arretrata per la controparte SNDG analizzata</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di un sconfino per la controparte SNDG analizzata</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di uno sconfino su controparte per l'SNDG analizzato</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="52" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2799,95 +2854,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2895,16 +2947,22 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2919,31 +2977,30 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -3042,8 +3099,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2109472</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3100,8 +3157,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2109472</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3158,8 +3215,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2109472</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3216,8 +3273,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2109472</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3274,8 +3331,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2109472</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3784,23 +3841,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3836,23 +3876,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4005,17 +4028,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="58" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -8143,20 +8166,20 @@
       <c r="A95" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="73" t="s">
-        <v>613</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>195</v>
+      <c r="B95" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="C95" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="E95" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="F95" s="90" t="s">
+        <v>765</v>
       </c>
       <c r="G95" s="8">
         <v>93</v>
@@ -8168,10 +8191,10 @@
         <v>12</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -8187,20 +8210,20 @@
       <c r="A96" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F96" s="31" t="s">
-        <v>196</v>
+      <c r="B96" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="F96" s="90" t="s">
+        <v>766</v>
       </c>
       <c r="G96" s="8">
         <v>94</v>
@@ -8212,10 +8235,10 @@
         <v>12</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -8231,20 +8254,20 @@
       <c r="A97" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="73" t="s">
-        <v>615</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>197</v>
+      <c r="B97" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="F97" s="90" t="s">
+        <v>767</v>
       </c>
       <c r="G97" s="8">
         <v>95</v>
@@ -8256,10 +8279,10 @@
         <v>12</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -8275,20 +8298,20 @@
       <c r="A98" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="73" t="s">
-        <v>616</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F98" s="31" t="s">
-        <v>198</v>
+      <c r="B98" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="F98" s="90" t="s">
+        <v>768</v>
       </c>
       <c r="G98" s="8">
         <v>96</v>
@@ -8300,10 +8323,10 @@
         <v>12</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -8320,19 +8343,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D99" s="73" t="s">
-        <v>617</v>
+        <v>182</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>613</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G99" s="8">
         <v>97</v>
@@ -8364,19 +8387,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D100" s="73" t="s">
-        <v>618</v>
+        <v>183</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>614</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" s="8">
         <v>98</v>
@@ -8407,20 +8430,20 @@
       <c r="A101" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" s="64" t="s">
-        <v>619</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F101" s="36" t="s">
-        <v>218</v>
+      <c r="B101" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="G101" s="8">
         <v>99</v>
@@ -8451,20 +8474,20 @@
       <c r="A102" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B102" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" t="s">
-        <v>222</v>
-      </c>
-      <c r="D102" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="F102" t="s">
-        <v>225</v>
+      <c r="B102" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="G102" s="8">
         <v>100</v>
@@ -8495,20 +8518,20 @@
       <c r="A103" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B103" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D103" s="64" t="s">
-        <v>621</v>
-      </c>
-      <c r="E103" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F103" t="s">
-        <v>226</v>
+      <c r="B103" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="73" t="s">
+        <v>617</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>199</v>
       </c>
       <c r="G103" s="8">
         <v>101</v>
@@ -8539,20 +8562,20 @@
       <c r="A104" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" s="64" t="s">
-        <v>622</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F104" t="s">
-        <v>227</v>
+      <c r="B104" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="G104" s="8">
         <v>102</v>
@@ -8584,19 +8607,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D105" s="64" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F105" t="s">
-        <v>258</v>
+        <v>216</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="G105" s="8">
         <v>103</v>
@@ -8628,19 +8651,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D106" s="64" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F106" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="G106" s="8">
         <v>104</v>
@@ -8672,19 +8695,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D107" s="64" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F107" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="G107" s="8">
         <v>105</v>
@@ -8716,19 +8739,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F108" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="G108" s="8">
         <v>106</v>
@@ -8760,19 +8783,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F109" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G109" s="8">
         <v>107</v>
@@ -8804,19 +8827,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F110" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G110" s="8">
         <v>108</v>
@@ -8848,19 +8871,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G111" s="8">
         <v>109</v>
@@ -8892,19 +8915,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G112" s="8">
         <v>110</v>
@@ -8936,19 +8959,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G113" s="8">
         <v>111</v>
@@ -8960,10 +8983,10 @@
         <v>12</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -8980,19 +9003,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G114" s="8">
         <v>112</v>
@@ -9004,10 +9027,10 @@
         <v>12</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -9024,19 +9047,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G115" s="8">
         <v>113</v>
@@ -9068,19 +9091,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C116" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F116" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G116" s="8">
         <v>114</v>
@@ -9112,19 +9135,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F117" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G117" s="8">
         <v>115</v>
@@ -9136,10 +9159,10 @@
         <v>12</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -9156,19 +9179,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F118" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G118" s="8">
         <v>116</v>
@@ -9180,10 +9203,10 @@
         <v>12</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
@@ -9200,19 +9223,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F119" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G119" s="8">
         <v>117</v>
@@ -9244,19 +9267,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F120" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G120" s="8">
         <v>118</v>
@@ -9288,19 +9311,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G121" s="8">
         <v>119</v>
@@ -9332,19 +9355,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G122" s="8">
         <v>120</v>
@@ -9376,19 +9399,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G123" s="8">
         <v>121</v>
@@ -9420,19 +9443,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G124" s="8">
         <v>122</v>
@@ -9464,19 +9487,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D125" s="64" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G125" s="8">
         <v>123</v>
@@ -9508,19 +9531,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G126" s="8">
         <v>124</v>
@@ -9552,19 +9575,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G127" s="8">
         <v>125</v>
@@ -9596,19 +9619,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G128" s="8">
         <v>126</v>
@@ -9640,19 +9663,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G129" s="8">
         <v>127</v>
@@ -9684,19 +9707,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G130" s="8">
         <v>128</v>
@@ -9728,19 +9751,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D131" s="64" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G131" s="8">
         <v>129</v>
@@ -9772,19 +9795,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>650</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>372</v>
+        <v>646</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="G132" s="8">
         <v>130</v>
@@ -9816,19 +9839,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="C133" t="s">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="E133" s="43" t="s">
-        <v>373</v>
+        <v>647</v>
+      </c>
+      <c r="E133" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="G133" s="8">
         <v>131</v>
@@ -9860,19 +9883,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>652</v>
-      </c>
-      <c r="E134" s="43" t="s">
-        <v>374</v>
+        <v>648</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>452</v>
+        <v>309</v>
       </c>
       <c r="G134" s="8">
         <v>132</v>
@@ -9904,19 +9927,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>653</v>
-      </c>
-      <c r="E135" s="43" t="s">
-        <v>375</v>
+        <v>649</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>453</v>
+        <v>310</v>
       </c>
       <c r="G135" s="8">
         <v>133</v>
@@ -9948,19 +9971,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C136" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F136" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G136" s="8">
         <v>134</v>
@@ -9992,19 +10015,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F137" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G137" s="8">
         <v>135</v>
@@ -10036,19 +10059,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F138" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G138" s="8">
         <v>136</v>
@@ -10080,19 +10103,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F139" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G139" s="8">
         <v>137</v>
@@ -10124,19 +10147,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F140" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G140" s="8">
         <v>138</v>
@@ -10168,19 +10191,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F141" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G141" s="8">
         <v>139</v>
@@ -10212,19 +10235,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F142" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G142" s="8">
         <v>140</v>
@@ -10256,19 +10279,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F143" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G143" s="8">
         <v>141</v>
@@ -10300,19 +10323,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D144" s="64" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F144" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G144" s="8">
         <v>142</v>
@@ -10344,19 +10367,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F145" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G145" s="8">
         <v>143</v>
@@ -10388,19 +10411,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C146" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F146" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G146" s="8">
         <v>144</v>
@@ -10432,19 +10455,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F147" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G147" s="8">
         <v>145</v>
@@ -10476,19 +10499,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F148" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G148" s="8">
         <v>146</v>
@@ -10520,19 +10543,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F149" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G149" s="8">
         <v>147</v>
@@ -10564,19 +10587,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F150" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G150" s="8">
         <v>148</v>
@@ -10608,19 +10631,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C151" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F151" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G151" s="8">
         <v>149</v>
@@ -10652,19 +10675,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F152" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G152" s="8">
         <v>150</v>
@@ -10696,19 +10719,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D153" s="64" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F153" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G153" s="8">
         <v>151</v>
@@ -10740,19 +10763,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D154" s="64" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F154" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G154" s="8">
         <v>152</v>
@@ -10784,19 +10807,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D155" s="64" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F155" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G155" s="8">
         <v>153</v>
@@ -10828,19 +10851,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C156" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D156" s="64" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F156" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G156" s="8">
         <v>154</v>
@@ -10872,19 +10895,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D157" s="64" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F157" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G157" s="8">
         <v>155</v>
@@ -10916,19 +10939,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D158" s="64" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F158" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G158" s="8">
         <v>156</v>
@@ -10960,19 +10983,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F159" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G159" s="8">
         <v>157</v>
@@ -11004,19 +11027,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F160" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G160" s="8">
         <v>158</v>
@@ -11048,19 +11071,19 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F161" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G161" s="8">
         <v>159</v>
@@ -11092,19 +11115,19 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F162" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G162" s="8">
         <v>160</v>
@@ -11136,19 +11159,19 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F163" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G163" s="8">
         <v>161</v>
@@ -11180,19 +11203,19 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D164" s="64" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F164" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G164" s="8">
         <v>162</v>
@@ -11224,19 +11247,19 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D165" s="64" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F165" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G165" s="8">
         <v>163</v>
@@ -11268,19 +11291,19 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D166" s="64" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F166" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G166" s="8">
         <v>164</v>
@@ -11312,19 +11335,19 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D167" s="64" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F167" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G167" s="8">
         <v>165</v>
@@ -11356,19 +11379,19 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D168" s="64" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F168" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G168" s="8">
         <v>166</v>
@@ -11400,19 +11423,19 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D169" s="64" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F169" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G169" s="8">
         <v>167</v>
@@ -11444,19 +11467,19 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D170" s="64" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F170" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G170" s="8">
         <v>168</v>
@@ -11484,128 +11507,304 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="C171" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="D171" s="79"/>
-      <c r="E171" s="77" t="s">
-        <v>694</v>
-      </c>
-      <c r="F171" s="77" t="s">
-        <v>697</v>
+      <c r="A171" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>446</v>
+      </c>
+      <c r="C171" t="s">
+        <v>446</v>
+      </c>
+      <c r="D171" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="E171" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" t="s">
+        <v>485</v>
       </c>
       <c r="G171" s="8">
         <v>169</v>
       </c>
-      <c r="H171" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I171" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" s="80" t="s">
+      <c r="H171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J171" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K171" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L171" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N171" s="77" t="b">
+      <c r="K171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="77" t="s">
-        <v>692</v>
-      </c>
-      <c r="C172" s="77" t="s">
-        <v>692</v>
-      </c>
-      <c r="D172" s="79"/>
-      <c r="E172" s="77" t="s">
-        <v>695</v>
-      </c>
-      <c r="F172" s="77" t="s">
-        <v>698</v>
+      <c r="A172" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>447</v>
+      </c>
+      <c r="C172" t="s">
+        <v>447</v>
+      </c>
+      <c r="D172" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E172" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="F172" t="s">
+        <v>486</v>
       </c>
       <c r="G172" s="8">
         <v>170</v>
       </c>
-      <c r="H172" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I172" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="80" t="s">
+      <c r="H172" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K172" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L172" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" s="77" t="b">
+      <c r="K172" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="C173" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="D173" s="79"/>
-      <c r="E173" s="77" t="s">
-        <v>696</v>
-      </c>
-      <c r="F173" s="77" t="s">
-        <v>699</v>
+      <c r="A173" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" t="s">
+        <v>448</v>
+      </c>
+      <c r="D173" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F173" t="s">
+        <v>487</v>
       </c>
       <c r="G173" s="8">
         <v>171</v>
       </c>
-      <c r="H173" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I173" s="80" t="b">
+      <c r="H173" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>449</v>
+      </c>
+      <c r="C174" t="s">
+        <v>449</v>
+      </c>
+      <c r="D174" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F174" t="s">
+        <v>488</v>
+      </c>
+      <c r="G174" s="8">
+        <v>172</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="C175" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="D175" s="79"/>
+      <c r="E175" s="77" t="s">
+        <v>694</v>
+      </c>
+      <c r="F175" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="G175" s="8">
+        <v>173</v>
+      </c>
+      <c r="H175" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="J173" s="80" t="s">
+      <c r="J175" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K173" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L173" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" s="77" t="b">
+      <c r="K175" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L175" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="C176" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="D176" s="79"/>
+      <c r="E176" s="77" t="s">
+        <v>695</v>
+      </c>
+      <c r="F176" s="77" t="s">
+        <v>698</v>
+      </c>
+      <c r="G176" s="8">
+        <v>174</v>
+      </c>
+      <c r="H176" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K176" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L176" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N176" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C177" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="D177" s="79"/>
+      <c r="E177" s="77" t="s">
+        <v>696</v>
+      </c>
+      <c r="F177" s="77" t="s">
+        <v>699</v>
+      </c>
+      <c r="G177" s="8">
+        <v>175</v>
+      </c>
+      <c r="H177" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K177" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L177" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N177" s="77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11618,10 +11817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13268,68 +13467,68 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>182</v>
+      <c r="B95" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="C95" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="E95" s="90" t="s">
+        <v>769</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>183</v>
+      <c r="B96" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="E96" s="90" t="s">
+        <v>770</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="C97" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>184</v>
+      <c r="B97" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="E97" s="90" t="s">
+        <v>771</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>185</v>
+      <c r="B98" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="E98" s="90" t="s">
+        <v>772</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13337,13 +13536,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -13354,13 +13553,13 @@
         <v>11</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -13370,14 +13569,14 @@
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" t="s">
-        <v>503</v>
-      </c>
-      <c r="C101" t="s">
-        <v>503</v>
-      </c>
-      <c r="E101" t="s">
-        <v>217</v>
+      <c r="B101" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -13387,14 +13586,14 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" t="s">
-        <v>222</v>
+      <c r="B102" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -13404,14 +13603,14 @@
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" t="s">
-        <v>223</v>
-      </c>
-      <c r="E103" t="s">
-        <v>223</v>
+      <c r="B103" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -13421,14 +13620,14 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" t="s">
-        <v>224</v>
-      </c>
-      <c r="E104" t="s">
-        <v>224</v>
+      <c r="B104" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="C104" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -13439,13 +13638,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>503</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>503</v>
       </c>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -13456,13 +13655,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="E106" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -13473,13 +13672,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="E107" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -13490,13 +13689,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -13507,13 +13706,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -13524,13 +13723,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -13541,13 +13740,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -13558,13 +13757,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -13575,16 +13774,16 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13592,16 +13791,16 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13609,13 +13808,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E115" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -13626,13 +13825,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C116" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -13643,16 +13842,16 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13660,16 +13859,16 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13677,13 +13876,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -13694,13 +13893,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -13711,13 +13910,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -13728,13 +13927,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -13745,13 +13944,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -13762,13 +13961,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -13779,13 +13978,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -13796,13 +13995,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -13813,13 +14012,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -13830,13 +14029,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -13847,13 +14046,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -13864,13 +14063,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -13881,13 +14080,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -13898,13 +14097,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="E132" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -13915,13 +14114,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="C133" t="s">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -13932,13 +14131,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="E134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -13949,13 +14148,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -13966,13 +14165,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C136" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E136" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -13983,13 +14182,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -14000,13 +14199,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -14017,13 +14216,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -14034,13 +14233,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E140" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -14051,13 +14250,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E141" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -14068,13 +14267,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E142" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -14085,13 +14284,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E143" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -14102,13 +14301,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -14119,13 +14318,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -14136,13 +14335,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C146" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E146" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -14153,13 +14352,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E147" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -14170,13 +14369,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -14187,13 +14386,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -14204,13 +14403,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E150" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -14221,13 +14420,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C151" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E151" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -14238,13 +14437,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -14255,13 +14454,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -14272,13 +14471,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -14289,13 +14488,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -14306,13 +14505,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C156" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E156" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -14323,13 +14522,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -14340,13 +14539,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -14357,13 +14556,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -14374,13 +14573,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E160" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -14391,13 +14590,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -14408,13 +14607,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>22</v>
@@ -14425,13 +14624,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>22</v>
@@ -14442,13 +14641,13 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>22</v>
@@ -14459,13 +14658,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>22</v>
@@ -14476,13 +14675,13 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>22</v>
@@ -14493,13 +14692,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>22</v>
@@ -14510,13 +14709,13 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>22</v>
@@ -14527,13 +14726,13 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>22</v>
@@ -14544,69 +14743,137 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="77" t="s">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>446</v>
+      </c>
+      <c r="C171" t="s">
+        <v>446</v>
+      </c>
+      <c r="E171" t="s">
+        <v>446</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>447</v>
+      </c>
+      <c r="C172" t="s">
+        <v>447</v>
+      </c>
+      <c r="E172" t="s">
+        <v>447</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" t="s">
+        <v>448</v>
+      </c>
+      <c r="E173" t="s">
+        <v>448</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>449</v>
+      </c>
+      <c r="C174" t="s">
+        <v>449</v>
+      </c>
+      <c r="E174" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="C171" s="77" t="s">
+      <c r="C175" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="D171" s="77"/>
-      <c r="E171" s="77" t="s">
+      <c r="D175" s="77"/>
+      <c r="E175" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F175" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="77" t="s">
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="C172" s="77" t="s">
+      <c r="C176" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="D172" s="77"/>
-      <c r="E172" s="77" t="s">
+      <c r="D176" s="77"/>
+      <c r="E176" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F176" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="77" t="s">
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="77" t="s">
         <v>702</v>
       </c>
-      <c r="C173" s="77" t="s">
+      <c r="C177" s="77" t="s">
         <v>702</v>
       </c>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77" t="s">
+      <c r="D177" s="77"/>
+      <c r="E177" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F177" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="783">
   <si>
     <t>Variable</t>
   </si>
@@ -2402,17 +2402,42 @@
   <si>
     <t>L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata</t>
   </si>
+  <si>
+    <t>IND_12_CHANGE</t>
+  </si>
+  <si>
+    <t>IND_12_DELTA_DT</t>
+  </si>
+  <si>
+    <t>IND_212_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>12 - fl_change</t>
+  </si>
+  <si>
+    <t>12 - fl_delta_dt</t>
+  </si>
+  <si>
+    <t>212 - change_fl_override</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2854,95 +2879,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2950,16 +2972,22 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,34 +3002,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="50" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3099,8 +3128,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612686</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2112873</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3157,8 +3186,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612686</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2112873</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3215,8 +3244,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612686</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2112873</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3273,8 +3302,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612686</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2112873</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -3331,8 +3360,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612686</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2112873</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>291387</xdr:rowOff>
     </xdr:to>
@@ -4028,17 +4057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="58" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -4334,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6667,134 +6696,134 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="73" t="s">
-        <v>585</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="A61" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>777</v>
+      </c>
+      <c r="E61" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="F61" s="94" t="s">
+        <v>780</v>
+      </c>
+      <c r="G61" s="95">
         <v>59</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="7" t="s">
+      <c r="H61" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>778</v>
+      </c>
+      <c r="E62" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="F62" s="94" t="s">
+        <v>781</v>
+      </c>
+      <c r="G62" s="95">
+        <v>60</v>
+      </c>
+      <c r="H62" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="8">
-        <v>60</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="b">
+      <c r="K62" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="73" t="s">
-        <v>587</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="A63" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="D63" s="93" t="s">
+        <v>779</v>
+      </c>
+      <c r="E63" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="F63" s="94" t="s">
+        <v>782</v>
+      </c>
+      <c r="G63" s="95">
         <v>61</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" t="b">
+      <c r="H63" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6803,19 +6832,19 @@
         <v>11</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D64" s="73" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G64" s="8">
         <v>62</v>
@@ -6847,19 +6876,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D65" s="73" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G65" s="8">
         <v>63</v>
@@ -6890,20 +6919,20 @@
       <c r="A66" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="74" t="s">
-        <v>590</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>203</v>
+      <c r="B66" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="G66" s="8">
         <v>64</v>
@@ -6934,20 +6963,20 @@
       <c r="A67" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>591</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>210</v>
+      <c r="B67" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="73" t="s">
+        <v>588</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="G67" s="8">
         <v>65</v>
@@ -6978,20 +7007,20 @@
       <c r="A68" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>211</v>
+      <c r="B68" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>589</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="G68" s="8">
         <v>66</v>
@@ -7022,20 +7051,20 @@
       <c r="A69" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>593</v>
+      <c r="B69" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="74" t="s">
+        <v>590</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>212</v>
+        <v>201</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="G69" s="8">
         <v>67</v>
@@ -7066,20 +7095,20 @@
       <c r="A70" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="64" t="s">
-        <v>594</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F70" t="s">
-        <v>311</v>
+      <c r="B70" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="G70" s="8">
         <v>68</v>
@@ -7110,20 +7139,20 @@
       <c r="A71" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="76" t="s">
-        <v>595</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>313</v>
+      <c r="B71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="G71" s="8">
         <v>69</v>
@@ -7154,20 +7183,20 @@
       <c r="A72" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>314</v>
+      <c r="B72" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="G72" s="8">
         <v>70</v>
@@ -7199,19 +7228,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>315</v>
+        <v>594</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="F73" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G73" s="8">
         <v>71</v>
@@ -7242,20 +7271,20 @@
       <c r="A74" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" t="s">
-        <v>325</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="F74" t="s">
-        <v>334</v>
+      <c r="B74" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>313</v>
       </c>
       <c r="G74" s="8">
         <v>72</v>
@@ -7286,20 +7315,20 @@
       <c r="A75" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" t="s">
-        <v>326</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>599</v>
-      </c>
-      <c r="E75" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="F75" t="s">
-        <v>335</v>
+      <c r="B75" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>314</v>
       </c>
       <c r="G75" s="8">
         <v>73</v>
@@ -7331,19 +7360,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F76" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G76" s="8">
         <v>74</v>
@@ -7375,19 +7404,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G77" s="8">
         <v>75</v>
@@ -7419,19 +7448,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G78" s="8">
         <v>76</v>
@@ -7463,19 +7492,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G79" s="8">
         <v>77</v>
@@ -7507,19 +7536,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G80" s="8">
         <v>78</v>
@@ -7551,19 +7580,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>323</v>
+        <v>602</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>320</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G81" s="8">
         <v>79</v>
@@ -7595,19 +7624,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F82" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G82" s="8">
         <v>80</v>
@@ -7639,19 +7668,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>606</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>343</v>
+        <v>604</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>322</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G83" s="8">
         <v>81</v>
@@ -7683,19 +7712,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>607</v>
-      </c>
-      <c r="E84" s="41" t="s">
-        <v>348</v>
+        <v>598</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G84" s="8">
         <v>82</v>
@@ -7707,10 +7736,10 @@
         <v>12</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -7727,19 +7756,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>608</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>349</v>
+        <v>605</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>342</v>
       </c>
       <c r="F85" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="G85" s="8">
         <v>83</v>
@@ -7751,10 +7780,10 @@
         <v>12</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -7771,19 +7800,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>609</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>350</v>
+        <v>606</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="F86" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G86" s="8">
         <v>84</v>
@@ -7795,10 +7824,10 @@
         <v>12</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -7815,19 +7844,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
-      </c>
-      <c r="D87" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="86" t="s">
-        <v>351</v>
+        <v>356</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>348</v>
       </c>
       <c r="F87" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G87" s="8">
         <v>85</v>
@@ -7839,10 +7868,10 @@
         <v>12</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -7859,19 +7888,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D88" s="64" t="s">
-        <v>610</v>
-      </c>
-      <c r="E88" s="41" t="s">
-        <v>352</v>
+        <v>608</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="F88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G88" s="8">
         <v>86</v>
@@ -7883,10 +7912,10 @@
         <v>12</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -7903,19 +7932,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D89" s="64" t="s">
-        <v>611</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>353</v>
+        <v>609</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>350</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G89" s="8">
         <v>87</v>
@@ -7947,19 +7976,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
-      </c>
-      <c r="D90" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="E90" s="41" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D90" s="88" t="s">
+        <v>359</v>
+      </c>
+      <c r="E90" s="86" t="s">
+        <v>351</v>
       </c>
       <c r="F90" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G90" s="8">
         <v>88</v>
@@ -7971,10 +8000,10 @@
         <v>12</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -7991,19 +8020,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D91" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>355</v>
+        <v>610</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>352</v>
       </c>
       <c r="F91" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G91" s="8">
         <v>89</v>
@@ -8015,10 +8044,10 @@
         <v>12</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -8035,19 +8064,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="C92" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="D92" s="64" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>540</v>
+        <v>353</v>
       </c>
       <c r="F92" t="s">
-        <v>543</v>
+        <v>369</v>
       </c>
       <c r="G92" s="8">
         <v>90</v>
@@ -8079,19 +8108,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>541</v>
+        <v>612</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>354</v>
       </c>
       <c r="F93" t="s">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="G93" s="8">
         <v>91</v>
@@ -8123,19 +8152,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>548</v>
+        <v>690</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>542</v>
+        <v>355</v>
       </c>
       <c r="F94" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="G94" s="8">
         <v>92</v>
@@ -8166,20 +8195,20 @@
       <c r="A95" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="90" t="s">
-        <v>769</v>
-      </c>
-      <c r="C95" s="90" t="s">
-        <v>769</v>
+      <c r="B95" t="s">
+        <v>546</v>
+      </c>
+      <c r="C95" t="s">
+        <v>546</v>
       </c>
       <c r="D95" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="E95" s="91" t="s">
-        <v>761</v>
-      </c>
-      <c r="F95" s="90" t="s">
-        <v>765</v>
+        <v>546</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="F95" t="s">
+        <v>543</v>
       </c>
       <c r="G95" s="8">
         <v>93</v>
@@ -8210,20 +8239,20 @@
       <c r="A96" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="90" t="s">
-        <v>770</v>
-      </c>
-      <c r="C96" s="90" t="s">
-        <v>770</v>
+      <c r="B96" t="s">
+        <v>547</v>
+      </c>
+      <c r="C96" t="s">
+        <v>547</v>
       </c>
       <c r="D96" s="64" t="s">
-        <v>774</v>
+        <v>547</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>762</v>
-      </c>
-      <c r="F96" s="90" t="s">
-        <v>766</v>
+        <v>541</v>
+      </c>
+      <c r="F96" t="s">
+        <v>544</v>
       </c>
       <c r="G96" s="8">
         <v>94</v>
@@ -8254,20 +8283,20 @@
       <c r="A97" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="90" t="s">
-        <v>771</v>
-      </c>
-      <c r="C97" s="90" t="s">
-        <v>771</v>
+      <c r="B97" t="s">
+        <v>548</v>
+      </c>
+      <c r="C97" t="s">
+        <v>548</v>
       </c>
       <c r="D97" s="64" t="s">
-        <v>775</v>
+        <v>548</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>763</v>
-      </c>
-      <c r="F97" s="90" t="s">
-        <v>767</v>
+        <v>542</v>
+      </c>
+      <c r="F97" t="s">
+        <v>545</v>
       </c>
       <c r="G97" s="8">
         <v>95</v>
@@ -8299,19 +8328,19 @@
         <v>11</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D98" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>764</v>
+        <v>773</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>761</v>
       </c>
       <c r="F98" s="90" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G98" s="8">
         <v>96</v>
@@ -8342,20 +8371,20 @@
       <c r="A99" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>182</v>
+      <c r="B99" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="C99" s="90" t="s">
+        <v>770</v>
       </c>
       <c r="D99" s="64" t="s">
-        <v>613</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>195</v>
+        <v>774</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="F99" s="90" t="s">
+        <v>766</v>
       </c>
       <c r="G99" s="8">
         <v>97</v>
@@ -8367,10 +8396,10 @@
         <v>12</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -8386,20 +8415,20 @@
       <c r="A100" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>183</v>
+      <c r="B100" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>771</v>
       </c>
       <c r="D100" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>196</v>
+        <v>775</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="F100" s="90" t="s">
+        <v>767</v>
       </c>
       <c r="G100" s="8">
         <v>98</v>
@@ -8411,10 +8440,10 @@
         <v>12</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -8430,20 +8459,20 @@
       <c r="A101" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="73" t="s">
-        <v>615</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F101" s="31" t="s">
-        <v>197</v>
+      <c r="B101" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="C101" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="F101" s="90" t="s">
+        <v>768</v>
       </c>
       <c r="G101" s="8">
         <v>99</v>
@@ -8455,10 +8484,10 @@
         <v>12</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -8475,19 +8504,19 @@
         <v>11</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="73" t="s">
-        <v>616</v>
+        <v>182</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>613</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" s="8">
         <v>100</v>
@@ -8519,19 +8548,19 @@
         <v>11</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="73" t="s">
-        <v>617</v>
+        <v>183</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>614</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G103" s="8">
         <v>101</v>
@@ -8563,19 +8592,19 @@
         <v>11</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D104" s="73" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" s="8">
         <v>102</v>
@@ -8606,20 +8635,20 @@
       <c r="A105" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B105" t="s">
-        <v>217</v>
-      </c>
-      <c r="C105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" s="64" t="s">
-        <v>619</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>218</v>
+      <c r="B105" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="G105" s="8">
         <v>103</v>
@@ -8650,20 +8679,20 @@
       <c r="A106" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B106" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="F106" t="s">
-        <v>225</v>
+      <c r="B106" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" s="73" t="s">
+        <v>617</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>199</v>
       </c>
       <c r="G106" s="8">
         <v>104</v>
@@ -8694,20 +8723,20 @@
       <c r="A107" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" s="64" t="s">
-        <v>621</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F107" t="s">
-        <v>226</v>
+      <c r="B107" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="G107" s="8">
         <v>105</v>
@@ -8739,19 +8768,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F108" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="G108" s="8">
         <v>106</v>
@@ -8783,19 +8812,19 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F109" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G109" s="8">
         <v>107</v>
@@ -8827,19 +8856,19 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F110" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G110" s="8">
         <v>108</v>
@@ -8871,19 +8900,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F111" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="G111" s="8">
         <v>109</v>
@@ -8915,19 +8944,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F112" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="G112" s="8">
         <v>110</v>
@@ -8959,19 +8988,19 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F113" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G113" s="8">
         <v>111</v>
@@ -9003,19 +9032,19 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F114" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G114" s="8">
         <v>112</v>
@@ -9047,19 +9076,19 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F115" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G115" s="8">
         <v>113</v>
@@ -9091,19 +9120,19 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G116" s="8">
         <v>114</v>
@@ -9135,19 +9164,19 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G117" s="8">
         <v>115</v>
@@ -9159,10 +9188,10 @@
         <v>12</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -9179,19 +9208,19 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F118" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G118" s="8">
         <v>116</v>
@@ -9203,10 +9232,10 @@
         <v>12</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
@@ -9223,19 +9252,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G119" s="8">
         <v>117</v>
@@ -9267,19 +9296,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G120" s="8">
         <v>118</v>
@@ -9291,10 +9320,10 @@
         <v>12</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
@@ -9311,19 +9340,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G121" s="8">
         <v>119</v>
@@ -9335,10 +9364,10 @@
         <v>12</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
@@ -9355,19 +9384,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G122" s="8">
         <v>120</v>
@@ -9399,19 +9428,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G123" s="8">
         <v>121</v>
@@ -9443,19 +9472,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G124" s="8">
         <v>122</v>
@@ -9487,19 +9516,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D125" s="64" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G125" s="8">
         <v>123</v>
@@ -9531,19 +9560,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G126" s="8">
         <v>124</v>
@@ -9575,19 +9604,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G127" s="8">
         <v>125</v>
@@ -9619,19 +9648,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G128" s="8">
         <v>126</v>
@@ -9663,19 +9692,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G129" s="8">
         <v>127</v>
@@ -9707,19 +9736,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G130" s="8">
         <v>128</v>
@@ -9751,19 +9780,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D131" s="64" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G131" s="8">
         <v>129</v>
@@ -9795,19 +9824,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G132" s="8">
         <v>130</v>
@@ -9839,19 +9868,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G133" s="8">
         <v>131</v>
@@ -9883,19 +9912,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G134" s="8">
         <v>132</v>
@@ -9927,19 +9956,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G135" s="8">
         <v>133</v>
@@ -9971,19 +10000,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>650</v>
-      </c>
-      <c r="E136" s="43" t="s">
-        <v>372</v>
+        <v>647</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="G136" s="8">
         <v>134</v>
@@ -10015,19 +10044,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="C137" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="E137" s="43" t="s">
-        <v>373</v>
+        <v>648</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>451</v>
+        <v>309</v>
       </c>
       <c r="G137" s="8">
         <v>135</v>
@@ -10059,19 +10088,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>652</v>
-      </c>
-      <c r="E138" s="43" t="s">
-        <v>374</v>
+        <v>649</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="F138" t="s">
-        <v>452</v>
+        <v>310</v>
       </c>
       <c r="G138" s="8">
         <v>136</v>
@@ -10103,19 +10132,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F139" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G139" s="8">
         <v>137</v>
@@ -10147,19 +10176,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F140" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G140" s="8">
         <v>138</v>
@@ -10191,19 +10220,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F141" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G141" s="8">
         <v>139</v>
@@ -10235,19 +10264,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F142" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G142" s="8">
         <v>140</v>
@@ -10279,19 +10308,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F143" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G143" s="8">
         <v>141</v>
@@ -10323,19 +10352,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D144" s="64" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F144" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G144" s="8">
         <v>142</v>
@@ -10367,19 +10396,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F145" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G145" s="8">
         <v>143</v>
@@ -10411,19 +10440,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F146" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G146" s="8">
         <v>144</v>
@@ -10455,19 +10484,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F147" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G147" s="8">
         <v>145</v>
@@ -10499,19 +10528,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F148" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G148" s="8">
         <v>146</v>
@@ -10543,19 +10572,19 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C149" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F149" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G149" s="8">
         <v>147</v>
@@ -10587,19 +10616,19 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F150" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G150" s="8">
         <v>148</v>
@@ -10631,19 +10660,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F151" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G151" s="8">
         <v>149</v>
@@ -10675,19 +10704,19 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F152" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G152" s="8">
         <v>150</v>
@@ -10719,19 +10748,19 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D153" s="64" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F153" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G153" s="8">
         <v>151</v>
@@ -10763,19 +10792,19 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D154" s="64" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G154" s="8">
         <v>152</v>
@@ -10807,19 +10836,19 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D155" s="64" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F155" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G155" s="8">
         <v>153</v>
@@ -10851,19 +10880,19 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C156" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D156" s="64" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F156" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G156" s="8">
         <v>154</v>
@@ -10895,19 +10924,19 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D157" s="64" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F157" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G157" s="8">
         <v>155</v>
@@ -10939,19 +10968,19 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D158" s="64" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F158" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G158" s="8">
         <v>156</v>
@@ -10983,19 +11012,19 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G159" s="8">
         <v>157</v>
@@ -11027,19 +11056,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F160" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G160" s="8">
         <v>158</v>
@@ -11071,19 +11100,19 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F161" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G161" s="8">
         <v>159</v>
@@ -11115,19 +11144,19 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F162" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G162" s="8">
         <v>160</v>
@@ -11159,19 +11188,19 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F163" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G163" s="8">
         <v>161</v>
@@ -11203,19 +11232,19 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D164" s="64" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F164" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G164" s="8">
         <v>162</v>
@@ -11247,19 +11276,19 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D165" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F165" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G165" s="8">
         <v>163</v>
@@ -11291,19 +11320,19 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D166" s="64" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F166" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G166" s="8">
         <v>164</v>
@@ -11335,19 +11364,19 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D167" s="64" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F167" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G167" s="8">
         <v>165</v>
@@ -11379,19 +11408,19 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D168" s="64" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F168" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G168" s="8">
         <v>166</v>
@@ -11423,19 +11452,19 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D169" s="64" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F169" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G169" s="8">
         <v>167</v>
@@ -11467,19 +11496,19 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D170" s="64" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F170" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G170" s="8">
         <v>168</v>
@@ -11511,19 +11540,19 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C171" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D171" s="64" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F171" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G171" s="8">
         <v>169</v>
@@ -11555,19 +11584,19 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D172" s="64" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G172" s="8">
         <v>170</v>
@@ -11599,19 +11628,19 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C173" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D173" s="64" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F173" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G173" s="8">
         <v>171</v>
@@ -11643,19 +11672,19 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D174" s="64" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F174" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G174" s="8">
         <v>172</v>
@@ -11683,128 +11712,260 @@
       </c>
     </row>
     <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="C175" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="D175" s="79"/>
-      <c r="E175" s="77" t="s">
-        <v>694</v>
-      </c>
-      <c r="F175" s="77" t="s">
-        <v>697</v>
+      <c r="A175" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+      <c r="D175" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E175" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="F175" t="s">
+        <v>486</v>
       </c>
       <c r="G175" s="8">
         <v>173</v>
       </c>
-      <c r="H175" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I175" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" s="80" t="s">
+      <c r="H175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J175" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K175" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L175" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M175" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N175" s="77" t="b">
+      <c r="K175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="77" t="s">
-        <v>692</v>
-      </c>
-      <c r="C176" s="77" t="s">
-        <v>692</v>
-      </c>
-      <c r="D176" s="79"/>
-      <c r="E176" s="77" t="s">
-        <v>695</v>
-      </c>
-      <c r="F176" s="77" t="s">
-        <v>698</v>
+      <c r="A176" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" t="s">
+        <v>448</v>
+      </c>
+      <c r="D176" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F176" t="s">
+        <v>487</v>
       </c>
       <c r="G176" s="8">
         <v>174</v>
       </c>
-      <c r="H176" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" s="80" t="s">
+      <c r="H176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J176" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K176" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L176" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M176" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N176" s="77" t="b">
+      <c r="K176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+      <c r="N176" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="C177" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="D177" s="79"/>
-      <c r="E177" s="77" t="s">
-        <v>696</v>
-      </c>
-      <c r="F177" s="77" t="s">
-        <v>699</v>
+      <c r="A177" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" t="s">
+        <v>449</v>
+      </c>
+      <c r="D177" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F177" t="s">
+        <v>488</v>
       </c>
       <c r="G177" s="8">
         <v>175</v>
       </c>
-      <c r="H177" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I177" s="80" t="b">
+      <c r="H177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" t="b">
+        <v>0</v>
+      </c>
+      <c r="N177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A178" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="C178" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="D178" s="79"/>
+      <c r="E178" s="77" t="s">
+        <v>694</v>
+      </c>
+      <c r="F178" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="G178" s="8">
+        <v>176</v>
+      </c>
+      <c r="H178" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="J177" s="80" t="s">
+      <c r="J178" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K177" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L177" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M177" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N177" s="77" t="b">
+      <c r="K178" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L178" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="C179" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="D179" s="79"/>
+      <c r="E179" s="77" t="s">
+        <v>695</v>
+      </c>
+      <c r="F179" s="77" t="s">
+        <v>698</v>
+      </c>
+      <c r="G179" s="8">
+        <v>177</v>
+      </c>
+      <c r="H179" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K179" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L179" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N179" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A180" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C180" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="D180" s="79"/>
+      <c r="E180" s="77" t="s">
+        <v>696</v>
+      </c>
+      <c r="F180" s="77" t="s">
+        <v>699</v>
+      </c>
+      <c r="G180" s="8">
+        <v>178</v>
+      </c>
+      <c r="H180" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K180" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L180" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" s="77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11817,10 +11978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12852,85 +13013,88 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>162</v>
+      <c r="A59" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="92" t="s">
+        <v>777</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>165</v>
+      <c r="A60" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="D60" s="77"/>
+      <c r="E60" s="92" t="s">
+        <v>778</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>179</v>
+      <c r="A61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="D61" s="77"/>
+      <c r="E61" s="92" t="s">
+        <v>779</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>180</v>
+      <c r="B62" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>181</v>
+      <c r="B63" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>22</v>
@@ -12941,13 +13105,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -12958,13 +13122,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -12974,14 +13138,14 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>202</v>
+      <c r="B66" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -12992,13 +13156,13 @@
         <v>11</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -13009,13 +13173,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>208</v>
+        <v>493</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -13025,14 +13189,14 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>209</v>
+      <c r="B69" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -13042,14 +13206,14 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" t="s">
-        <v>285</v>
+      <c r="B70" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -13060,13 +13224,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>213</v>
+        <v>495</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -13077,13 +13241,13 @@
         <v>11</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>505</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>215</v>
+        <v>496</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -13094,13 +13258,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -13110,14 +13274,14 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" t="s">
-        <v>325</v>
-      </c>
-      <c r="E74" t="s">
-        <v>325</v>
+      <c r="B74" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -13127,14 +13291,14 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" t="s">
-        <v>326</v>
+      <c r="B75" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -13145,13 +13309,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -13162,13 +13326,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -13179,13 +13343,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -13196,13 +13360,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -13213,13 +13377,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -13230,13 +13394,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -13247,13 +13411,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>22</v>
@@ -13264,13 +13428,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E83" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>22</v>
@@ -13281,16 +13445,16 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13298,16 +13462,16 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13315,16 +13479,16 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E86" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13332,16 +13496,16 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13349,16 +13513,16 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13366,13 +13530,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>23</v>
@@ -13383,16 +13547,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13400,16 +13564,16 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13417,13 +13581,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="C92" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="E92" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>23</v>
@@ -13434,13 +13598,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="E93" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>23</v>
@@ -13451,13 +13615,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="E94" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>23</v>
@@ -13467,14 +13631,14 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="90" t="s">
-        <v>769</v>
-      </c>
-      <c r="C95" s="90" t="s">
-        <v>769</v>
-      </c>
-      <c r="E95" s="90" t="s">
-        <v>769</v>
+      <c r="B95" t="s">
+        <v>546</v>
+      </c>
+      <c r="C95" t="s">
+        <v>546</v>
+      </c>
+      <c r="E95" t="s">
+        <v>546</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>23</v>
@@ -13484,14 +13648,14 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="90" t="s">
-        <v>770</v>
-      </c>
-      <c r="C96" s="90" t="s">
-        <v>770</v>
-      </c>
-      <c r="E96" s="90" t="s">
-        <v>770</v>
+      <c r="B96" t="s">
+        <v>547</v>
+      </c>
+      <c r="C96" t="s">
+        <v>547</v>
+      </c>
+      <c r="E96" t="s">
+        <v>547</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>23</v>
@@ -13501,14 +13665,14 @@
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="90" t="s">
-        <v>771</v>
-      </c>
-      <c r="C97" s="90" t="s">
-        <v>771</v>
-      </c>
-      <c r="E97" s="90" t="s">
-        <v>771</v>
+      <c r="B97" t="s">
+        <v>548</v>
+      </c>
+      <c r="C97" t="s">
+        <v>548</v>
+      </c>
+      <c r="E97" t="s">
+        <v>548</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>23</v>
@@ -13519,13 +13683,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E98" s="90" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>23</v>
@@ -13535,51 +13699,51 @@
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C99" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>182</v>
+      <c r="B99" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="C99" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="E99" s="90" t="s">
+        <v>770</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>183</v>
+      <c r="B100" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="E100" s="90" t="s">
+        <v>771</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="C101" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>184</v>
+      <c r="B101" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="C101" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="E101" s="90" t="s">
+        <v>772</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13587,13 +13751,13 @@
         <v>11</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C102" s="44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -13604,13 +13768,13 @@
         <v>11</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -13621,13 +13785,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -13637,14 +13801,14 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" t="s">
-        <v>503</v>
-      </c>
-      <c r="C105" t="s">
-        <v>503</v>
-      </c>
-      <c r="E105" t="s">
-        <v>217</v>
+      <c r="B105" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="C105" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -13654,14 +13818,14 @@
       <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" t="s">
-        <v>222</v>
+      <c r="B106" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -13671,14 +13835,14 @@
       <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" t="s">
-        <v>223</v>
-      </c>
-      <c r="E107" t="s">
-        <v>223</v>
+      <c r="B107" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -13689,13 +13853,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="E108" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -13706,13 +13870,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="E109" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -13723,13 +13887,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="E110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -13740,13 +13904,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -13757,13 +13921,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -13774,13 +13938,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E113" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -13791,13 +13955,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -13808,13 +13972,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -13825,13 +13989,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -13842,16 +14006,16 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13859,16 +14023,16 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13876,13 +14040,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -13893,16 +14057,16 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13910,16 +14074,16 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -13927,13 +14091,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -13944,13 +14108,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E123" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -13961,13 +14125,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -13978,13 +14142,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -13995,13 +14159,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>22</v>
@@ -14012,13 +14176,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>22</v>
@@ -14029,13 +14193,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
@@ -14046,13 +14210,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>22</v>
@@ -14063,13 +14227,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>22</v>
@@ -14080,13 +14244,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>22</v>
@@ -14097,13 +14261,13 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
@@ -14114,13 +14278,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>22</v>
@@ -14131,13 +14295,13 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>22</v>
@@ -14148,13 +14312,13 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>22</v>
@@ -14165,13 +14329,13 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="E136" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>22</v>
@@ -14182,13 +14346,13 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="C137" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="E137" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
@@ -14199,13 +14363,13 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="E138" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>22</v>
@@ -14216,13 +14380,13 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E139" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>22</v>
@@ -14233,13 +14397,13 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>22</v>
@@ -14250,13 +14414,13 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>22</v>
@@ -14267,13 +14431,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>22</v>
@@ -14284,13 +14448,13 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>22</v>
@@ -14301,13 +14465,13 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E144" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>22</v>
@@ -14318,13 +14482,13 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E145" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>22</v>
@@ -14335,13 +14499,13 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>22</v>
@@ -14352,13 +14516,13 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>22</v>
@@ -14369,13 +14533,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>22</v>
@@ -14386,13 +14550,13 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C149" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E149" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>22</v>
@@ -14403,13 +14567,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>22</v>
@@ -14420,13 +14584,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>22</v>
@@ -14437,13 +14601,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>22</v>
@@ -14454,13 +14618,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E153" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>22</v>
@@ -14471,13 +14635,13 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -14488,13 +14652,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>22</v>
@@ -14505,13 +14669,13 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C156" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E156" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>22</v>
@@ -14522,13 +14686,13 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>22</v>
@@ -14539,13 +14703,13 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>22</v>
@@ -14556,13 +14720,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>22</v>
@@ -14573,13 +14737,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>22</v>
@@ -14590,13 +14754,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>22</v>
@@ -14607,13 +14771,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>22</v>
@@ -14624,13 +14788,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E163" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>22</v>
@@ -14641,13 +14805,13 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>22</v>
@@ -14658,13 +14822,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>22</v>
@@ -14675,13 +14839,13 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>22</v>
@@ -14692,13 +14856,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>22</v>
@@ -14709,13 +14873,13 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>22</v>
@@ -14726,13 +14890,13 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>22</v>
@@ -14743,13 +14907,13 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>22</v>
@@ -14760,13 +14924,13 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C171" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E171" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>22</v>
@@ -14777,13 +14941,13 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>22</v>
@@ -14794,13 +14958,13 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C173" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>22</v>
@@ -14811,69 +14975,120 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="77" t="s">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+      <c r="E175" t="s">
+        <v>447</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" t="s">
+        <v>448</v>
+      </c>
+      <c r="E176" t="s">
+        <v>448</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" t="s">
+        <v>449</v>
+      </c>
+      <c r="E177" t="s">
+        <v>449</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A178" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="C175" s="77" t="s">
+      <c r="C178" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="D175" s="77"/>
-      <c r="E175" s="77" t="s">
+      <c r="D178" s="77"/>
+      <c r="E178" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F178" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="77" t="s">
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="C176" s="77" t="s">
+      <c r="C179" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="D176" s="77"/>
-      <c r="E176" s="77" t="s">
+      <c r="D179" s="77"/>
+      <c r="E179" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F179" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="77" t="s">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A180" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="77" t="s">
         <v>702</v>
       </c>
-      <c r="C177" s="77" t="s">
+      <c r="C180" s="77" t="s">
         <v>702</v>
       </c>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77" t="s">
+      <c r="D180" s="77"/>
+      <c r="E180" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/02_Inst_Variable_fixed.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="789">
   <si>
     <t>Variable</t>
   </si>
@@ -2420,17 +2420,42 @@
   <si>
     <t>212 - change_fl_override</t>
   </si>
+  <si>
+    <t>IND_117_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_118_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ROSSO_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ARANCIONE_OVERRIDE</t>
+  </si>
+  <si>
+    <t>117 - Nopg rosso fl_override</t>
+  </si>
+  <si>
+    <t>118 - Nopg arancione fl_override</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2879,95 +2904,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2975,16 +2997,22 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,38 +3027,39 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="51" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="50" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4057,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:C63"/>
+    <sheetView topLeftCell="A148" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4276,7 @@
       <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="88" t="s">
         <v>760</v>
       </c>
       <c r="G5" s="8">
@@ -5256,7 +5285,7 @@
       <c r="D28" s="59" t="s">
         <v>572</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="86" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -6564,111 +6593,111 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="E58" s="96" t="s">
+        <v>783</v>
+      </c>
+      <c r="F58" s="96" t="s">
+        <v>787</v>
+      </c>
+      <c r="G58" s="94">
+        <v>56</v>
+      </c>
+      <c r="H58" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="K58" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>786</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>786</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>786</v>
+      </c>
+      <c r="E59" s="96" t="s">
+        <v>784</v>
+      </c>
+      <c r="F59" s="96" t="s">
+        <v>788</v>
+      </c>
+      <c r="G59" s="94">
+        <v>57</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
         <v>154</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D60" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F60" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="G58" s="8">
-        <v>56</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="8">
-        <v>57</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="G60" s="8">
         <v>58</v>
@@ -6680,106 +6709,106 @@
         <v>12</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" s="8">
+        <v>59</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="8">
+        <v>60</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="92" t="s">
-        <v>777</v>
-      </c>
-      <c r="C61" s="92" t="s">
-        <v>777</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>777</v>
-      </c>
-      <c r="E61" s="92" t="s">
-        <v>777</v>
-      </c>
-      <c r="F61" s="94" t="s">
-        <v>780</v>
-      </c>
-      <c r="G61" s="95">
-        <v>59</v>
-      </c>
-      <c r="H61" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" s="77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="92" t="s">
-        <v>778</v>
-      </c>
-      <c r="C62" s="92" t="s">
-        <v>778</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>778</v>
-      </c>
-      <c r="E62" s="92" t="s">
-        <v>778</v>
-      </c>
-      <c r="F62" s="94" t="s">
-        <v>781</v>
-      </c>
-      <c r="G62" s="95">
-        <v>60</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" s="77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" s="77" t="b">
+      <c r="K62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6787,22 +6816,22 @@
       <c r="A63" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="92" t="s">
-        <v>779</v>
-      </c>
-      <c r="C63" s="92" t="s">
-        <v>779</v>
-      </c>
-      <c r="D63" s="93" t="s">
-        <v>779</